--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>MFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29337700</v>
+        <v>57822700</v>
       </c>
       <c r="E8" s="3">
-        <v>43905000</v>
+        <v>28320600</v>
       </c>
       <c r="F8" s="3">
-        <v>40151600</v>
+        <v>42382700</v>
       </c>
       <c r="G8" s="3">
-        <v>25918600</v>
+        <v>38759500</v>
       </c>
       <c r="H8" s="3">
-        <v>40942700</v>
+        <v>25019900</v>
       </c>
       <c r="I8" s="3">
-        <v>14031300</v>
+        <v>39523200</v>
       </c>
       <c r="J8" s="3">
+        <v>13544800</v>
+      </c>
+      <c r="K8" s="3">
         <v>21913700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39166700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15280100</v>
+        <v>44155900</v>
       </c>
       <c r="E9" s="3">
-        <v>33372700</v>
+        <v>14750400</v>
       </c>
       <c r="F9" s="3">
-        <v>29239100</v>
+        <v>32215600</v>
       </c>
       <c r="G9" s="3">
-        <v>16118000</v>
+        <v>28225400</v>
       </c>
       <c r="H9" s="3">
-        <v>31292000</v>
+        <v>15559200</v>
       </c>
       <c r="I9" s="3">
-        <v>5014300</v>
+        <v>30207000</v>
       </c>
       <c r="J9" s="3">
+        <v>4840500</v>
+      </c>
+      <c r="K9" s="3">
         <v>14975300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32666700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14057600</v>
+        <v>13666900</v>
       </c>
       <c r="E10" s="3">
-        <v>10532300</v>
+        <v>13570200</v>
       </c>
       <c r="F10" s="3">
-        <v>10912400</v>
+        <v>10167100</v>
       </c>
       <c r="G10" s="3">
-        <v>9800600</v>
+        <v>10534100</v>
       </c>
       <c r="H10" s="3">
-        <v>9650800</v>
+        <v>9460800</v>
       </c>
       <c r="I10" s="3">
-        <v>9016900</v>
+        <v>9316200</v>
       </c>
       <c r="J10" s="3">
+        <v>8704300</v>
+      </c>
+      <c r="K10" s="3">
         <v>6938500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6500000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>150600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>510900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24223300</v>
+        <v>52344200</v>
       </c>
       <c r="E17" s="3">
-        <v>41164800</v>
+        <v>23383400</v>
       </c>
       <c r="F17" s="3">
-        <v>36882900</v>
+        <v>39737600</v>
       </c>
       <c r="G17" s="3">
-        <v>23118900</v>
+        <v>35604200</v>
       </c>
       <c r="H17" s="3">
-        <v>36881400</v>
+        <v>22317400</v>
       </c>
       <c r="I17" s="3">
-        <v>10423900</v>
+        <v>35602700</v>
       </c>
       <c r="J17" s="3">
+        <v>10062500</v>
+      </c>
+      <c r="K17" s="3">
         <v>20274900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38093500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5114500</v>
+        <v>5478500</v>
       </c>
       <c r="E18" s="3">
-        <v>2740200</v>
+        <v>4937100</v>
       </c>
       <c r="F18" s="3">
-        <v>3268600</v>
+        <v>2645200</v>
       </c>
       <c r="G18" s="3">
-        <v>2799600</v>
+        <v>3155300</v>
       </c>
       <c r="H18" s="3">
-        <v>4061300</v>
+        <v>2702600</v>
       </c>
       <c r="I18" s="3">
-        <v>3607400</v>
+        <v>3920500</v>
       </c>
       <c r="J18" s="3">
+        <v>3482300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1638800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1073200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1049,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1046,129 +1079,144 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5677000</v>
+        <v>5933800</v>
       </c>
       <c r="E21" s="3">
-        <v>3161900</v>
+        <v>5480400</v>
       </c>
       <c r="F21" s="3">
-        <v>3790500</v>
+        <v>3052400</v>
       </c>
       <c r="G21" s="3">
-        <v>3236400</v>
+        <v>3659300</v>
       </c>
       <c r="H21" s="3">
-        <v>4409200</v>
+        <v>3124400</v>
       </c>
       <c r="I21" s="3">
-        <v>3928200</v>
+        <v>4256500</v>
       </c>
       <c r="J21" s="3">
+        <v>3792100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1932500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1339500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>959800</v>
+        <v>958500</v>
       </c>
       <c r="E22" s="3">
-        <v>857400</v>
+        <v>926500</v>
       </c>
       <c r="F22" s="3">
-        <v>762600</v>
+        <v>827700</v>
       </c>
       <c r="G22" s="3">
-        <v>828800</v>
+        <v>736100</v>
       </c>
       <c r="H22" s="3">
-        <v>851400</v>
+        <v>800100</v>
       </c>
       <c r="I22" s="3">
-        <v>786700</v>
+        <v>821900</v>
       </c>
       <c r="J22" s="3">
+        <v>759400</v>
+      </c>
+      <c r="K22" s="3">
         <v>703100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>959500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4154600</v>
+        <v>4520000</v>
       </c>
       <c r="E23" s="3">
-        <v>1882700</v>
+        <v>4010600</v>
       </c>
       <c r="F23" s="3">
-        <v>2506000</v>
+        <v>1817500</v>
       </c>
       <c r="G23" s="3">
-        <v>1970800</v>
+        <v>2419200</v>
       </c>
       <c r="H23" s="3">
-        <v>3209900</v>
+        <v>1902500</v>
       </c>
       <c r="I23" s="3">
-        <v>2820700</v>
+        <v>3098600</v>
       </c>
       <c r="J23" s="3">
+        <v>2722900</v>
+      </c>
+      <c r="K23" s="3">
         <v>935700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>716700</v>
+        <v>521800</v>
       </c>
       <c r="E24" s="3">
-        <v>-175400</v>
+        <v>691800</v>
       </c>
       <c r="F24" s="3">
-        <v>157300</v>
+        <v>-169300</v>
       </c>
       <c r="G24" s="3">
-        <v>284600</v>
+        <v>151900</v>
       </c>
       <c r="H24" s="3">
-        <v>508100</v>
+        <v>274700</v>
       </c>
       <c r="I24" s="3">
-        <v>453200</v>
+        <v>490500</v>
       </c>
       <c r="J24" s="3">
+        <v>437500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-319200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-74500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3438000</v>
+        <v>3998200</v>
       </c>
       <c r="E26" s="3">
-        <v>2058100</v>
+        <v>3318800</v>
       </c>
       <c r="F26" s="3">
-        <v>2348700</v>
+        <v>1986800</v>
       </c>
       <c r="G26" s="3">
-        <v>1686200</v>
+        <v>2267300</v>
       </c>
       <c r="H26" s="3">
-        <v>2701800</v>
+        <v>1627800</v>
       </c>
       <c r="I26" s="3">
-        <v>2367500</v>
+        <v>2608100</v>
       </c>
       <c r="J26" s="3">
+        <v>2285400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1254900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>188200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3246000</v>
+        <v>3945900</v>
       </c>
       <c r="E27" s="3">
-        <v>1819500</v>
+        <v>3133500</v>
       </c>
       <c r="F27" s="3">
-        <v>2095000</v>
+        <v>1756400</v>
       </c>
       <c r="G27" s="3">
-        <v>1524400</v>
+        <v>2022400</v>
       </c>
       <c r="H27" s="3">
-        <v>2537700</v>
+        <v>1471500</v>
       </c>
       <c r="I27" s="3">
-        <v>2241800</v>
+        <v>2449700</v>
       </c>
       <c r="J27" s="3">
+        <v>2164100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1227000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>240900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-355300</v>
+        <v>232500</v>
       </c>
       <c r="F29" s="3">
-        <v>9800</v>
+        <v>-343000</v>
       </c>
       <c r="G29" s="3">
-        <v>37600</v>
+        <v>9400</v>
       </c>
       <c r="H29" s="3">
-        <v>3000</v>
+        <v>36300</v>
       </c>
       <c r="I29" s="3">
-        <v>15800</v>
+        <v>2900</v>
       </c>
       <c r="J29" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K29" s="3">
         <v>51200</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,9 +1442,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,39 +1475,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3486900</v>
+        <v>3945900</v>
       </c>
       <c r="E33" s="3">
-        <v>1464200</v>
+        <v>3366000</v>
       </c>
       <c r="F33" s="3">
-        <v>2104800</v>
+        <v>1413400</v>
       </c>
       <c r="G33" s="3">
-        <v>1562000</v>
+        <v>2031800</v>
       </c>
       <c r="H33" s="3">
-        <v>2540700</v>
+        <v>1507900</v>
       </c>
       <c r="I33" s="3">
-        <v>2257600</v>
+        <v>2452600</v>
       </c>
       <c r="J33" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1278200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3486900</v>
+        <v>3945900</v>
       </c>
       <c r="E35" s="3">
-        <v>1464200</v>
+        <v>3366000</v>
       </c>
       <c r="F35" s="3">
-        <v>2104800</v>
+        <v>1413400</v>
       </c>
       <c r="G35" s="3">
-        <v>1562000</v>
+        <v>2031800</v>
       </c>
       <c r="H35" s="3">
-        <v>2540700</v>
+        <v>1507900</v>
       </c>
       <c r="I35" s="3">
-        <v>2257600</v>
+        <v>2452600</v>
       </c>
       <c r="J35" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1278200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12206500</v>
+        <v>14743300</v>
       </c>
       <c r="E41" s="3">
-        <v>12018300</v>
+        <v>11776500</v>
       </c>
       <c r="F41" s="3">
-        <v>11405500</v>
+        <v>11594900</v>
       </c>
       <c r="G41" s="3">
-        <v>13463600</v>
+        <v>11003700</v>
       </c>
       <c r="H41" s="3">
-        <v>15868100</v>
+        <v>12989300</v>
       </c>
       <c r="I41" s="3">
-        <v>10260500</v>
+        <v>15309000</v>
       </c>
       <c r="J41" s="3">
+        <v>9899100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10076800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9843300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,9 +1708,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227113000</v>
+        <v>232587000</v>
       </c>
       <c r="E47" s="3">
-        <v>215392000</v>
+        <v>219112000</v>
       </c>
       <c r="F47" s="3">
-        <v>208515000</v>
+        <v>207804000</v>
       </c>
       <c r="G47" s="3">
-        <v>198589000</v>
+        <v>201169000</v>
       </c>
       <c r="H47" s="3">
-        <v>169338000</v>
+        <v>191593000</v>
       </c>
       <c r="I47" s="3">
-        <v>149101000</v>
+        <v>163372000</v>
       </c>
       <c r="J47" s="3">
+        <v>143848000</v>
+      </c>
+      <c r="K47" s="3">
         <v>155275000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>148586000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>276700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7600900</v>
+        <v>7244500</v>
       </c>
       <c r="E49" s="3">
-        <v>7407500</v>
+        <v>7333100</v>
       </c>
       <c r="F49" s="3">
-        <v>7608400</v>
+        <v>7146500</v>
       </c>
       <c r="G49" s="3">
-        <v>7064200</v>
+        <v>7340400</v>
       </c>
       <c r="H49" s="3">
-        <v>4111000</v>
+        <v>6815300</v>
       </c>
       <c r="I49" s="3">
-        <v>3988300</v>
+        <v>3966200</v>
       </c>
       <c r="J49" s="3">
+        <v>3847800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7698000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4180700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3250500</v>
+        <v>3322000</v>
       </c>
       <c r="E52" s="3">
-        <v>3439500</v>
+        <v>3136000</v>
       </c>
       <c r="F52" s="3">
-        <v>3341600</v>
+        <v>3318300</v>
       </c>
       <c r="G52" s="3">
-        <v>3061600</v>
+        <v>3223900</v>
       </c>
       <c r="H52" s="3">
-        <v>2506000</v>
+        <v>2953700</v>
       </c>
       <c r="I52" s="3">
-        <v>2080000</v>
+        <v>2417800</v>
       </c>
       <c r="J52" s="3">
+        <v>2006700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2391600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1349800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>564797000</v>
+        <v>587647000</v>
       </c>
       <c r="E54" s="3">
-        <v>549185000</v>
+        <v>544899000</v>
       </c>
       <c r="F54" s="3">
-        <v>542521000</v>
+        <v>529838000</v>
       </c>
       <c r="G54" s="3">
-        <v>530448000</v>
+        <v>523409000</v>
       </c>
       <c r="H54" s="3">
-        <v>436171000</v>
+        <v>511761000</v>
       </c>
       <c r="I54" s="3">
-        <v>386654000</v>
+        <v>420805000</v>
       </c>
       <c r="J54" s="3">
+        <v>373033000</v>
+      </c>
+      <c r="K54" s="3">
         <v>365102000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354905000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>246157000</v>
+        <v>259270000</v>
       </c>
       <c r="E59" s="3">
-        <v>253611000</v>
+        <v>237485000</v>
       </c>
       <c r="F59" s="3">
-        <v>246817000</v>
+        <v>244677000</v>
       </c>
       <c r="G59" s="3">
-        <v>245229000</v>
+        <v>238122000</v>
       </c>
       <c r="H59" s="3">
-        <v>200736000</v>
+        <v>236590000</v>
       </c>
       <c r="I59" s="3">
-        <v>187617000</v>
+        <v>193664000</v>
       </c>
       <c r="J59" s="3">
+        <v>181008000</v>
+      </c>
+      <c r="K59" s="3">
         <v>314510000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>296767000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10163400</v>
+        <v>8768300</v>
       </c>
       <c r="E61" s="3">
-        <v>9915700</v>
+        <v>9805400</v>
       </c>
       <c r="F61" s="3">
-        <v>9692900</v>
+        <v>9566400</v>
       </c>
       <c r="G61" s="3">
-        <v>7187600</v>
+        <v>9351500</v>
       </c>
       <c r="H61" s="3">
-        <v>7009200</v>
+        <v>6934400</v>
       </c>
       <c r="I61" s="3">
-        <v>6895600</v>
+        <v>6762300</v>
       </c>
       <c r="J61" s="3">
+        <v>6652600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6736700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13169000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1365600</v>
+        <v>1432200</v>
       </c>
       <c r="E62" s="3">
-        <v>964300</v>
+        <v>1317500</v>
       </c>
       <c r="F62" s="3">
-        <v>1023000</v>
+        <v>930400</v>
       </c>
       <c r="G62" s="3">
-        <v>929700</v>
+        <v>987000</v>
       </c>
       <c r="H62" s="3">
-        <v>924400</v>
+        <v>896900</v>
       </c>
       <c r="I62" s="3">
-        <v>464500</v>
+        <v>891900</v>
       </c>
       <c r="J62" s="3">
+        <v>448100</v>
+      </c>
+      <c r="K62" s="3">
         <v>453900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>588500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>530125000</v>
+        <v>552136000</v>
       </c>
       <c r="E66" s="3">
-        <v>518145000</v>
+        <v>511449000</v>
       </c>
       <c r="F66" s="3">
-        <v>510844000</v>
+        <v>499891000</v>
       </c>
       <c r="G66" s="3">
-        <v>499323000</v>
+        <v>492848000</v>
       </c>
       <c r="H66" s="3">
-        <v>410981000</v>
+        <v>481733000</v>
       </c>
       <c r="I66" s="3">
-        <v>365081000</v>
+        <v>396503000</v>
       </c>
       <c r="J66" s="3">
+        <v>352220000</v>
+      </c>
+      <c r="K66" s="3">
         <v>346389000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>336111000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,39 +2545,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2877200</v>
+        <v>2775800</v>
       </c>
       <c r="E70" s="3">
-        <v>2692700</v>
+        <v>2775800</v>
       </c>
       <c r="F70" s="3">
-        <v>2692700</v>
+        <v>2597900</v>
       </c>
       <c r="G70" s="3">
-        <v>2027300</v>
+        <v>2597900</v>
       </c>
       <c r="H70" s="3">
-        <v>2027300</v>
+        <v>1955800</v>
       </c>
       <c r="I70" s="3">
-        <v>2027300</v>
+        <v>1955800</v>
       </c>
       <c r="J70" s="3">
+        <v>1955800</v>
+      </c>
+      <c r="K70" s="3">
         <v>3759400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1392800</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9563400</v>
+        <v>11248500</v>
       </c>
       <c r="E72" s="3">
-        <v>7590400</v>
+        <v>9226500</v>
       </c>
       <c r="F72" s="3">
-        <v>7346500</v>
+        <v>7323000</v>
       </c>
       <c r="G72" s="3">
-        <v>6321900</v>
+        <v>7087700</v>
       </c>
       <c r="H72" s="3">
-        <v>5739300</v>
+        <v>6099200</v>
       </c>
       <c r="I72" s="3">
-        <v>3985300</v>
+        <v>5537100</v>
       </c>
       <c r="J72" s="3">
+        <v>3844900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2451100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1921300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31794800</v>
+        <v>32735200</v>
       </c>
       <c r="E76" s="3">
-        <v>28347800</v>
+        <v>30674700</v>
       </c>
       <c r="F76" s="3">
-        <v>28984700</v>
+        <v>27349100</v>
       </c>
       <c r="G76" s="3">
-        <v>29097600</v>
+        <v>27963500</v>
       </c>
       <c r="H76" s="3">
-        <v>23162600</v>
+        <v>28072600</v>
       </c>
       <c r="I76" s="3">
-        <v>19545400</v>
+        <v>22346600</v>
       </c>
       <c r="J76" s="3">
+        <v>18856900</v>
+      </c>
+      <c r="K76" s="3">
         <v>14953500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17401200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3486900</v>
+        <v>3945900</v>
       </c>
       <c r="E81" s="3">
-        <v>1464200</v>
+        <v>3366000</v>
       </c>
       <c r="F81" s="3">
-        <v>2104800</v>
+        <v>1413400</v>
       </c>
       <c r="G81" s="3">
-        <v>1562000</v>
+        <v>2031800</v>
       </c>
       <c r="H81" s="3">
-        <v>2540700</v>
+        <v>1507900</v>
       </c>
       <c r="I81" s="3">
-        <v>2257600</v>
+        <v>2452600</v>
       </c>
       <c r="J81" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1278200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>562300</v>
+        <v>454900</v>
       </c>
       <c r="E83" s="3">
-        <v>421600</v>
+        <v>542800</v>
       </c>
       <c r="F83" s="3">
-        <v>521700</v>
+        <v>406900</v>
       </c>
       <c r="G83" s="3">
-        <v>436600</v>
+        <v>503600</v>
       </c>
       <c r="H83" s="3">
-        <v>347800</v>
+        <v>421500</v>
       </c>
       <c r="I83" s="3">
-        <v>320700</v>
+        <v>335700</v>
       </c>
       <c r="J83" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K83" s="3">
         <v>293600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14444500</v>
+        <v>14927700</v>
       </c>
       <c r="E89" s="3">
-        <v>13392900</v>
+        <v>13943700</v>
       </c>
       <c r="F89" s="3">
-        <v>12824500</v>
+        <v>12928500</v>
       </c>
       <c r="G89" s="3">
-        <v>7779300</v>
+        <v>12379900</v>
       </c>
       <c r="H89" s="3">
-        <v>8134600</v>
+        <v>7509600</v>
       </c>
       <c r="I89" s="3">
-        <v>7153800</v>
+        <v>7852600</v>
       </c>
       <c r="J89" s="3">
+        <v>6905700</v>
+      </c>
+      <c r="K89" s="3">
         <v>8126400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8349100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,8 +3144,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2954,9 +3174,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14304500</v>
+        <v>-10050100</v>
       </c>
       <c r="E94" s="3">
-        <v>-12260700</v>
+        <v>-13808600</v>
       </c>
       <c r="F94" s="3">
-        <v>-17117700</v>
+        <v>-11835600</v>
       </c>
       <c r="G94" s="3">
-        <v>-10437400</v>
+        <v>-16524200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3060800</v>
+        <v>-10075600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7939700</v>
+        <v>-2954700</v>
       </c>
       <c r="J94" s="3">
+        <v>-7664400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8156500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8263900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1346000</v>
+        <v>-1015900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1340000</v>
+        <v>-1299300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1199200</v>
+        <v>-1293500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1074200</v>
+        <v>-1157600</v>
       </c>
       <c r="H96" s="3">
-        <v>-685000</v>
+        <v>-1037000</v>
       </c>
       <c r="I96" s="3">
-        <v>-572900</v>
+        <v>-661300</v>
       </c>
       <c r="J96" s="3">
+        <v>-553000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-551800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-550800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-545000</v>
+        <v>-1511500</v>
       </c>
       <c r="E100" s="3">
-        <v>10500</v>
+        <v>-526100</v>
       </c>
       <c r="F100" s="3">
-        <v>2473700</v>
+        <v>10200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1510100</v>
+        <v>2387900</v>
       </c>
       <c r="H100" s="3">
-        <v>15800</v>
+        <v>-1457700</v>
       </c>
       <c r="I100" s="3">
-        <v>525400</v>
+        <v>15300</v>
       </c>
       <c r="J100" s="3">
+        <v>507200</v>
+      </c>
+      <c r="K100" s="3">
         <v>557100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>503200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>618800</v>
+        <v>-338600</v>
       </c>
       <c r="E101" s="3">
-        <v>-495300</v>
+        <v>597300</v>
       </c>
       <c r="F101" s="3">
-        <v>-261200</v>
+        <v>-478200</v>
       </c>
       <c r="G101" s="3">
-        <v>1582400</v>
+        <v>-252200</v>
       </c>
       <c r="H101" s="3">
-        <v>594700</v>
+        <v>1527500</v>
       </c>
       <c r="I101" s="3">
-        <v>360600</v>
+        <v>574100</v>
       </c>
       <c r="J101" s="3">
+        <v>348100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-160300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>147500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213800</v>
+        <v>3027400</v>
       </c>
       <c r="E102" s="3">
-        <v>647400</v>
+        <v>206400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2080700</v>
+        <v>625000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2585800</v>
+        <v>-2008600</v>
       </c>
       <c r="H102" s="3">
-        <v>5684300</v>
+        <v>-2496200</v>
       </c>
       <c r="I102" s="3">
-        <v>100100</v>
+        <v>5487200</v>
       </c>
       <c r="J102" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K102" s="3">
         <v>366600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>736000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57822700</v>
+        <v>60559900</v>
       </c>
       <c r="E8" s="3">
-        <v>28320600</v>
+        <v>29661200</v>
       </c>
       <c r="F8" s="3">
-        <v>42382700</v>
+        <v>44389100</v>
       </c>
       <c r="G8" s="3">
-        <v>38759500</v>
+        <v>40594300</v>
       </c>
       <c r="H8" s="3">
-        <v>25019900</v>
+        <v>26204300</v>
       </c>
       <c r="I8" s="3">
-        <v>39523200</v>
+        <v>41394200</v>
       </c>
       <c r="J8" s="3">
-        <v>13544800</v>
+        <v>14186000</v>
       </c>
       <c r="K8" s="3">
         <v>21913700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44155900</v>
+        <v>46246100</v>
       </c>
       <c r="E9" s="3">
-        <v>14750400</v>
+        <v>15448600</v>
       </c>
       <c r="F9" s="3">
-        <v>32215600</v>
+        <v>33740600</v>
       </c>
       <c r="G9" s="3">
-        <v>28225400</v>
+        <v>29561500</v>
       </c>
       <c r="H9" s="3">
-        <v>15559200</v>
+        <v>16295700</v>
       </c>
       <c r="I9" s="3">
-        <v>30207000</v>
+        <v>31637000</v>
       </c>
       <c r="J9" s="3">
-        <v>4840500</v>
+        <v>5069600</v>
       </c>
       <c r="K9" s="3">
         <v>14975300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13666900</v>
+        <v>14313800</v>
       </c>
       <c r="E10" s="3">
-        <v>13570200</v>
+        <v>14212600</v>
       </c>
       <c r="F10" s="3">
-        <v>10167100</v>
+        <v>10648400</v>
       </c>
       <c r="G10" s="3">
-        <v>10534100</v>
+        <v>11032800</v>
       </c>
       <c r="H10" s="3">
-        <v>9460800</v>
+        <v>9908600</v>
       </c>
       <c r="I10" s="3">
-        <v>9316200</v>
+        <v>9757200</v>
       </c>
       <c r="J10" s="3">
-        <v>8704300</v>
+        <v>9116300</v>
       </c>
       <c r="K10" s="3">
         <v>6938500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52344200</v>
+        <v>54822100</v>
       </c>
       <c r="E17" s="3">
-        <v>23383400</v>
+        <v>24490400</v>
       </c>
       <c r="F17" s="3">
-        <v>39737600</v>
+        <v>41618700</v>
       </c>
       <c r="G17" s="3">
-        <v>35604200</v>
+        <v>37289600</v>
       </c>
       <c r="H17" s="3">
-        <v>22317400</v>
+        <v>23373800</v>
       </c>
       <c r="I17" s="3">
-        <v>35602700</v>
+        <v>37288100</v>
       </c>
       <c r="J17" s="3">
-        <v>10062500</v>
+        <v>10538800</v>
       </c>
       <c r="K17" s="3">
         <v>20274900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5478500</v>
+        <v>5737900</v>
       </c>
       <c r="E18" s="3">
-        <v>4937100</v>
+        <v>5170800</v>
       </c>
       <c r="F18" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="G18" s="3">
-        <v>3155300</v>
+        <v>3304700</v>
       </c>
       <c r="H18" s="3">
-        <v>2702600</v>
+        <v>2830500</v>
       </c>
       <c r="I18" s="3">
-        <v>3920500</v>
+        <v>4106100</v>
       </c>
       <c r="J18" s="3">
-        <v>3482300</v>
+        <v>3647100</v>
       </c>
       <c r="K18" s="3">
         <v>1638800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5933800</v>
+        <v>6213300</v>
       </c>
       <c r="E21" s="3">
-        <v>5480400</v>
+        <v>5738100</v>
       </c>
       <c r="F21" s="3">
-        <v>3052400</v>
+        <v>3195600</v>
       </c>
       <c r="G21" s="3">
-        <v>3659300</v>
+        <v>3830900</v>
       </c>
       <c r="H21" s="3">
-        <v>3124400</v>
+        <v>3271000</v>
       </c>
       <c r="I21" s="3">
-        <v>4256500</v>
+        <v>4456900</v>
       </c>
       <c r="J21" s="3">
-        <v>3792100</v>
+        <v>3970700</v>
       </c>
       <c r="K21" s="3">
         <v>1932500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>958500</v>
+        <v>1003900</v>
       </c>
       <c r="E22" s="3">
-        <v>926500</v>
+        <v>970400</v>
       </c>
       <c r="F22" s="3">
-        <v>827700</v>
+        <v>866900</v>
       </c>
       <c r="G22" s="3">
-        <v>736100</v>
+        <v>771000</v>
       </c>
       <c r="H22" s="3">
-        <v>800100</v>
+        <v>838000</v>
       </c>
       <c r="I22" s="3">
-        <v>821900</v>
+        <v>860800</v>
       </c>
       <c r="J22" s="3">
-        <v>759400</v>
+        <v>795300</v>
       </c>
       <c r="K22" s="3">
         <v>703100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4520000</v>
+        <v>4734000</v>
       </c>
       <c r="E23" s="3">
-        <v>4010600</v>
+        <v>4200500</v>
       </c>
       <c r="F23" s="3">
-        <v>1817500</v>
+        <v>1903500</v>
       </c>
       <c r="G23" s="3">
-        <v>2419200</v>
+        <v>2533700</v>
       </c>
       <c r="H23" s="3">
-        <v>1902500</v>
+        <v>1992500</v>
       </c>
       <c r="I23" s="3">
-        <v>3098600</v>
+        <v>3245300</v>
       </c>
       <c r="J23" s="3">
-        <v>2722900</v>
+        <v>2851800</v>
       </c>
       <c r="K23" s="3">
         <v>935700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>521800</v>
+        <v>546500</v>
       </c>
       <c r="E24" s="3">
-        <v>691800</v>
+        <v>724600</v>
       </c>
       <c r="F24" s="3">
-        <v>-169300</v>
+        <v>-177300</v>
       </c>
       <c r="G24" s="3">
-        <v>151900</v>
+        <v>159100</v>
       </c>
       <c r="H24" s="3">
-        <v>274700</v>
+        <v>287700</v>
       </c>
       <c r="I24" s="3">
-        <v>490500</v>
+        <v>513700</v>
       </c>
       <c r="J24" s="3">
-        <v>437500</v>
+        <v>458200</v>
       </c>
       <c r="K24" s="3">
         <v>-319200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3998200</v>
+        <v>4187500</v>
       </c>
       <c r="E26" s="3">
-        <v>3318800</v>
+        <v>3475900</v>
       </c>
       <c r="F26" s="3">
-        <v>1986800</v>
+        <v>2080800</v>
       </c>
       <c r="G26" s="3">
-        <v>2267300</v>
+        <v>2374600</v>
       </c>
       <c r="H26" s="3">
-        <v>1627800</v>
+        <v>1704800</v>
       </c>
       <c r="I26" s="3">
-        <v>2608100</v>
+        <v>2731600</v>
       </c>
       <c r="J26" s="3">
-        <v>2285400</v>
+        <v>2393600</v>
       </c>
       <c r="K26" s="3">
         <v>1254900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3945900</v>
+        <v>4132700</v>
       </c>
       <c r="E27" s="3">
-        <v>3133500</v>
+        <v>3281800</v>
       </c>
       <c r="F27" s="3">
-        <v>1756400</v>
+        <v>1839600</v>
       </c>
       <c r="G27" s="3">
-        <v>2022400</v>
+        <v>2118100</v>
       </c>
       <c r="H27" s="3">
-        <v>1471500</v>
+        <v>1541200</v>
       </c>
       <c r="I27" s="3">
-        <v>2449700</v>
+        <v>2565600</v>
       </c>
       <c r="J27" s="3">
-        <v>2164100</v>
+        <v>2266500</v>
       </c>
       <c r="K27" s="3">
         <v>1227000</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>232500</v>
+        <v>243500</v>
       </c>
       <c r="F29" s="3">
-        <v>-343000</v>
+        <v>-359200</v>
       </c>
       <c r="G29" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="H29" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="I29" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J29" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="K29" s="3">
         <v>51200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3945900</v>
+        <v>4132700</v>
       </c>
       <c r="E33" s="3">
-        <v>3366000</v>
+        <v>3525400</v>
       </c>
       <c r="F33" s="3">
-        <v>1413400</v>
+        <v>1480300</v>
       </c>
       <c r="G33" s="3">
-        <v>2031800</v>
+        <v>2128000</v>
       </c>
       <c r="H33" s="3">
-        <v>1507900</v>
+        <v>1579300</v>
       </c>
       <c r="I33" s="3">
-        <v>2452600</v>
+        <v>2568700</v>
       </c>
       <c r="J33" s="3">
-        <v>2179300</v>
+        <v>2282500</v>
       </c>
       <c r="K33" s="3">
         <v>1278200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3945900</v>
+        <v>4132700</v>
       </c>
       <c r="E35" s="3">
-        <v>3366000</v>
+        <v>3525400</v>
       </c>
       <c r="F35" s="3">
-        <v>1413400</v>
+        <v>1480300</v>
       </c>
       <c r="G35" s="3">
-        <v>2031800</v>
+        <v>2128000</v>
       </c>
       <c r="H35" s="3">
-        <v>1507900</v>
+        <v>1579300</v>
       </c>
       <c r="I35" s="3">
-        <v>2452600</v>
+        <v>2568700</v>
       </c>
       <c r="J35" s="3">
-        <v>2179300</v>
+        <v>2282500</v>
       </c>
       <c r="K35" s="3">
         <v>1278200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14743300</v>
+        <v>15450100</v>
       </c>
       <c r="E41" s="3">
-        <v>11776500</v>
+        <v>12341100</v>
       </c>
       <c r="F41" s="3">
-        <v>11594900</v>
+        <v>12150800</v>
       </c>
       <c r="G41" s="3">
-        <v>11003700</v>
+        <v>11531300</v>
       </c>
       <c r="H41" s="3">
-        <v>12989300</v>
+        <v>13612100</v>
       </c>
       <c r="I41" s="3">
-        <v>15309000</v>
+        <v>16043000</v>
       </c>
       <c r="J41" s="3">
-        <v>9899100</v>
+        <v>10373700</v>
       </c>
       <c r="K41" s="3">
         <v>10076800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>232587000</v>
+        <v>243738000</v>
       </c>
       <c r="E47" s="3">
-        <v>219112000</v>
+        <v>229617000</v>
       </c>
       <c r="F47" s="3">
-        <v>207804000</v>
+        <v>217767000</v>
       </c>
       <c r="G47" s="3">
-        <v>201169000</v>
+        <v>210814000</v>
       </c>
       <c r="H47" s="3">
-        <v>191593000</v>
+        <v>200779000</v>
       </c>
       <c r="I47" s="3">
-        <v>163372000</v>
+        <v>171205000</v>
       </c>
       <c r="J47" s="3">
-        <v>143848000</v>
+        <v>150745000</v>
       </c>
       <c r="K47" s="3">
         <v>155275000</v>
@@ -1883,7 +1883,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>276700</v>
+        <v>290000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7244500</v>
+        <v>7591900</v>
       </c>
       <c r="E49" s="3">
-        <v>7333100</v>
+        <v>7684700</v>
       </c>
       <c r="F49" s="3">
-        <v>7146500</v>
+        <v>7489100</v>
       </c>
       <c r="G49" s="3">
-        <v>7340400</v>
+        <v>7692300</v>
       </c>
       <c r="H49" s="3">
-        <v>6815300</v>
+        <v>7142100</v>
       </c>
       <c r="I49" s="3">
-        <v>3966200</v>
+        <v>4156300</v>
       </c>
       <c r="J49" s="3">
-        <v>3847800</v>
+        <v>4032300</v>
       </c>
       <c r="K49" s="3">
         <v>7698000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3322000</v>
+        <v>3481200</v>
       </c>
       <c r="E52" s="3">
-        <v>3136000</v>
+        <v>3286400</v>
       </c>
       <c r="F52" s="3">
-        <v>3318300</v>
+        <v>3477400</v>
       </c>
       <c r="G52" s="3">
-        <v>3223900</v>
+        <v>3378500</v>
       </c>
       <c r="H52" s="3">
-        <v>2953700</v>
+        <v>3095400</v>
       </c>
       <c r="I52" s="3">
-        <v>2417800</v>
+        <v>2533700</v>
       </c>
       <c r="J52" s="3">
-        <v>2006700</v>
+        <v>2102900</v>
       </c>
       <c r="K52" s="3">
         <v>2391600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>587647000</v>
+        <v>615821000</v>
       </c>
       <c r="E54" s="3">
-        <v>544899000</v>
+        <v>571024000</v>
       </c>
       <c r="F54" s="3">
-        <v>529838000</v>
+        <v>555240000</v>
       </c>
       <c r="G54" s="3">
-        <v>523409000</v>
+        <v>548503000</v>
       </c>
       <c r="H54" s="3">
-        <v>511761000</v>
+        <v>536297000</v>
       </c>
       <c r="I54" s="3">
-        <v>420805000</v>
+        <v>440980000</v>
       </c>
       <c r="J54" s="3">
-        <v>373033000</v>
+        <v>390917000</v>
       </c>
       <c r="K54" s="3">
         <v>365102000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259270000</v>
+        <v>271700000</v>
       </c>
       <c r="E59" s="3">
-        <v>237485000</v>
+        <v>248871000</v>
       </c>
       <c r="F59" s="3">
-        <v>244677000</v>
+        <v>256407000</v>
       </c>
       <c r="G59" s="3">
-        <v>238122000</v>
+        <v>249539000</v>
       </c>
       <c r="H59" s="3">
-        <v>236590000</v>
+        <v>247933000</v>
       </c>
       <c r="I59" s="3">
-        <v>193664000</v>
+        <v>202949000</v>
       </c>
       <c r="J59" s="3">
-        <v>181008000</v>
+        <v>189686000</v>
       </c>
       <c r="K59" s="3">
         <v>314510000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8768300</v>
+        <v>9188600</v>
       </c>
       <c r="E61" s="3">
-        <v>9805400</v>
+        <v>10275500</v>
       </c>
       <c r="F61" s="3">
-        <v>9566400</v>
+        <v>10025100</v>
       </c>
       <c r="G61" s="3">
-        <v>9351500</v>
+        <v>9799800</v>
       </c>
       <c r="H61" s="3">
-        <v>6934400</v>
+        <v>7266900</v>
       </c>
       <c r="I61" s="3">
-        <v>6762300</v>
+        <v>7086500</v>
       </c>
       <c r="J61" s="3">
-        <v>6652600</v>
+        <v>6971600</v>
       </c>
       <c r="K61" s="3">
         <v>6736700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1432200</v>
+        <v>1500900</v>
       </c>
       <c r="E62" s="3">
-        <v>1317500</v>
+        <v>1380600</v>
       </c>
       <c r="F62" s="3">
-        <v>930400</v>
+        <v>975000</v>
       </c>
       <c r="G62" s="3">
-        <v>987000</v>
+        <v>1034300</v>
       </c>
       <c r="H62" s="3">
-        <v>896900</v>
+        <v>939900</v>
       </c>
       <c r="I62" s="3">
-        <v>891900</v>
+        <v>934600</v>
       </c>
       <c r="J62" s="3">
-        <v>448100</v>
+        <v>469600</v>
       </c>
       <c r="K62" s="3">
         <v>453900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>552136000</v>
+        <v>578607000</v>
       </c>
       <c r="E66" s="3">
-        <v>511449000</v>
+        <v>535970000</v>
       </c>
       <c r="F66" s="3">
-        <v>499891000</v>
+        <v>523858000</v>
       </c>
       <c r="G66" s="3">
-        <v>492848000</v>
+        <v>516476000</v>
       </c>
       <c r="H66" s="3">
-        <v>481733000</v>
+        <v>504829000</v>
       </c>
       <c r="I66" s="3">
-        <v>396503000</v>
+        <v>415513000</v>
       </c>
       <c r="J66" s="3">
-        <v>352220000</v>
+        <v>369107000</v>
       </c>
       <c r="K66" s="3">
         <v>346389000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2775800</v>
+        <v>2908900</v>
       </c>
       <c r="E70" s="3">
-        <v>2775800</v>
+        <v>2908900</v>
       </c>
       <c r="F70" s="3">
-        <v>2597900</v>
+        <v>2722400</v>
       </c>
       <c r="G70" s="3">
-        <v>2597900</v>
+        <v>2722400</v>
       </c>
       <c r="H70" s="3">
-        <v>1955800</v>
+        <v>2049600</v>
       </c>
       <c r="I70" s="3">
-        <v>1955800</v>
+        <v>2049600</v>
       </c>
       <c r="J70" s="3">
-        <v>1955800</v>
+        <v>2049600</v>
       </c>
       <c r="K70" s="3">
         <v>3759400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11248500</v>
+        <v>11787800</v>
       </c>
       <c r="E72" s="3">
-        <v>9226500</v>
+        <v>9668900</v>
       </c>
       <c r="F72" s="3">
-        <v>7323000</v>
+        <v>7674100</v>
       </c>
       <c r="G72" s="3">
-        <v>7087700</v>
+        <v>7427500</v>
       </c>
       <c r="H72" s="3">
-        <v>6099200</v>
+        <v>6391600</v>
       </c>
       <c r="I72" s="3">
-        <v>5537100</v>
+        <v>5802600</v>
       </c>
       <c r="J72" s="3">
-        <v>3844900</v>
+        <v>4029200</v>
       </c>
       <c r="K72" s="3">
         <v>2451100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32735200</v>
+        <v>34304600</v>
       </c>
       <c r="E76" s="3">
-        <v>30674700</v>
+        <v>32145400</v>
       </c>
       <c r="F76" s="3">
-        <v>27349100</v>
+        <v>28660400</v>
       </c>
       <c r="G76" s="3">
-        <v>27963500</v>
+        <v>29304300</v>
       </c>
       <c r="H76" s="3">
-        <v>28072600</v>
+        <v>29418400</v>
       </c>
       <c r="I76" s="3">
-        <v>22346600</v>
+        <v>23418000</v>
       </c>
       <c r="J76" s="3">
-        <v>18856900</v>
+        <v>19761000</v>
       </c>
       <c r="K76" s="3">
         <v>14953500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3945900</v>
+        <v>4132700</v>
       </c>
       <c r="E81" s="3">
-        <v>3366000</v>
+        <v>3525400</v>
       </c>
       <c r="F81" s="3">
-        <v>1413400</v>
+        <v>1480300</v>
       </c>
       <c r="G81" s="3">
-        <v>2031800</v>
+        <v>2128000</v>
       </c>
       <c r="H81" s="3">
-        <v>1507900</v>
+        <v>1579300</v>
       </c>
       <c r="I81" s="3">
-        <v>2452600</v>
+        <v>2568700</v>
       </c>
       <c r="J81" s="3">
-        <v>2179300</v>
+        <v>2282500</v>
       </c>
       <c r="K81" s="3">
         <v>1278200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>454900</v>
+        <v>476400</v>
       </c>
       <c r="E83" s="3">
-        <v>542800</v>
+        <v>568500</v>
       </c>
       <c r="F83" s="3">
-        <v>406900</v>
+        <v>426200</v>
       </c>
       <c r="G83" s="3">
-        <v>503600</v>
+        <v>527400</v>
       </c>
       <c r="H83" s="3">
-        <v>421500</v>
+        <v>441400</v>
       </c>
       <c r="I83" s="3">
-        <v>335700</v>
+        <v>351600</v>
       </c>
       <c r="J83" s="3">
-        <v>309600</v>
+        <v>324200</v>
       </c>
       <c r="K83" s="3">
         <v>293600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14927700</v>
+        <v>15634300</v>
       </c>
       <c r="E89" s="3">
-        <v>13943700</v>
+        <v>14603800</v>
       </c>
       <c r="F89" s="3">
-        <v>12928500</v>
+        <v>13540600</v>
       </c>
       <c r="G89" s="3">
-        <v>12379900</v>
+        <v>12965900</v>
       </c>
       <c r="H89" s="3">
-        <v>7509600</v>
+        <v>7865100</v>
       </c>
       <c r="I89" s="3">
-        <v>7852600</v>
+        <v>8224300</v>
       </c>
       <c r="J89" s="3">
-        <v>6905700</v>
+        <v>7232600</v>
       </c>
       <c r="K89" s="3">
         <v>8126400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10050100</v>
+        <v>-10525900</v>
       </c>
       <c r="E94" s="3">
-        <v>-13808600</v>
+        <v>-14462200</v>
       </c>
       <c r="F94" s="3">
-        <v>-11835600</v>
+        <v>-12395900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16524200</v>
+        <v>-17306400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10075600</v>
+        <v>-10552500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2954700</v>
+        <v>-3094600</v>
       </c>
       <c r="J94" s="3">
-        <v>-7664400</v>
+        <v>-8027200</v>
       </c>
       <c r="K94" s="3">
         <v>-8156500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1015900</v>
+        <v>-1064000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1299300</v>
+        <v>-1360800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1293500</v>
+        <v>-1354700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1157600</v>
+        <v>-1212400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1037000</v>
+        <v>-1086100</v>
       </c>
       <c r="I96" s="3">
-        <v>-661300</v>
+        <v>-692600</v>
       </c>
       <c r="J96" s="3">
-        <v>-553000</v>
+        <v>-579200</v>
       </c>
       <c r="K96" s="3">
         <v>-551800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1511500</v>
+        <v>-1583100</v>
       </c>
       <c r="E100" s="3">
-        <v>-526100</v>
+        <v>-551000</v>
       </c>
       <c r="F100" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="G100" s="3">
-        <v>2387900</v>
+        <v>2500900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1457700</v>
+        <v>-1526700</v>
       </c>
       <c r="I100" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="J100" s="3">
-        <v>507200</v>
+        <v>531200</v>
       </c>
       <c r="K100" s="3">
         <v>557100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-338600</v>
+        <v>-354700</v>
       </c>
       <c r="E101" s="3">
-        <v>597300</v>
+        <v>625600</v>
       </c>
       <c r="F101" s="3">
-        <v>-478200</v>
+        <v>-500800</v>
       </c>
       <c r="G101" s="3">
-        <v>-252200</v>
+        <v>-264100</v>
       </c>
       <c r="H101" s="3">
-        <v>1527500</v>
+        <v>1599800</v>
       </c>
       <c r="I101" s="3">
-        <v>574100</v>
+        <v>601300</v>
       </c>
       <c r="J101" s="3">
-        <v>348100</v>
+        <v>364600</v>
       </c>
       <c r="K101" s="3">
         <v>-160300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3027400</v>
+        <v>3170700</v>
       </c>
       <c r="E102" s="3">
-        <v>206400</v>
+        <v>216100</v>
       </c>
       <c r="F102" s="3">
-        <v>625000</v>
+        <v>654500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2008600</v>
+        <v>-2103700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2496200</v>
+        <v>-2614300</v>
       </c>
       <c r="I102" s="3">
-        <v>5487200</v>
+        <v>5747000</v>
       </c>
       <c r="J102" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="K102" s="3">
         <v>366600</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>60559900</v>
+        <v>61254600</v>
       </c>
       <c r="E8" s="3">
-        <v>29661200</v>
+        <v>30001400</v>
       </c>
       <c r="F8" s="3">
-        <v>44389100</v>
+        <v>44898200</v>
       </c>
       <c r="G8" s="3">
-        <v>40594300</v>
+        <v>41059900</v>
       </c>
       <c r="H8" s="3">
-        <v>26204300</v>
+        <v>26504900</v>
       </c>
       <c r="I8" s="3">
-        <v>41394200</v>
+        <v>41869000</v>
       </c>
       <c r="J8" s="3">
-        <v>14186000</v>
+        <v>14348700</v>
       </c>
       <c r="K8" s="3">
         <v>21913700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46246100</v>
+        <v>46776600</v>
       </c>
       <c r="E9" s="3">
-        <v>15448600</v>
+        <v>15625800</v>
       </c>
       <c r="F9" s="3">
-        <v>33740600</v>
+        <v>34127700</v>
       </c>
       <c r="G9" s="3">
-        <v>29561500</v>
+        <v>29900600</v>
       </c>
       <c r="H9" s="3">
-        <v>16295700</v>
+        <v>16482600</v>
       </c>
       <c r="I9" s="3">
-        <v>31637000</v>
+        <v>31999900</v>
       </c>
       <c r="J9" s="3">
-        <v>5069600</v>
+        <v>5127800</v>
       </c>
       <c r="K9" s="3">
         <v>14975300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14313800</v>
+        <v>14478000</v>
       </c>
       <c r="E10" s="3">
-        <v>14212600</v>
+        <v>14375600</v>
       </c>
       <c r="F10" s="3">
-        <v>10648400</v>
+        <v>10770600</v>
       </c>
       <c r="G10" s="3">
-        <v>11032800</v>
+        <v>11159300</v>
       </c>
       <c r="H10" s="3">
-        <v>9908600</v>
+        <v>10022300</v>
       </c>
       <c r="I10" s="3">
-        <v>9757200</v>
+        <v>9869100</v>
       </c>
       <c r="J10" s="3">
-        <v>9116300</v>
+        <v>9220900</v>
       </c>
       <c r="K10" s="3">
         <v>6938500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54822100</v>
+        <v>55450900</v>
       </c>
       <c r="E17" s="3">
-        <v>24490400</v>
+        <v>24771300</v>
       </c>
       <c r="F17" s="3">
-        <v>41618700</v>
+        <v>42096100</v>
       </c>
       <c r="G17" s="3">
-        <v>37289600</v>
+        <v>37717300</v>
       </c>
       <c r="H17" s="3">
-        <v>23373800</v>
+        <v>23641900</v>
       </c>
       <c r="I17" s="3">
-        <v>37288100</v>
+        <v>37715800</v>
       </c>
       <c r="J17" s="3">
-        <v>10538800</v>
+        <v>10659700</v>
       </c>
       <c r="K17" s="3">
         <v>20274900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5737900</v>
+        <v>5803700</v>
       </c>
       <c r="E18" s="3">
-        <v>5170800</v>
+        <v>5230200</v>
       </c>
       <c r="F18" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="G18" s="3">
-        <v>3304700</v>
+        <v>3342600</v>
       </c>
       <c r="H18" s="3">
-        <v>2830500</v>
+        <v>2863000</v>
       </c>
       <c r="I18" s="3">
-        <v>4106100</v>
+        <v>4153200</v>
       </c>
       <c r="J18" s="3">
-        <v>3647100</v>
+        <v>3689000</v>
       </c>
       <c r="K18" s="3">
         <v>1638800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6213300</v>
+        <v>6284700</v>
       </c>
       <c r="E21" s="3">
-        <v>5738100</v>
+        <v>5804200</v>
       </c>
       <c r="F21" s="3">
-        <v>3195600</v>
+        <v>3232500</v>
       </c>
       <c r="G21" s="3">
-        <v>3830900</v>
+        <v>3875100</v>
       </c>
       <c r="H21" s="3">
-        <v>3271000</v>
+        <v>3308700</v>
       </c>
       <c r="I21" s="3">
-        <v>4456900</v>
+        <v>4508200</v>
       </c>
       <c r="J21" s="3">
-        <v>3970700</v>
+        <v>4016300</v>
       </c>
       <c r="K21" s="3">
         <v>1932500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1003900</v>
+        <v>1015400</v>
       </c>
       <c r="E22" s="3">
-        <v>970400</v>
+        <v>981500</v>
       </c>
       <c r="F22" s="3">
-        <v>866900</v>
+        <v>876800</v>
       </c>
       <c r="G22" s="3">
-        <v>771000</v>
+        <v>779800</v>
       </c>
       <c r="H22" s="3">
-        <v>838000</v>
+        <v>847600</v>
       </c>
       <c r="I22" s="3">
-        <v>860800</v>
+        <v>870700</v>
       </c>
       <c r="J22" s="3">
-        <v>795300</v>
+        <v>804500</v>
       </c>
       <c r="K22" s="3">
         <v>703100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4734000</v>
+        <v>4788300</v>
       </c>
       <c r="E23" s="3">
-        <v>4200500</v>
+        <v>4248600</v>
       </c>
       <c r="F23" s="3">
-        <v>1903500</v>
+        <v>1925300</v>
       </c>
       <c r="G23" s="3">
-        <v>2533700</v>
+        <v>2562700</v>
       </c>
       <c r="H23" s="3">
-        <v>1992500</v>
+        <v>2015400</v>
       </c>
       <c r="I23" s="3">
-        <v>3245300</v>
+        <v>3282500</v>
       </c>
       <c r="J23" s="3">
-        <v>2851800</v>
+        <v>2884500</v>
       </c>
       <c r="K23" s="3">
         <v>935700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>546500</v>
+        <v>552700</v>
       </c>
       <c r="E24" s="3">
-        <v>724600</v>
+        <v>732900</v>
       </c>
       <c r="F24" s="3">
-        <v>-177300</v>
+        <v>-179400</v>
       </c>
       <c r="G24" s="3">
-        <v>159100</v>
+        <v>160900</v>
       </c>
       <c r="H24" s="3">
-        <v>287700</v>
+        <v>291000</v>
       </c>
       <c r="I24" s="3">
-        <v>513700</v>
+        <v>519600</v>
       </c>
       <c r="J24" s="3">
-        <v>458200</v>
+        <v>463400</v>
       </c>
       <c r="K24" s="3">
         <v>-319200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4187500</v>
+        <v>4235500</v>
       </c>
       <c r="E26" s="3">
-        <v>3475900</v>
+        <v>3515800</v>
       </c>
       <c r="F26" s="3">
-        <v>2080800</v>
+        <v>2104700</v>
       </c>
       <c r="G26" s="3">
-        <v>2374600</v>
+        <v>2401800</v>
       </c>
       <c r="H26" s="3">
-        <v>1704800</v>
+        <v>1724400</v>
       </c>
       <c r="I26" s="3">
-        <v>2731600</v>
+        <v>2762900</v>
       </c>
       <c r="J26" s="3">
-        <v>2393600</v>
+        <v>2421100</v>
       </c>
       <c r="K26" s="3">
         <v>1254900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4132700</v>
+        <v>4180100</v>
       </c>
       <c r="E27" s="3">
-        <v>3281800</v>
+        <v>3319500</v>
       </c>
       <c r="F27" s="3">
-        <v>1839600</v>
+        <v>1860700</v>
       </c>
       <c r="G27" s="3">
-        <v>2118100</v>
+        <v>2142400</v>
       </c>
       <c r="H27" s="3">
-        <v>1541200</v>
+        <v>1558900</v>
       </c>
       <c r="I27" s="3">
-        <v>2565600</v>
+        <v>2595100</v>
       </c>
       <c r="J27" s="3">
-        <v>2266500</v>
+        <v>2292500</v>
       </c>
       <c r="K27" s="3">
         <v>1227000</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>243500</v>
+        <v>246300</v>
       </c>
       <c r="F29" s="3">
-        <v>-359200</v>
+        <v>-363400</v>
       </c>
       <c r="G29" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="H29" s="3">
-        <v>38100</v>
+        <v>38500</v>
       </c>
       <c r="I29" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J29" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="K29" s="3">
         <v>51200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4132700</v>
+        <v>4180100</v>
       </c>
       <c r="E33" s="3">
-        <v>3525400</v>
+        <v>3565800</v>
       </c>
       <c r="F33" s="3">
-        <v>1480300</v>
+        <v>1497300</v>
       </c>
       <c r="G33" s="3">
-        <v>2128000</v>
+        <v>2152400</v>
       </c>
       <c r="H33" s="3">
-        <v>1579300</v>
+        <v>1597400</v>
       </c>
       <c r="I33" s="3">
-        <v>2568700</v>
+        <v>2598100</v>
       </c>
       <c r="J33" s="3">
-        <v>2282500</v>
+        <v>2308700</v>
       </c>
       <c r="K33" s="3">
         <v>1278200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4132700</v>
+        <v>4180100</v>
       </c>
       <c r="E35" s="3">
-        <v>3525400</v>
+        <v>3565800</v>
       </c>
       <c r="F35" s="3">
-        <v>1480300</v>
+        <v>1497300</v>
       </c>
       <c r="G35" s="3">
-        <v>2128000</v>
+        <v>2152400</v>
       </c>
       <c r="H35" s="3">
-        <v>1579300</v>
+        <v>1597400</v>
       </c>
       <c r="I35" s="3">
-        <v>2568700</v>
+        <v>2598100</v>
       </c>
       <c r="J35" s="3">
-        <v>2282500</v>
+        <v>2308700</v>
       </c>
       <c r="K35" s="3">
         <v>1278200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15450100</v>
+        <v>15627300</v>
       </c>
       <c r="E41" s="3">
-        <v>12341100</v>
+        <v>12482600</v>
       </c>
       <c r="F41" s="3">
-        <v>12150800</v>
+        <v>12290200</v>
       </c>
       <c r="G41" s="3">
-        <v>11531300</v>
+        <v>11663500</v>
       </c>
       <c r="H41" s="3">
-        <v>13612100</v>
+        <v>13768200</v>
       </c>
       <c r="I41" s="3">
-        <v>16043000</v>
+        <v>16227000</v>
       </c>
       <c r="J41" s="3">
-        <v>10373700</v>
+        <v>10492600</v>
       </c>
       <c r="K41" s="3">
         <v>10076800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>243738000</v>
+        <v>246533000</v>
       </c>
       <c r="E47" s="3">
-        <v>229617000</v>
+        <v>232251000</v>
       </c>
       <c r="F47" s="3">
-        <v>217767000</v>
+        <v>220265000</v>
       </c>
       <c r="G47" s="3">
-        <v>210814000</v>
+        <v>213232000</v>
       </c>
       <c r="H47" s="3">
-        <v>200779000</v>
+        <v>203082000</v>
       </c>
       <c r="I47" s="3">
-        <v>171205000</v>
+        <v>173169000</v>
       </c>
       <c r="J47" s="3">
-        <v>150745000</v>
+        <v>152474000</v>
       </c>
       <c r="K47" s="3">
         <v>155275000</v>
@@ -1883,7 +1883,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>290000</v>
+        <v>293300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7591900</v>
+        <v>7679000</v>
       </c>
       <c r="E49" s="3">
-        <v>7684700</v>
+        <v>7772900</v>
       </c>
       <c r="F49" s="3">
-        <v>7489100</v>
+        <v>7575000</v>
       </c>
       <c r="G49" s="3">
-        <v>7692300</v>
+        <v>7780600</v>
       </c>
       <c r="H49" s="3">
-        <v>7142100</v>
+        <v>7224000</v>
       </c>
       <c r="I49" s="3">
-        <v>4156300</v>
+        <v>4204000</v>
       </c>
       <c r="J49" s="3">
-        <v>4032300</v>
+        <v>4078500</v>
       </c>
       <c r="K49" s="3">
         <v>7698000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3481200</v>
+        <v>3521200</v>
       </c>
       <c r="E52" s="3">
-        <v>3286400</v>
+        <v>3324100</v>
       </c>
       <c r="F52" s="3">
-        <v>3477400</v>
+        <v>3517300</v>
       </c>
       <c r="G52" s="3">
-        <v>3378500</v>
+        <v>3417200</v>
       </c>
       <c r="H52" s="3">
-        <v>3095400</v>
+        <v>3130900</v>
       </c>
       <c r="I52" s="3">
-        <v>2533700</v>
+        <v>2562700</v>
       </c>
       <c r="J52" s="3">
-        <v>2102900</v>
+        <v>2127000</v>
       </c>
       <c r="K52" s="3">
         <v>2391600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>615821000</v>
+        <v>622885000</v>
       </c>
       <c r="E54" s="3">
-        <v>571024000</v>
+        <v>577574000</v>
       </c>
       <c r="F54" s="3">
-        <v>555240000</v>
+        <v>561609000</v>
       </c>
       <c r="G54" s="3">
-        <v>548503000</v>
+        <v>554795000</v>
       </c>
       <c r="H54" s="3">
-        <v>536297000</v>
+        <v>542448000</v>
       </c>
       <c r="I54" s="3">
-        <v>440980000</v>
+        <v>446038000</v>
       </c>
       <c r="J54" s="3">
-        <v>390917000</v>
+        <v>395401000</v>
       </c>
       <c r="K54" s="3">
         <v>365102000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271700000</v>
+        <v>274817000</v>
       </c>
       <c r="E59" s="3">
-        <v>248871000</v>
+        <v>251726000</v>
       </c>
       <c r="F59" s="3">
-        <v>256407000</v>
+        <v>259349000</v>
       </c>
       <c r="G59" s="3">
-        <v>249539000</v>
+        <v>252401000</v>
       </c>
       <c r="H59" s="3">
-        <v>247933000</v>
+        <v>250777000</v>
       </c>
       <c r="I59" s="3">
-        <v>202949000</v>
+        <v>205277000</v>
       </c>
       <c r="J59" s="3">
-        <v>189686000</v>
+        <v>191862000</v>
       </c>
       <c r="K59" s="3">
         <v>314510000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9188600</v>
+        <v>9294000</v>
       </c>
       <c r="E61" s="3">
-        <v>10275500</v>
+        <v>10393300</v>
       </c>
       <c r="F61" s="3">
-        <v>10025100</v>
+        <v>10140100</v>
       </c>
       <c r="G61" s="3">
-        <v>9799800</v>
+        <v>9912200</v>
       </c>
       <c r="H61" s="3">
-        <v>7266900</v>
+        <v>7350200</v>
       </c>
       <c r="I61" s="3">
-        <v>7086500</v>
+        <v>7167800</v>
       </c>
       <c r="J61" s="3">
-        <v>6971600</v>
+        <v>7051600</v>
       </c>
       <c r="K61" s="3">
         <v>6736700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500900</v>
+        <v>1518100</v>
       </c>
       <c r="E62" s="3">
-        <v>1380600</v>
+        <v>1396500</v>
       </c>
       <c r="F62" s="3">
-        <v>975000</v>
+        <v>986100</v>
       </c>
       <c r="G62" s="3">
-        <v>1034300</v>
+        <v>1046200</v>
       </c>
       <c r="H62" s="3">
-        <v>939900</v>
+        <v>950700</v>
       </c>
       <c r="I62" s="3">
-        <v>934600</v>
+        <v>945300</v>
       </c>
       <c r="J62" s="3">
-        <v>469600</v>
+        <v>475000</v>
       </c>
       <c r="K62" s="3">
         <v>453900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>578607000</v>
+        <v>585244000</v>
       </c>
       <c r="E66" s="3">
-        <v>535970000</v>
+        <v>542117000</v>
       </c>
       <c r="F66" s="3">
-        <v>523858000</v>
+        <v>529866000</v>
       </c>
       <c r="G66" s="3">
-        <v>516476000</v>
+        <v>522401000</v>
       </c>
       <c r="H66" s="3">
-        <v>504829000</v>
+        <v>510619000</v>
       </c>
       <c r="I66" s="3">
-        <v>415513000</v>
+        <v>420279000</v>
       </c>
       <c r="J66" s="3">
-        <v>369107000</v>
+        <v>373340000</v>
       </c>
       <c r="K66" s="3">
         <v>346389000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2908900</v>
+        <v>2942300</v>
       </c>
       <c r="E70" s="3">
-        <v>2908900</v>
+        <v>2942300</v>
       </c>
       <c r="F70" s="3">
-        <v>2722400</v>
+        <v>2753600</v>
       </c>
       <c r="G70" s="3">
-        <v>2722400</v>
+        <v>2753600</v>
       </c>
       <c r="H70" s="3">
-        <v>2049600</v>
+        <v>2073100</v>
       </c>
       <c r="I70" s="3">
-        <v>2049600</v>
+        <v>2073100</v>
       </c>
       <c r="J70" s="3">
-        <v>2049600</v>
+        <v>2073100</v>
       </c>
       <c r="K70" s="3">
         <v>3759400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11787800</v>
+        <v>11923000</v>
       </c>
       <c r="E72" s="3">
-        <v>9668900</v>
+        <v>9779800</v>
       </c>
       <c r="F72" s="3">
-        <v>7674100</v>
+        <v>7762100</v>
       </c>
       <c r="G72" s="3">
-        <v>7427500</v>
+        <v>7512700</v>
       </c>
       <c r="H72" s="3">
-        <v>6391600</v>
+        <v>6464900</v>
       </c>
       <c r="I72" s="3">
-        <v>5802600</v>
+        <v>5869100</v>
       </c>
       <c r="J72" s="3">
-        <v>4029200</v>
+        <v>4075400</v>
       </c>
       <c r="K72" s="3">
         <v>2451100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34304600</v>
+        <v>34698000</v>
       </c>
       <c r="E76" s="3">
-        <v>32145400</v>
+        <v>32514100</v>
       </c>
       <c r="F76" s="3">
-        <v>28660400</v>
+        <v>28989200</v>
       </c>
       <c r="G76" s="3">
-        <v>29304300</v>
+        <v>29640400</v>
       </c>
       <c r="H76" s="3">
-        <v>29418400</v>
+        <v>29755900</v>
       </c>
       <c r="I76" s="3">
-        <v>23418000</v>
+        <v>23686600</v>
       </c>
       <c r="J76" s="3">
-        <v>19761000</v>
+        <v>19987600</v>
       </c>
       <c r="K76" s="3">
         <v>14953500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4132700</v>
+        <v>4180100</v>
       </c>
       <c r="E81" s="3">
-        <v>3525400</v>
+        <v>3565800</v>
       </c>
       <c r="F81" s="3">
-        <v>1480300</v>
+        <v>1497300</v>
       </c>
       <c r="G81" s="3">
-        <v>2128000</v>
+        <v>2152400</v>
       </c>
       <c r="H81" s="3">
-        <v>1579300</v>
+        <v>1597400</v>
       </c>
       <c r="I81" s="3">
-        <v>2568700</v>
+        <v>2598100</v>
       </c>
       <c r="J81" s="3">
-        <v>2282500</v>
+        <v>2308700</v>
       </c>
       <c r="K81" s="3">
         <v>1278200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>476400</v>
+        <v>481900</v>
       </c>
       <c r="E83" s="3">
-        <v>568500</v>
+        <v>575100</v>
       </c>
       <c r="F83" s="3">
-        <v>426200</v>
+        <v>431100</v>
       </c>
       <c r="G83" s="3">
-        <v>527400</v>
+        <v>533500</v>
       </c>
       <c r="H83" s="3">
-        <v>441400</v>
+        <v>446500</v>
       </c>
       <c r="I83" s="3">
-        <v>351600</v>
+        <v>355700</v>
       </c>
       <c r="J83" s="3">
-        <v>324200</v>
+        <v>327900</v>
       </c>
       <c r="K83" s="3">
         <v>293600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15634300</v>
+        <v>15813600</v>
       </c>
       <c r="E89" s="3">
-        <v>14603800</v>
+        <v>14771300</v>
       </c>
       <c r="F89" s="3">
-        <v>13540600</v>
+        <v>13695900</v>
       </c>
       <c r="G89" s="3">
-        <v>12965900</v>
+        <v>13114700</v>
       </c>
       <c r="H89" s="3">
-        <v>7865100</v>
+        <v>7955300</v>
       </c>
       <c r="I89" s="3">
-        <v>8224300</v>
+        <v>8318700</v>
       </c>
       <c r="J89" s="3">
-        <v>7232600</v>
+        <v>7315600</v>
       </c>
       <c r="K89" s="3">
         <v>8126400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10525900</v>
+        <v>-10646600</v>
       </c>
       <c r="E94" s="3">
-        <v>-14462200</v>
+        <v>-14628100</v>
       </c>
       <c r="F94" s="3">
-        <v>-12395900</v>
+        <v>-12538100</v>
       </c>
       <c r="G94" s="3">
-        <v>-17306400</v>
+        <v>-17504900</v>
       </c>
       <c r="H94" s="3">
-        <v>-10552500</v>
+        <v>-10673600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3094600</v>
+        <v>-3130100</v>
       </c>
       <c r="J94" s="3">
-        <v>-8027200</v>
+        <v>-8119300</v>
       </c>
       <c r="K94" s="3">
         <v>-8156500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1064000</v>
+        <v>-1076200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1360800</v>
+        <v>-1376400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1354700</v>
+        <v>-1370300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1212400</v>
+        <v>-1226300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1086100</v>
+        <v>-1098500</v>
       </c>
       <c r="I96" s="3">
-        <v>-692600</v>
+        <v>-700500</v>
       </c>
       <c r="J96" s="3">
-        <v>-579200</v>
+        <v>-585800</v>
       </c>
       <c r="K96" s="3">
         <v>-551800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1583100</v>
+        <v>-1601200</v>
       </c>
       <c r="E100" s="3">
-        <v>-551000</v>
+        <v>-557300</v>
       </c>
       <c r="F100" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="G100" s="3">
-        <v>2500900</v>
+        <v>2529600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1526700</v>
+        <v>-1544300</v>
       </c>
       <c r="I100" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="J100" s="3">
-        <v>531200</v>
+        <v>537300</v>
       </c>
       <c r="K100" s="3">
         <v>557100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-354700</v>
+        <v>-358700</v>
       </c>
       <c r="E101" s="3">
-        <v>625600</v>
+        <v>632800</v>
       </c>
       <c r="F101" s="3">
-        <v>-500800</v>
+        <v>-506500</v>
       </c>
       <c r="G101" s="3">
-        <v>-264100</v>
+        <v>-267100</v>
       </c>
       <c r="H101" s="3">
-        <v>1599800</v>
+        <v>1618200</v>
       </c>
       <c r="I101" s="3">
-        <v>601300</v>
+        <v>608200</v>
       </c>
       <c r="J101" s="3">
-        <v>364600</v>
+        <v>368700</v>
       </c>
       <c r="K101" s="3">
         <v>-160300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3170700</v>
+        <v>3207100</v>
       </c>
       <c r="E102" s="3">
-        <v>216100</v>
+        <v>218600</v>
       </c>
       <c r="F102" s="3">
-        <v>654500</v>
+        <v>662000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2103700</v>
+        <v>-2127800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2614300</v>
+        <v>-2644300</v>
       </c>
       <c r="I102" s="3">
-        <v>5747000</v>
+        <v>5812900</v>
       </c>
       <c r="J102" s="3">
-        <v>101200</v>
+        <v>102400</v>
       </c>
       <c r="K102" s="3">
         <v>366600</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61254600</v>
+        <v>57026100</v>
       </c>
       <c r="E8" s="3">
-        <v>30001400</v>
+        <v>61714400</v>
       </c>
       <c r="F8" s="3">
-        <v>44898200</v>
+        <v>30905600</v>
       </c>
       <c r="G8" s="3">
-        <v>41059900</v>
+        <v>46251300</v>
       </c>
       <c r="H8" s="3">
-        <v>26504900</v>
+        <v>42297300</v>
       </c>
       <c r="I8" s="3">
-        <v>41869000</v>
+        <v>27303700</v>
       </c>
       <c r="J8" s="3">
+        <v>43130800</v>
+      </c>
+      <c r="K8" s="3">
         <v>14348700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21913700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39166700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46776600</v>
+        <v>47475700</v>
       </c>
       <c r="E9" s="3">
-        <v>15625800</v>
+        <v>48186300</v>
       </c>
       <c r="F9" s="3">
-        <v>34127700</v>
+        <v>16096700</v>
       </c>
       <c r="G9" s="3">
-        <v>29900600</v>
+        <v>35156200</v>
       </c>
       <c r="H9" s="3">
-        <v>16482600</v>
+        <v>30801700</v>
       </c>
       <c r="I9" s="3">
-        <v>31999900</v>
+        <v>16979400</v>
       </c>
       <c r="J9" s="3">
+        <v>32964300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5127800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14975300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32666700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14478000</v>
+        <v>9550300</v>
       </c>
       <c r="E10" s="3">
-        <v>14375600</v>
+        <v>13528100</v>
       </c>
       <c r="F10" s="3">
-        <v>10770600</v>
+        <v>14808900</v>
       </c>
       <c r="G10" s="3">
-        <v>11159300</v>
+        <v>11095100</v>
       </c>
       <c r="H10" s="3">
-        <v>10022300</v>
+        <v>11495600</v>
       </c>
       <c r="I10" s="3">
-        <v>9869100</v>
+        <v>10324300</v>
       </c>
       <c r="J10" s="3">
+        <v>10166500</v>
+      </c>
+      <c r="K10" s="3">
         <v>9220900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6938500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6500000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>557500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>150600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>510900</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55450900</v>
+        <v>52669200</v>
       </c>
       <c r="E17" s="3">
-        <v>24771300</v>
+        <v>55735800</v>
       </c>
       <c r="F17" s="3">
-        <v>42096100</v>
+        <v>25517800</v>
       </c>
       <c r="G17" s="3">
-        <v>37717300</v>
+        <v>43364700</v>
       </c>
       <c r="H17" s="3">
-        <v>23641900</v>
+        <v>38854000</v>
       </c>
       <c r="I17" s="3">
-        <v>37715800</v>
+        <v>24354400</v>
       </c>
       <c r="J17" s="3">
+        <v>38852400</v>
+      </c>
+      <c r="K17" s="3">
         <v>10659700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20274900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38093500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5803700</v>
+        <v>4356900</v>
       </c>
       <c r="E18" s="3">
-        <v>5230200</v>
+        <v>5978600</v>
       </c>
       <c r="F18" s="3">
-        <v>2802100</v>
+        <v>5387800</v>
       </c>
       <c r="G18" s="3">
-        <v>3342600</v>
+        <v>2886600</v>
       </c>
       <c r="H18" s="3">
-        <v>2863000</v>
+        <v>3443300</v>
       </c>
       <c r="I18" s="3">
-        <v>4153200</v>
+        <v>2949200</v>
       </c>
       <c r="J18" s="3">
+        <v>4278300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3689000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1638800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1073200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,13 +1082,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1949200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1082,141 +1115,156 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6284700</v>
+        <v>6827800</v>
       </c>
       <c r="E21" s="3">
-        <v>5804200</v>
+        <v>6476400</v>
       </c>
       <c r="F21" s="3">
-        <v>3232500</v>
+        <v>5981800</v>
       </c>
       <c r="G21" s="3">
-        <v>3875100</v>
+        <v>3331900</v>
       </c>
       <c r="H21" s="3">
-        <v>3308700</v>
+        <v>3994400</v>
       </c>
       <c r="I21" s="3">
-        <v>4508200</v>
+        <v>3410500</v>
       </c>
       <c r="J21" s="3">
+        <v>4645700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4016300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1932500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1339500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1015400</v>
+        <v>936600</v>
       </c>
       <c r="E22" s="3">
-        <v>981500</v>
+        <v>1046000</v>
       </c>
       <c r="F22" s="3">
-        <v>876800</v>
+        <v>1011100</v>
       </c>
       <c r="G22" s="3">
-        <v>779800</v>
+        <v>903200</v>
       </c>
       <c r="H22" s="3">
-        <v>847600</v>
+        <v>803300</v>
       </c>
       <c r="I22" s="3">
-        <v>870700</v>
+        <v>873100</v>
       </c>
       <c r="J22" s="3">
+        <v>896900</v>
+      </c>
+      <c r="K22" s="3">
         <v>804500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>703100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>959500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4788300</v>
+        <v>5369500</v>
       </c>
       <c r="E23" s="3">
-        <v>4248600</v>
+        <v>4932600</v>
       </c>
       <c r="F23" s="3">
-        <v>1925300</v>
+        <v>4376700</v>
       </c>
       <c r="G23" s="3">
-        <v>2562700</v>
+        <v>1983300</v>
       </c>
       <c r="H23" s="3">
-        <v>2015400</v>
+        <v>2640000</v>
       </c>
       <c r="I23" s="3">
-        <v>3282500</v>
+        <v>2076100</v>
       </c>
       <c r="J23" s="3">
+        <v>3381400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2884500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>935700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>552700</v>
+        <v>947700</v>
       </c>
       <c r="E24" s="3">
-        <v>732900</v>
+        <v>569400</v>
       </c>
       <c r="F24" s="3">
-        <v>-179400</v>
+        <v>755000</v>
       </c>
       <c r="G24" s="3">
-        <v>160900</v>
+        <v>-184800</v>
       </c>
       <c r="H24" s="3">
-        <v>291000</v>
+        <v>165700</v>
       </c>
       <c r="I24" s="3">
-        <v>519600</v>
+        <v>299800</v>
       </c>
       <c r="J24" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K24" s="3">
         <v>463400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-319200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-74500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4235500</v>
+        <v>4421900</v>
       </c>
       <c r="E26" s="3">
-        <v>3515800</v>
+        <v>4363200</v>
       </c>
       <c r="F26" s="3">
-        <v>2104700</v>
+        <v>3621700</v>
       </c>
       <c r="G26" s="3">
-        <v>2401800</v>
+        <v>2168100</v>
       </c>
       <c r="H26" s="3">
-        <v>1724400</v>
+        <v>2474200</v>
       </c>
       <c r="I26" s="3">
-        <v>2762900</v>
+        <v>1776400</v>
       </c>
       <c r="J26" s="3">
+        <v>2846100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2421100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1254900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>188200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4180100</v>
+        <v>4520200</v>
       </c>
       <c r="E27" s="3">
-        <v>3319500</v>
+        <v>4306100</v>
       </c>
       <c r="F27" s="3">
-        <v>1860700</v>
+        <v>3419500</v>
       </c>
       <c r="G27" s="3">
-        <v>2142400</v>
+        <v>1916700</v>
       </c>
       <c r="H27" s="3">
-        <v>1558900</v>
+        <v>2207000</v>
       </c>
       <c r="I27" s="3">
-        <v>2595100</v>
+        <v>1605900</v>
       </c>
       <c r="J27" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2292500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1227000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1356,32 +1416,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>246300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-363400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>16200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>51200</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,14 +1511,17 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1949200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1478,42 +1547,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4180100</v>
+        <v>4520200</v>
       </c>
       <c r="E33" s="3">
-        <v>3565800</v>
+        <v>4306100</v>
       </c>
       <c r="F33" s="3">
-        <v>1497300</v>
+        <v>3419500</v>
       </c>
       <c r="G33" s="3">
-        <v>2152400</v>
+        <v>1916700</v>
       </c>
       <c r="H33" s="3">
-        <v>1597400</v>
+        <v>2207000</v>
       </c>
       <c r="I33" s="3">
-        <v>2598100</v>
+        <v>1605900</v>
       </c>
       <c r="J33" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2308700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1278200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4180100</v>
+        <v>4520200</v>
       </c>
       <c r="E35" s="3">
-        <v>3565800</v>
+        <v>4306100</v>
       </c>
       <c r="F35" s="3">
-        <v>1497300</v>
+        <v>3419500</v>
       </c>
       <c r="G35" s="3">
-        <v>2152400</v>
+        <v>1916700</v>
       </c>
       <c r="H35" s="3">
-        <v>1597400</v>
+        <v>2207000</v>
       </c>
       <c r="I35" s="3">
-        <v>2598100</v>
+        <v>1605900</v>
       </c>
       <c r="J35" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2308700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1278200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15627300</v>
+        <v>20751000</v>
       </c>
       <c r="E41" s="3">
-        <v>12482600</v>
+        <v>16098300</v>
       </c>
       <c r="F41" s="3">
-        <v>12290200</v>
+        <v>12858800</v>
       </c>
       <c r="G41" s="3">
-        <v>11663500</v>
+        <v>12660600</v>
       </c>
       <c r="H41" s="3">
-        <v>13768200</v>
+        <v>12015000</v>
       </c>
       <c r="I41" s="3">
-        <v>16227000</v>
+        <v>14183200</v>
       </c>
       <c r="J41" s="3">
+        <v>16716100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10492600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10076800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9843300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,32 +1800,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1145100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1098300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,50 +1944,56 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>246533000</v>
+        <v>305162000</v>
       </c>
       <c r="E47" s="3">
-        <v>232251000</v>
+        <v>284081000</v>
       </c>
       <c r="F47" s="3">
-        <v>220265000</v>
+        <v>267604000</v>
       </c>
       <c r="G47" s="3">
-        <v>213232000</v>
+        <v>252384000</v>
       </c>
       <c r="H47" s="3">
-        <v>203082000</v>
+        <v>243234000</v>
       </c>
       <c r="I47" s="3">
-        <v>173169000</v>
+        <v>231072000</v>
       </c>
       <c r="J47" s="3">
+        <v>196852000</v>
+      </c>
+      <c r="K47" s="3">
         <v>152474000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>155275000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148586000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>293300</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>302100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
@@ -1903,48 +2010,54 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7679000</v>
+        <v>7873900</v>
       </c>
       <c r="E49" s="3">
-        <v>7772900</v>
+        <v>7910400</v>
       </c>
       <c r="F49" s="3">
-        <v>7575000</v>
+        <v>8007100</v>
       </c>
       <c r="G49" s="3">
-        <v>7780600</v>
+        <v>7803300</v>
       </c>
       <c r="H49" s="3">
-        <v>7224000</v>
+        <v>8015100</v>
       </c>
       <c r="I49" s="3">
-        <v>4204000</v>
+        <v>7441700</v>
       </c>
       <c r="J49" s="3">
+        <v>4330700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4078500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7698000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4180700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3521200</v>
+        <v>3839800</v>
       </c>
       <c r="E52" s="3">
-        <v>3324100</v>
+        <v>3627300</v>
       </c>
       <c r="F52" s="3">
-        <v>3517300</v>
+        <v>3424300</v>
       </c>
       <c r="G52" s="3">
-        <v>3417200</v>
+        <v>3623300</v>
       </c>
       <c r="H52" s="3">
-        <v>3130900</v>
+        <v>3520200</v>
       </c>
       <c r="I52" s="3">
-        <v>2562700</v>
+        <v>3225200</v>
       </c>
       <c r="J52" s="3">
+        <v>2640000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2127000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2391600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1349800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>622885000</v>
+        <v>698134000</v>
       </c>
       <c r="E54" s="3">
-        <v>577574000</v>
+        <v>641656000</v>
       </c>
       <c r="F54" s="3">
-        <v>561609000</v>
+        <v>594980000</v>
       </c>
       <c r="G54" s="3">
-        <v>554795000</v>
+        <v>578534000</v>
       </c>
       <c r="H54" s="3">
-        <v>542448000</v>
+        <v>571514000</v>
       </c>
       <c r="I54" s="3">
-        <v>446038000</v>
+        <v>558796000</v>
       </c>
       <c r="J54" s="3">
+        <v>459481000</v>
+      </c>
+      <c r="K54" s="3">
         <v>395401000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>365102000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354905000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>274817000</v>
+        <v>319666000</v>
       </c>
       <c r="E59" s="3">
-        <v>251726000</v>
+        <v>300139000</v>
       </c>
       <c r="F59" s="3">
-        <v>259349000</v>
+        <v>274922000</v>
       </c>
       <c r="G59" s="3">
-        <v>252401000</v>
+        <v>281543000</v>
       </c>
       <c r="H59" s="3">
-        <v>250777000</v>
+        <v>274218000</v>
       </c>
       <c r="I59" s="3">
-        <v>205277000</v>
+        <v>272699000</v>
       </c>
       <c r="J59" s="3">
+        <v>226042000</v>
+      </c>
+      <c r="K59" s="3">
         <v>191862000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>314510000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>296767000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9294000</v>
+        <v>11096700</v>
       </c>
       <c r="E61" s="3">
-        <v>10393300</v>
+        <v>9574100</v>
       </c>
       <c r="F61" s="3">
-        <v>10140100</v>
+        <v>10706600</v>
       </c>
       <c r="G61" s="3">
-        <v>9912200</v>
+        <v>10445700</v>
       </c>
       <c r="H61" s="3">
-        <v>7350200</v>
+        <v>10210900</v>
       </c>
       <c r="I61" s="3">
-        <v>7167800</v>
+        <v>7571800</v>
       </c>
       <c r="J61" s="3">
+        <v>7383800</v>
+      </c>
+      <c r="K61" s="3">
         <v>7051600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6736700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13169000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1518100</v>
+        <v>2073000</v>
       </c>
       <c r="E62" s="3">
-        <v>1396500</v>
+        <v>1563800</v>
       </c>
       <c r="F62" s="3">
-        <v>986100</v>
+        <v>1438500</v>
       </c>
       <c r="G62" s="3">
-        <v>1046200</v>
+        <v>1015900</v>
       </c>
       <c r="H62" s="3">
-        <v>950700</v>
+        <v>1077700</v>
       </c>
       <c r="I62" s="3">
-        <v>945300</v>
+        <v>979400</v>
       </c>
       <c r="J62" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K62" s="3">
         <v>475000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>453900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>588500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>585244000</v>
+        <v>657253000</v>
       </c>
       <c r="E66" s="3">
-        <v>542117000</v>
+        <v>602882000</v>
       </c>
       <c r="F66" s="3">
-        <v>529866000</v>
+        <v>558455000</v>
       </c>
       <c r="G66" s="3">
-        <v>522401000</v>
+        <v>545835000</v>
       </c>
       <c r="H66" s="3">
-        <v>510619000</v>
+        <v>538144000</v>
       </c>
       <c r="I66" s="3">
-        <v>420279000</v>
+        <v>526008000</v>
       </c>
       <c r="J66" s="3">
+        <v>432945000</v>
+      </c>
+      <c r="K66" s="3">
         <v>373340000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346389000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>336111000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,42 +2712,48 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2942300</v>
+        <v>3030900</v>
       </c>
       <c r="E70" s="3">
-        <v>2942300</v>
+        <v>3030900</v>
       </c>
       <c r="F70" s="3">
-        <v>2753600</v>
+        <v>3030900</v>
       </c>
       <c r="G70" s="3">
-        <v>2753600</v>
+        <v>2836600</v>
       </c>
       <c r="H70" s="3">
+        <v>2836600</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2135600</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2135600</v>
+      </c>
+      <c r="K70" s="3">
         <v>2073100</v>
       </c>
-      <c r="I70" s="3">
-        <v>2073100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2073100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3759400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1392800</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11923000</v>
+        <v>14977800</v>
       </c>
       <c r="E72" s="3">
-        <v>9779800</v>
+        <v>12282300</v>
       </c>
       <c r="F72" s="3">
-        <v>7762100</v>
+        <v>10074500</v>
       </c>
       <c r="G72" s="3">
-        <v>7512700</v>
+        <v>7996000</v>
       </c>
       <c r="H72" s="3">
-        <v>6464900</v>
+        <v>7739100</v>
       </c>
       <c r="I72" s="3">
-        <v>5869100</v>
+        <v>6659800</v>
       </c>
       <c r="J72" s="3">
+        <v>6046000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4075400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2451100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1921300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34698000</v>
+        <v>37850100</v>
       </c>
       <c r="E76" s="3">
-        <v>32514100</v>
+        <v>35743800</v>
       </c>
       <c r="F76" s="3">
-        <v>28989200</v>
+        <v>33494000</v>
       </c>
       <c r="G76" s="3">
-        <v>29640400</v>
+        <v>29862800</v>
       </c>
       <c r="H76" s="3">
-        <v>29755900</v>
+        <v>30533700</v>
       </c>
       <c r="I76" s="3">
-        <v>23686600</v>
+        <v>30652600</v>
       </c>
       <c r="J76" s="3">
+        <v>24400400</v>
+      </c>
+      <c r="K76" s="3">
         <v>19987600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14953500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17401200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4180100</v>
+        <v>4520200</v>
       </c>
       <c r="E81" s="3">
-        <v>3565800</v>
+        <v>4306100</v>
       </c>
       <c r="F81" s="3">
-        <v>1497300</v>
+        <v>3419500</v>
       </c>
       <c r="G81" s="3">
-        <v>2152400</v>
+        <v>1916700</v>
       </c>
       <c r="H81" s="3">
-        <v>1597400</v>
+        <v>2207000</v>
       </c>
       <c r="I81" s="3">
-        <v>2598100</v>
+        <v>1605900</v>
       </c>
       <c r="J81" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2308700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1278200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>481900</v>
+        <v>520200</v>
       </c>
       <c r="E83" s="3">
-        <v>575100</v>
+        <v>496400</v>
       </c>
       <c r="F83" s="3">
-        <v>431100</v>
+        <v>592400</v>
       </c>
       <c r="G83" s="3">
-        <v>533500</v>
+        <v>444100</v>
       </c>
       <c r="H83" s="3">
-        <v>446500</v>
+        <v>549600</v>
       </c>
       <c r="I83" s="3">
-        <v>355700</v>
+        <v>460000</v>
       </c>
       <c r="J83" s="3">
+        <v>366400</v>
+      </c>
+      <c r="K83" s="3">
         <v>327900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>293600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15813600</v>
+        <v>15898500</v>
       </c>
       <c r="E89" s="3">
-        <v>14771300</v>
+        <v>16290200</v>
       </c>
       <c r="F89" s="3">
-        <v>13695900</v>
+        <v>15216500</v>
       </c>
       <c r="G89" s="3">
-        <v>13114700</v>
+        <v>14108600</v>
       </c>
       <c r="H89" s="3">
-        <v>7955300</v>
+        <v>13509900</v>
       </c>
       <c r="I89" s="3">
-        <v>8318700</v>
+        <v>8195100</v>
       </c>
       <c r="J89" s="3">
+        <v>8569400</v>
+      </c>
+      <c r="K89" s="3">
         <v>7315600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8126400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8349100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,8 +3364,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3177,9 +3397,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10646600</v>
+        <v>-11219600</v>
       </c>
       <c r="E94" s="3">
-        <v>-14628100</v>
+        <v>-10967500</v>
       </c>
       <c r="F94" s="3">
-        <v>-12538100</v>
+        <v>-15069000</v>
       </c>
       <c r="G94" s="3">
-        <v>-17504900</v>
+        <v>-12915900</v>
       </c>
       <c r="H94" s="3">
-        <v>-10673600</v>
+        <v>-18032500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3130100</v>
+        <v>-10995200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3224400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8119300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8156500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8263900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1076200</v>
+        <v>-1855700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1376400</v>
+        <v>-1108600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1370300</v>
+        <v>-1417900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1226300</v>
+        <v>-1411600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1098500</v>
+        <v>-1263300</v>
       </c>
       <c r="I96" s="3">
-        <v>-700500</v>
+        <v>-1131600</v>
       </c>
       <c r="J96" s="3">
+        <v>-721600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-585800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-551800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-550800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1601200</v>
+        <v>525800</v>
       </c>
       <c r="E100" s="3">
-        <v>-557300</v>
+        <v>-1649500</v>
       </c>
       <c r="F100" s="3">
-        <v>10800</v>
+        <v>-574100</v>
       </c>
       <c r="G100" s="3">
-        <v>2529600</v>
+        <v>11100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1544300</v>
+        <v>2605900</v>
       </c>
       <c r="I100" s="3">
-        <v>16200</v>
+        <v>-1590800</v>
       </c>
       <c r="J100" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K100" s="3">
         <v>537300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>557100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>503200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-358700</v>
+        <v>-418700</v>
       </c>
       <c r="E101" s="3">
-        <v>632800</v>
+        <v>-369500</v>
       </c>
       <c r="F101" s="3">
-        <v>-506500</v>
+        <v>651900</v>
       </c>
       <c r="G101" s="3">
-        <v>-267100</v>
+        <v>-521800</v>
       </c>
       <c r="H101" s="3">
-        <v>1618200</v>
+        <v>-275200</v>
       </c>
       <c r="I101" s="3">
-        <v>608200</v>
+        <v>1666900</v>
       </c>
       <c r="J101" s="3">
+        <v>626500</v>
+      </c>
+      <c r="K101" s="3">
         <v>368700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-160300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>147500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3207100</v>
+        <v>4785900</v>
       </c>
       <c r="E102" s="3">
-        <v>218600</v>
+        <v>3303700</v>
       </c>
       <c r="F102" s="3">
-        <v>662000</v>
+        <v>225200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2127800</v>
+        <v>682000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2644300</v>
+        <v>-2191900</v>
       </c>
       <c r="I102" s="3">
-        <v>5812900</v>
+        <v>-2724000</v>
       </c>
       <c r="J102" s="3">
+        <v>5988100</v>
+      </c>
+      <c r="K102" s="3">
         <v>102400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>366600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>736000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57026100</v>
+        <v>59617000</v>
       </c>
       <c r="E8" s="3">
-        <v>61714400</v>
+        <v>64518300</v>
       </c>
       <c r="F8" s="3">
-        <v>30905600</v>
+        <v>32309700</v>
       </c>
       <c r="G8" s="3">
-        <v>46251300</v>
+        <v>48352700</v>
       </c>
       <c r="H8" s="3">
-        <v>42297300</v>
+        <v>44219000</v>
       </c>
       <c r="I8" s="3">
-        <v>27303700</v>
+        <v>28544200</v>
       </c>
       <c r="J8" s="3">
-        <v>43130800</v>
+        <v>45090400</v>
       </c>
       <c r="K8" s="3">
         <v>14348700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47475700</v>
+        <v>49632700</v>
       </c>
       <c r="E9" s="3">
-        <v>48186300</v>
+        <v>50375600</v>
       </c>
       <c r="F9" s="3">
-        <v>16096700</v>
+        <v>16828100</v>
       </c>
       <c r="G9" s="3">
-        <v>35156200</v>
+        <v>36753400</v>
       </c>
       <c r="H9" s="3">
-        <v>30801700</v>
+        <v>32201100</v>
       </c>
       <c r="I9" s="3">
-        <v>16979400</v>
+        <v>17750800</v>
       </c>
       <c r="J9" s="3">
-        <v>32964300</v>
+        <v>34462000</v>
       </c>
       <c r="K9" s="3">
         <v>5127800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9550300</v>
+        <v>9984200</v>
       </c>
       <c r="E10" s="3">
-        <v>13528100</v>
+        <v>14142800</v>
       </c>
       <c r="F10" s="3">
-        <v>14808900</v>
+        <v>15481700</v>
       </c>
       <c r="G10" s="3">
-        <v>11095100</v>
+        <v>11599200</v>
       </c>
       <c r="H10" s="3">
-        <v>11495600</v>
+        <v>12017900</v>
       </c>
       <c r="I10" s="3">
-        <v>10324300</v>
+        <v>10793400</v>
       </c>
       <c r="J10" s="3">
-        <v>10166500</v>
+        <v>10628400</v>
       </c>
       <c r="K10" s="3">
         <v>9220900</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>557500</v>
+        <v>582800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52669200</v>
+        <v>55062200</v>
       </c>
       <c r="E17" s="3">
-        <v>55735800</v>
+        <v>58268100</v>
       </c>
       <c r="F17" s="3">
-        <v>25517800</v>
+        <v>26677200</v>
       </c>
       <c r="G17" s="3">
-        <v>43364700</v>
+        <v>45334900</v>
       </c>
       <c r="H17" s="3">
-        <v>38854000</v>
+        <v>40619300</v>
       </c>
       <c r="I17" s="3">
-        <v>24354400</v>
+        <v>25461000</v>
       </c>
       <c r="J17" s="3">
-        <v>38852400</v>
+        <v>40617600</v>
       </c>
       <c r="K17" s="3">
         <v>10659700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4356900</v>
+        <v>4554800</v>
       </c>
       <c r="E18" s="3">
-        <v>5978600</v>
+        <v>6250200</v>
       </c>
       <c r="F18" s="3">
-        <v>5387800</v>
+        <v>5632600</v>
       </c>
       <c r="G18" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="H18" s="3">
-        <v>3443300</v>
+        <v>3599700</v>
       </c>
       <c r="I18" s="3">
-        <v>2949200</v>
+        <v>3083200</v>
       </c>
       <c r="J18" s="3">
-        <v>4278300</v>
+        <v>4472700</v>
       </c>
       <c r="K18" s="3">
         <v>3689000</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1949200</v>
+        <v>2037800</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6827800</v>
+        <v>7137500</v>
       </c>
       <c r="E21" s="3">
-        <v>6476400</v>
+        <v>6770200</v>
       </c>
       <c r="F21" s="3">
-        <v>5981800</v>
+        <v>6253000</v>
       </c>
       <c r="G21" s="3">
-        <v>3331900</v>
+        <v>3482900</v>
       </c>
       <c r="H21" s="3">
-        <v>3994400</v>
+        <v>4175400</v>
       </c>
       <c r="I21" s="3">
-        <v>3410500</v>
+        <v>3565000</v>
       </c>
       <c r="J21" s="3">
-        <v>4645700</v>
+        <v>4856500</v>
       </c>
       <c r="K21" s="3">
         <v>4016300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>936600</v>
+        <v>979100</v>
       </c>
       <c r="E22" s="3">
-        <v>1046000</v>
+        <v>1093500</v>
       </c>
       <c r="F22" s="3">
-        <v>1011100</v>
+        <v>1057000</v>
       </c>
       <c r="G22" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="H22" s="3">
-        <v>803300</v>
+        <v>839800</v>
       </c>
       <c r="I22" s="3">
-        <v>873100</v>
+        <v>912800</v>
       </c>
       <c r="J22" s="3">
-        <v>896900</v>
+        <v>937700</v>
       </c>
       <c r="K22" s="3">
         <v>804500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5369500</v>
+        <v>5613500</v>
       </c>
       <c r="E23" s="3">
-        <v>4932600</v>
+        <v>5156700</v>
       </c>
       <c r="F23" s="3">
-        <v>4376700</v>
+        <v>4575500</v>
       </c>
       <c r="G23" s="3">
-        <v>1983300</v>
+        <v>2073500</v>
       </c>
       <c r="H23" s="3">
-        <v>2640000</v>
+        <v>2759900</v>
       </c>
       <c r="I23" s="3">
-        <v>2076100</v>
+        <v>2170500</v>
       </c>
       <c r="J23" s="3">
-        <v>3381400</v>
+        <v>3535100</v>
       </c>
       <c r="K23" s="3">
         <v>2884500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>947700</v>
+        <v>990700</v>
       </c>
       <c r="E24" s="3">
-        <v>569400</v>
+        <v>595300</v>
       </c>
       <c r="F24" s="3">
-        <v>755000</v>
+        <v>789300</v>
       </c>
       <c r="G24" s="3">
-        <v>-184800</v>
+        <v>-193200</v>
       </c>
       <c r="H24" s="3">
-        <v>165700</v>
+        <v>173300</v>
       </c>
       <c r="I24" s="3">
-        <v>299800</v>
+        <v>313400</v>
       </c>
       <c r="J24" s="3">
-        <v>535300</v>
+        <v>559600</v>
       </c>
       <c r="K24" s="3">
         <v>463400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4421900</v>
+        <v>4622800</v>
       </c>
       <c r="E26" s="3">
-        <v>4363200</v>
+        <v>4561400</v>
       </c>
       <c r="F26" s="3">
-        <v>3621700</v>
+        <v>3786300</v>
       </c>
       <c r="G26" s="3">
-        <v>2168100</v>
+        <v>2266600</v>
       </c>
       <c r="H26" s="3">
-        <v>2474200</v>
+        <v>2586600</v>
       </c>
       <c r="I26" s="3">
-        <v>1776400</v>
+        <v>1857100</v>
       </c>
       <c r="J26" s="3">
-        <v>2846100</v>
+        <v>2975500</v>
       </c>
       <c r="K26" s="3">
         <v>2421100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4520200</v>
+        <v>4725600</v>
       </c>
       <c r="E27" s="3">
-        <v>4306100</v>
+        <v>4501700</v>
       </c>
       <c r="F27" s="3">
-        <v>3419500</v>
+        <v>3574900</v>
       </c>
       <c r="G27" s="3">
-        <v>1916700</v>
+        <v>2003800</v>
       </c>
       <c r="H27" s="3">
-        <v>2207000</v>
+        <v>2307200</v>
       </c>
       <c r="I27" s="3">
-        <v>1605900</v>
+        <v>1678800</v>
       </c>
       <c r="J27" s="3">
-        <v>2673300</v>
+        <v>2794700</v>
       </c>
       <c r="K27" s="3">
         <v>2292500</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1949200</v>
+        <v>-2037800</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4520200</v>
+        <v>4725600</v>
       </c>
       <c r="E33" s="3">
-        <v>4306100</v>
+        <v>4501700</v>
       </c>
       <c r="F33" s="3">
-        <v>3419500</v>
+        <v>3574900</v>
       </c>
       <c r="G33" s="3">
-        <v>1916700</v>
+        <v>2003800</v>
       </c>
       <c r="H33" s="3">
-        <v>2207000</v>
+        <v>2307200</v>
       </c>
       <c r="I33" s="3">
-        <v>1605900</v>
+        <v>1678800</v>
       </c>
       <c r="J33" s="3">
-        <v>2673300</v>
+        <v>2794700</v>
       </c>
       <c r="K33" s="3">
         <v>2308700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4520200</v>
+        <v>4725600</v>
       </c>
       <c r="E35" s="3">
-        <v>4306100</v>
+        <v>4501700</v>
       </c>
       <c r="F35" s="3">
-        <v>3419500</v>
+        <v>3574900</v>
       </c>
       <c r="G35" s="3">
-        <v>1916700</v>
+        <v>2003800</v>
       </c>
       <c r="H35" s="3">
-        <v>2207000</v>
+        <v>2307200</v>
       </c>
       <c r="I35" s="3">
-        <v>1605900</v>
+        <v>1678800</v>
       </c>
       <c r="J35" s="3">
-        <v>2673300</v>
+        <v>2794700</v>
       </c>
       <c r="K35" s="3">
         <v>2308700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20751000</v>
+        <v>21693800</v>
       </c>
       <c r="E41" s="3">
-        <v>16098300</v>
+        <v>16829700</v>
       </c>
       <c r="F41" s="3">
-        <v>12858800</v>
+        <v>13443000</v>
       </c>
       <c r="G41" s="3">
-        <v>12660600</v>
+        <v>13235800</v>
       </c>
       <c r="H41" s="3">
-        <v>12015000</v>
+        <v>12560900</v>
       </c>
       <c r="I41" s="3">
-        <v>14183200</v>
+        <v>14827600</v>
       </c>
       <c r="J41" s="3">
-        <v>16716100</v>
+        <v>17475500</v>
       </c>
       <c r="K41" s="3">
         <v>10492600</v>
@@ -1810,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1145100</v>
+        <v>1197100</v>
       </c>
       <c r="E43" s="3">
-        <v>1098300</v>
+        <v>1148200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305162000</v>
+        <v>319027000</v>
       </c>
       <c r="E47" s="3">
-        <v>284081000</v>
+        <v>296988000</v>
       </c>
       <c r="F47" s="3">
-        <v>267604000</v>
+        <v>279762000</v>
       </c>
       <c r="G47" s="3">
-        <v>252384000</v>
+        <v>263851000</v>
       </c>
       <c r="H47" s="3">
-        <v>243234000</v>
+        <v>254285000</v>
       </c>
       <c r="I47" s="3">
-        <v>231072000</v>
+        <v>241570000</v>
       </c>
       <c r="J47" s="3">
-        <v>196852000</v>
+        <v>205796000</v>
       </c>
       <c r="K47" s="3">
         <v>152474000</v>
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>302100</v>
+        <v>315900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7873900</v>
+        <v>8231600</v>
       </c>
       <c r="E49" s="3">
-        <v>7910400</v>
+        <v>8269800</v>
       </c>
       <c r="F49" s="3">
-        <v>8007100</v>
+        <v>8370900</v>
       </c>
       <c r="G49" s="3">
-        <v>7803300</v>
+        <v>8157900</v>
       </c>
       <c r="H49" s="3">
-        <v>8015100</v>
+        <v>8379200</v>
       </c>
       <c r="I49" s="3">
-        <v>7441700</v>
+        <v>7779800</v>
       </c>
       <c r="J49" s="3">
-        <v>4330700</v>
+        <v>4527400</v>
       </c>
       <c r="K49" s="3">
         <v>4078500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3839800</v>
+        <v>4014300</v>
       </c>
       <c r="E52" s="3">
-        <v>3627300</v>
+        <v>3792100</v>
       </c>
       <c r="F52" s="3">
-        <v>3424300</v>
+        <v>3579800</v>
       </c>
       <c r="G52" s="3">
-        <v>3623300</v>
+        <v>3787900</v>
       </c>
       <c r="H52" s="3">
-        <v>3520200</v>
+        <v>3680200</v>
       </c>
       <c r="I52" s="3">
-        <v>3225200</v>
+        <v>3371700</v>
       </c>
       <c r="J52" s="3">
-        <v>2640000</v>
+        <v>2759900</v>
       </c>
       <c r="K52" s="3">
         <v>2127000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>698134000</v>
+        <v>729853000</v>
       </c>
       <c r="E54" s="3">
-        <v>641656000</v>
+        <v>670809000</v>
       </c>
       <c r="F54" s="3">
-        <v>594980000</v>
+        <v>622012000</v>
       </c>
       <c r="G54" s="3">
-        <v>578534000</v>
+        <v>604819000</v>
       </c>
       <c r="H54" s="3">
-        <v>571514000</v>
+        <v>597481000</v>
       </c>
       <c r="I54" s="3">
-        <v>558796000</v>
+        <v>584184000</v>
       </c>
       <c r="J54" s="3">
-        <v>459481000</v>
+        <v>480357000</v>
       </c>
       <c r="K54" s="3">
         <v>395401000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>319666000</v>
+        <v>334190000</v>
       </c>
       <c r="E59" s="3">
-        <v>300139000</v>
+        <v>313776000</v>
       </c>
       <c r="F59" s="3">
-        <v>274922000</v>
+        <v>287413000</v>
       </c>
       <c r="G59" s="3">
-        <v>281543000</v>
+        <v>294334000</v>
       </c>
       <c r="H59" s="3">
-        <v>274218000</v>
+        <v>286676000</v>
       </c>
       <c r="I59" s="3">
-        <v>272699000</v>
+        <v>285089000</v>
       </c>
       <c r="J59" s="3">
-        <v>226042000</v>
+        <v>236312000</v>
       </c>
       <c r="K59" s="3">
         <v>191862000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11096700</v>
+        <v>11600900</v>
       </c>
       <c r="E61" s="3">
-        <v>9574100</v>
+        <v>10009100</v>
       </c>
       <c r="F61" s="3">
-        <v>10706600</v>
+        <v>11193000</v>
       </c>
       <c r="G61" s="3">
-        <v>10445700</v>
+        <v>10920200</v>
       </c>
       <c r="H61" s="3">
-        <v>10210900</v>
+        <v>10674800</v>
       </c>
       <c r="I61" s="3">
-        <v>7571800</v>
+        <v>7915800</v>
       </c>
       <c r="J61" s="3">
-        <v>7383800</v>
+        <v>7719300</v>
       </c>
       <c r="K61" s="3">
         <v>7051600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2073000</v>
+        <v>2167100</v>
       </c>
       <c r="E62" s="3">
-        <v>1563800</v>
+        <v>1634900</v>
       </c>
       <c r="F62" s="3">
-        <v>1438500</v>
+        <v>1503900</v>
       </c>
       <c r="G62" s="3">
-        <v>1015900</v>
+        <v>1062000</v>
       </c>
       <c r="H62" s="3">
-        <v>1077700</v>
+        <v>1126700</v>
       </c>
       <c r="I62" s="3">
-        <v>979400</v>
+        <v>1023900</v>
       </c>
       <c r="J62" s="3">
-        <v>973800</v>
+        <v>1018100</v>
       </c>
       <c r="K62" s="3">
         <v>475000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>657253000</v>
+        <v>687115000</v>
       </c>
       <c r="E66" s="3">
-        <v>602882000</v>
+        <v>630273000</v>
       </c>
       <c r="F66" s="3">
-        <v>558455000</v>
+        <v>583828000</v>
       </c>
       <c r="G66" s="3">
-        <v>545835000</v>
+        <v>570634000</v>
       </c>
       <c r="H66" s="3">
-        <v>538144000</v>
+        <v>562594000</v>
       </c>
       <c r="I66" s="3">
-        <v>526008000</v>
+        <v>549906000</v>
       </c>
       <c r="J66" s="3">
-        <v>432945000</v>
+        <v>452615000</v>
       </c>
       <c r="K66" s="3">
         <v>373340000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3030900</v>
+        <v>3168600</v>
       </c>
       <c r="E70" s="3">
-        <v>3030900</v>
+        <v>3168600</v>
       </c>
       <c r="F70" s="3">
-        <v>3030900</v>
+        <v>3168600</v>
       </c>
       <c r="G70" s="3">
-        <v>2836600</v>
+        <v>2965500</v>
       </c>
       <c r="H70" s="3">
-        <v>2836600</v>
+        <v>2965500</v>
       </c>
       <c r="I70" s="3">
-        <v>2135600</v>
+        <v>2232600</v>
       </c>
       <c r="J70" s="3">
-        <v>2135600</v>
+        <v>2232600</v>
       </c>
       <c r="K70" s="3">
         <v>2073100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14977800</v>
+        <v>15658300</v>
       </c>
       <c r="E72" s="3">
-        <v>12282300</v>
+        <v>12840300</v>
       </c>
       <c r="F72" s="3">
-        <v>10074500</v>
+        <v>10532300</v>
       </c>
       <c r="G72" s="3">
-        <v>7996000</v>
+        <v>8359300</v>
       </c>
       <c r="H72" s="3">
-        <v>7739100</v>
+        <v>8090700</v>
       </c>
       <c r="I72" s="3">
-        <v>6659800</v>
+        <v>6962400</v>
       </c>
       <c r="J72" s="3">
-        <v>6046000</v>
+        <v>6320700</v>
       </c>
       <c r="K72" s="3">
         <v>4075400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37850100</v>
+        <v>39569800</v>
       </c>
       <c r="E76" s="3">
-        <v>35743800</v>
+        <v>37367800</v>
       </c>
       <c r="F76" s="3">
-        <v>33494000</v>
+        <v>35015800</v>
       </c>
       <c r="G76" s="3">
-        <v>29862800</v>
+        <v>31219500</v>
       </c>
       <c r="H76" s="3">
-        <v>30533700</v>
+        <v>31920900</v>
       </c>
       <c r="I76" s="3">
-        <v>30652600</v>
+        <v>32045300</v>
       </c>
       <c r="J76" s="3">
-        <v>24400400</v>
+        <v>25509100</v>
       </c>
       <c r="K76" s="3">
         <v>19987600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4520200</v>
+        <v>4725600</v>
       </c>
       <c r="E81" s="3">
-        <v>4306100</v>
+        <v>4501700</v>
       </c>
       <c r="F81" s="3">
-        <v>3419500</v>
+        <v>3574900</v>
       </c>
       <c r="G81" s="3">
-        <v>1916700</v>
+        <v>2003800</v>
       </c>
       <c r="H81" s="3">
-        <v>2207000</v>
+        <v>2307200</v>
       </c>
       <c r="I81" s="3">
-        <v>1605900</v>
+        <v>1678800</v>
       </c>
       <c r="J81" s="3">
-        <v>2673300</v>
+        <v>2794700</v>
       </c>
       <c r="K81" s="3">
         <v>2308700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>520200</v>
+        <v>543900</v>
       </c>
       <c r="E83" s="3">
-        <v>496400</v>
+        <v>519000</v>
       </c>
       <c r="F83" s="3">
-        <v>592400</v>
+        <v>619300</v>
       </c>
       <c r="G83" s="3">
-        <v>444100</v>
+        <v>464300</v>
       </c>
       <c r="H83" s="3">
-        <v>549600</v>
+        <v>574500</v>
       </c>
       <c r="I83" s="3">
-        <v>460000</v>
+        <v>480800</v>
       </c>
       <c r="J83" s="3">
-        <v>366400</v>
+        <v>383000</v>
       </c>
       <c r="K83" s="3">
         <v>327900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15898500</v>
+        <v>16620800</v>
       </c>
       <c r="E89" s="3">
-        <v>16290200</v>
+        <v>17030300</v>
       </c>
       <c r="F89" s="3">
-        <v>15216500</v>
+        <v>15907800</v>
       </c>
       <c r="G89" s="3">
-        <v>14108600</v>
+        <v>14749600</v>
       </c>
       <c r="H89" s="3">
-        <v>13509900</v>
+        <v>14123700</v>
       </c>
       <c r="I89" s="3">
-        <v>8195100</v>
+        <v>8567400</v>
       </c>
       <c r="J89" s="3">
-        <v>8569400</v>
+        <v>8958700</v>
       </c>
       <c r="K89" s="3">
         <v>7315600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11219600</v>
+        <v>-11729400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10967500</v>
+        <v>-11465800</v>
       </c>
       <c r="F94" s="3">
-        <v>-15069000</v>
+        <v>-15753600</v>
       </c>
       <c r="G94" s="3">
-        <v>-12915900</v>
+        <v>-13502700</v>
       </c>
       <c r="H94" s="3">
-        <v>-18032500</v>
+        <v>-18851800</v>
       </c>
       <c r="I94" s="3">
-        <v>-10995200</v>
+        <v>-11494800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3224400</v>
+        <v>-3370900</v>
       </c>
       <c r="K94" s="3">
         <v>-8119300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1855700</v>
+        <v>-1940000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1108600</v>
+        <v>-1159000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1417900</v>
+        <v>-1482300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1411600</v>
+        <v>-1475700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1263300</v>
+        <v>-1320700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1131600</v>
+        <v>-1183100</v>
       </c>
       <c r="J96" s="3">
-        <v>-721600</v>
+        <v>-754400</v>
       </c>
       <c r="K96" s="3">
         <v>-585800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>525800</v>
+        <v>549700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1649500</v>
+        <v>-1724400</v>
       </c>
       <c r="F100" s="3">
-        <v>-574100</v>
+        <v>-600200</v>
       </c>
       <c r="G100" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="H100" s="3">
-        <v>2605900</v>
+        <v>2724300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1590800</v>
+        <v>-1663100</v>
       </c>
       <c r="J100" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="K100" s="3">
         <v>537300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-418700</v>
+        <v>-437700</v>
       </c>
       <c r="E101" s="3">
-        <v>-369500</v>
+        <v>-386300</v>
       </c>
       <c r="F101" s="3">
-        <v>651900</v>
+        <v>681500</v>
       </c>
       <c r="G101" s="3">
-        <v>-521800</v>
+        <v>-545500</v>
       </c>
       <c r="H101" s="3">
-        <v>-275200</v>
+        <v>-287700</v>
       </c>
       <c r="I101" s="3">
-        <v>1666900</v>
+        <v>1742700</v>
       </c>
       <c r="J101" s="3">
-        <v>626500</v>
+        <v>654900</v>
       </c>
       <c r="K101" s="3">
         <v>368700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4785900</v>
+        <v>5003300</v>
       </c>
       <c r="E102" s="3">
-        <v>3303700</v>
+        <v>3453800</v>
       </c>
       <c r="F102" s="3">
-        <v>225200</v>
+        <v>235500</v>
       </c>
       <c r="G102" s="3">
-        <v>682000</v>
+        <v>713000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2191900</v>
+        <v>-2291500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2724000</v>
+        <v>-2847800</v>
       </c>
       <c r="J102" s="3">
-        <v>5988100</v>
+        <v>6260200</v>
       </c>
       <c r="K102" s="3">
         <v>102400</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>MFC</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59617000</v>
+        <v>56066100</v>
       </c>
       <c r="E8" s="3">
-        <v>64518300</v>
+        <v>60675500</v>
       </c>
       <c r="F8" s="3">
-        <v>32309700</v>
+        <v>29053600</v>
       </c>
       <c r="G8" s="3">
-        <v>48352700</v>
+        <v>45472700</v>
       </c>
       <c r="H8" s="3">
-        <v>44219000</v>
+        <v>41585300</v>
       </c>
       <c r="I8" s="3">
-        <v>28544200</v>
+        <v>25584900</v>
       </c>
       <c r="J8" s="3">
-        <v>45090400</v>
+        <v>42404700</v>
       </c>
       <c r="K8" s="3">
         <v>14348700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49632700</v>
+        <v>46676500</v>
       </c>
       <c r="E9" s="3">
-        <v>50375600</v>
+        <v>47375100</v>
       </c>
       <c r="F9" s="3">
-        <v>16828100</v>
+        <v>15825700</v>
       </c>
       <c r="G9" s="3">
-        <v>36753400</v>
+        <v>34564300</v>
       </c>
       <c r="H9" s="3">
-        <v>32201100</v>
+        <v>30283200</v>
       </c>
       <c r="I9" s="3">
-        <v>17750800</v>
+        <v>16693500</v>
       </c>
       <c r="J9" s="3">
-        <v>34462000</v>
+        <v>32409300</v>
       </c>
       <c r="K9" s="3">
         <v>5127800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9984200</v>
+        <v>9389600</v>
       </c>
       <c r="E10" s="3">
-        <v>14142800</v>
+        <v>13300400</v>
       </c>
       <c r="F10" s="3">
-        <v>15481700</v>
+        <v>13227900</v>
       </c>
       <c r="G10" s="3">
-        <v>11599200</v>
+        <v>10908400</v>
       </c>
       <c r="H10" s="3">
-        <v>12017900</v>
+        <v>11302100</v>
       </c>
       <c r="I10" s="3">
-        <v>10793400</v>
+        <v>8891400</v>
       </c>
       <c r="J10" s="3">
-        <v>10628400</v>
+        <v>9995400</v>
       </c>
       <c r="K10" s="3">
         <v>9220900</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>582800</v>
+        <v>548100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55062200</v>
+        <v>51782600</v>
       </c>
       <c r="E17" s="3">
-        <v>58268100</v>
+        <v>54797500</v>
       </c>
       <c r="F17" s="3">
-        <v>26677200</v>
+        <v>23756500</v>
       </c>
       <c r="G17" s="3">
-        <v>45334900</v>
+        <v>42634700</v>
       </c>
       <c r="H17" s="3">
-        <v>40619300</v>
+        <v>38199900</v>
       </c>
       <c r="I17" s="3">
-        <v>25461000</v>
+        <v>22685300</v>
       </c>
       <c r="J17" s="3">
-        <v>40617600</v>
+        <v>38198400</v>
       </c>
       <c r="K17" s="3">
         <v>10659700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4554800</v>
+        <v>4283500</v>
       </c>
       <c r="E18" s="3">
-        <v>6250200</v>
+        <v>5877900</v>
       </c>
       <c r="F18" s="3">
-        <v>5632600</v>
+        <v>5297100</v>
       </c>
       <c r="G18" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="H18" s="3">
-        <v>3599700</v>
+        <v>3385300</v>
       </c>
       <c r="I18" s="3">
-        <v>3083200</v>
+        <v>2899600</v>
       </c>
       <c r="J18" s="3">
-        <v>4472700</v>
+        <v>4206300</v>
       </c>
       <c r="K18" s="3">
         <v>3689000</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2037800</v>
+        <v>1916400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7137500</v>
+        <v>6718300</v>
       </c>
       <c r="E21" s="3">
-        <v>6770200</v>
+        <v>6372600</v>
       </c>
       <c r="F21" s="3">
-        <v>6253000</v>
+        <v>5887400</v>
       </c>
       <c r="G21" s="3">
-        <v>3482900</v>
+        <v>3280500</v>
       </c>
       <c r="H21" s="3">
-        <v>4175400</v>
+        <v>3932900</v>
       </c>
       <c r="I21" s="3">
-        <v>3565000</v>
+        <v>3357900</v>
       </c>
       <c r="J21" s="3">
-        <v>4856500</v>
+        <v>4571400</v>
       </c>
       <c r="K21" s="3">
         <v>4016300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>979100</v>
+        <v>920800</v>
       </c>
       <c r="E22" s="3">
-        <v>1093500</v>
+        <v>1028400</v>
       </c>
       <c r="F22" s="3">
-        <v>1057000</v>
+        <v>994100</v>
       </c>
       <c r="G22" s="3">
-        <v>944300</v>
+        <v>888000</v>
       </c>
       <c r="H22" s="3">
-        <v>839800</v>
+        <v>789800</v>
       </c>
       <c r="I22" s="3">
-        <v>912800</v>
+        <v>858400</v>
       </c>
       <c r="J22" s="3">
-        <v>937700</v>
+        <v>881800</v>
       </c>
       <c r="K22" s="3">
         <v>804500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5613500</v>
+        <v>5279100</v>
       </c>
       <c r="E23" s="3">
-        <v>5156700</v>
+        <v>4849500</v>
       </c>
       <c r="F23" s="3">
-        <v>4575500</v>
+        <v>4303000</v>
       </c>
       <c r="G23" s="3">
-        <v>2073500</v>
+        <v>1950000</v>
       </c>
       <c r="H23" s="3">
-        <v>2759900</v>
+        <v>2595500</v>
       </c>
       <c r="I23" s="3">
-        <v>2170500</v>
+        <v>2041200</v>
       </c>
       <c r="J23" s="3">
-        <v>3535100</v>
+        <v>3324500</v>
       </c>
       <c r="K23" s="3">
         <v>2884500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>990700</v>
+        <v>931700</v>
       </c>
       <c r="E24" s="3">
-        <v>595300</v>
+        <v>559800</v>
       </c>
       <c r="F24" s="3">
-        <v>789300</v>
+        <v>742200</v>
       </c>
       <c r="G24" s="3">
-        <v>-193200</v>
+        <v>-181700</v>
       </c>
       <c r="H24" s="3">
-        <v>173300</v>
+        <v>163000</v>
       </c>
       <c r="I24" s="3">
-        <v>313400</v>
+        <v>255700</v>
       </c>
       <c r="J24" s="3">
-        <v>559600</v>
+        <v>526300</v>
       </c>
       <c r="K24" s="3">
         <v>463400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4622800</v>
+        <v>4347400</v>
       </c>
       <c r="E26" s="3">
-        <v>4561400</v>
+        <v>4289700</v>
       </c>
       <c r="F26" s="3">
-        <v>3786300</v>
+        <v>3560800</v>
       </c>
       <c r="G26" s="3">
-        <v>2266600</v>
+        <v>2131600</v>
       </c>
       <c r="H26" s="3">
-        <v>2586600</v>
+        <v>2432600</v>
       </c>
       <c r="I26" s="3">
-        <v>1857100</v>
+        <v>1785400</v>
       </c>
       <c r="J26" s="3">
-        <v>2975500</v>
+        <v>2798200</v>
       </c>
       <c r="K26" s="3">
         <v>2421100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4725600</v>
+        <v>4444100</v>
       </c>
       <c r="E27" s="3">
-        <v>4501700</v>
+        <v>4233600</v>
       </c>
       <c r="F27" s="3">
-        <v>3574900</v>
+        <v>3361900</v>
       </c>
       <c r="G27" s="3">
-        <v>2003800</v>
+        <v>1884500</v>
       </c>
       <c r="H27" s="3">
-        <v>2307200</v>
+        <v>2169800</v>
       </c>
       <c r="I27" s="3">
-        <v>1678800</v>
+        <v>1617800</v>
       </c>
       <c r="J27" s="3">
-        <v>2794700</v>
+        <v>2628300</v>
       </c>
       <c r="K27" s="3">
         <v>2292500</v>
@@ -1412,26 +1412,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+        <v>249500</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="K29" s="3">
         <v>16200</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2037800</v>
+        <v>-1916400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4725600</v>
+        <v>4444100</v>
       </c>
       <c r="E33" s="3">
-        <v>4501700</v>
+        <v>4233600</v>
       </c>
       <c r="F33" s="3">
-        <v>3574900</v>
+        <v>3611400</v>
       </c>
       <c r="G33" s="3">
-        <v>2003800</v>
+        <v>1884500</v>
       </c>
       <c r="H33" s="3">
-        <v>2307200</v>
+        <v>2169800</v>
       </c>
       <c r="I33" s="3">
-        <v>1678800</v>
+        <v>1617800</v>
       </c>
       <c r="J33" s="3">
-        <v>2794700</v>
+        <v>2631400</v>
       </c>
       <c r="K33" s="3">
         <v>2308700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4725600</v>
+        <v>4444100</v>
       </c>
       <c r="E35" s="3">
-        <v>4501700</v>
+        <v>4233600</v>
       </c>
       <c r="F35" s="3">
-        <v>3574900</v>
+        <v>3611400</v>
       </c>
       <c r="G35" s="3">
-        <v>2003800</v>
+        <v>1884500</v>
       </c>
       <c r="H35" s="3">
-        <v>2307200</v>
+        <v>2169800</v>
       </c>
       <c r="I35" s="3">
-        <v>1678800</v>
+        <v>1617800</v>
       </c>
       <c r="J35" s="3">
-        <v>2794700</v>
+        <v>2631400</v>
       </c>
       <c r="K35" s="3">
         <v>2308700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21693800</v>
+        <v>20401600</v>
       </c>
       <c r="E41" s="3">
-        <v>16829700</v>
+        <v>15827300</v>
       </c>
       <c r="F41" s="3">
-        <v>13443000</v>
+        <v>12642300</v>
       </c>
       <c r="G41" s="3">
-        <v>13235800</v>
+        <v>12447400</v>
       </c>
       <c r="H41" s="3">
-        <v>12560900</v>
+        <v>11812800</v>
       </c>
       <c r="I41" s="3">
-        <v>14827600</v>
+        <v>13944400</v>
       </c>
       <c r="J41" s="3">
-        <v>17475500</v>
+        <v>16434700</v>
       </c>
       <c r="K41" s="3">
         <v>10492600</v>
@@ -1810,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1197100</v>
+        <v>1125800</v>
       </c>
       <c r="E43" s="3">
-        <v>1148200</v>
+        <v>1079800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319027000</v>
+        <v>300025000</v>
       </c>
       <c r="E47" s="3">
-        <v>296988000</v>
+        <v>279299000</v>
       </c>
       <c r="F47" s="3">
-        <v>279762000</v>
+        <v>263099000</v>
       </c>
       <c r="G47" s="3">
-        <v>263851000</v>
+        <v>248135000</v>
       </c>
       <c r="H47" s="3">
-        <v>254285000</v>
+        <v>239139000</v>
       </c>
       <c r="I47" s="3">
-        <v>241570000</v>
+        <v>227182000</v>
       </c>
       <c r="J47" s="3">
-        <v>205796000</v>
+        <v>193538000</v>
       </c>
       <c r="K47" s="3">
         <v>152474000</v>
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>315900</v>
+        <v>297100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8231600</v>
+        <v>7741300</v>
       </c>
       <c r="E49" s="3">
-        <v>8269800</v>
+        <v>7777200</v>
       </c>
       <c r="F49" s="3">
-        <v>8370900</v>
+        <v>7872300</v>
       </c>
       <c r="G49" s="3">
-        <v>8157900</v>
+        <v>7672000</v>
       </c>
       <c r="H49" s="3">
-        <v>8379200</v>
+        <v>7880100</v>
       </c>
       <c r="I49" s="3">
-        <v>7779800</v>
+        <v>7316400</v>
       </c>
       <c r="J49" s="3">
-        <v>4527400</v>
+        <v>4257800</v>
       </c>
       <c r="K49" s="3">
         <v>4078500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4014300</v>
+        <v>3775200</v>
       </c>
       <c r="E52" s="3">
-        <v>3792100</v>
+        <v>3566200</v>
       </c>
       <c r="F52" s="3">
-        <v>3579800</v>
+        <v>3366600</v>
       </c>
       <c r="G52" s="3">
-        <v>3787900</v>
+        <v>3562300</v>
       </c>
       <c r="H52" s="3">
-        <v>3680200</v>
+        <v>3461000</v>
       </c>
       <c r="I52" s="3">
-        <v>3371700</v>
+        <v>3170900</v>
       </c>
       <c r="J52" s="3">
-        <v>2759900</v>
+        <v>2595500</v>
       </c>
       <c r="K52" s="3">
         <v>2127000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>729853000</v>
+        <v>686382000</v>
       </c>
       <c r="E54" s="3">
-        <v>670809000</v>
+        <v>630854000</v>
       </c>
       <c r="F54" s="3">
-        <v>622012000</v>
+        <v>584964000</v>
       </c>
       <c r="G54" s="3">
-        <v>604819000</v>
+        <v>568795000</v>
       </c>
       <c r="H54" s="3">
-        <v>597481000</v>
+        <v>561893000</v>
       </c>
       <c r="I54" s="3">
-        <v>584184000</v>
+        <v>549389000</v>
       </c>
       <c r="J54" s="3">
-        <v>480357000</v>
+        <v>451746000</v>
       </c>
       <c r="K54" s="3">
         <v>395401000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>334190000</v>
+        <v>314285000</v>
       </c>
       <c r="E59" s="3">
-        <v>313776000</v>
+        <v>295086000</v>
       </c>
       <c r="F59" s="3">
-        <v>287413000</v>
+        <v>270294000</v>
       </c>
       <c r="G59" s="3">
-        <v>294334000</v>
+        <v>276803000</v>
       </c>
       <c r="H59" s="3">
-        <v>286676000</v>
+        <v>269601000</v>
       </c>
       <c r="I59" s="3">
-        <v>285089000</v>
+        <v>268108000</v>
       </c>
       <c r="J59" s="3">
-        <v>236312000</v>
+        <v>222237000</v>
       </c>
       <c r="K59" s="3">
         <v>191862000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11600900</v>
+        <v>10909900</v>
       </c>
       <c r="E61" s="3">
-        <v>10009100</v>
+        <v>9413000</v>
       </c>
       <c r="F61" s="3">
-        <v>11193000</v>
+        <v>10526300</v>
       </c>
       <c r="G61" s="3">
-        <v>10920200</v>
+        <v>10269800</v>
       </c>
       <c r="H61" s="3">
-        <v>10674800</v>
+        <v>10039000</v>
       </c>
       <c r="I61" s="3">
-        <v>7915800</v>
+        <v>7444300</v>
       </c>
       <c r="J61" s="3">
-        <v>7719300</v>
+        <v>7259500</v>
       </c>
       <c r="K61" s="3">
         <v>7051600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2167100</v>
+        <v>2038100</v>
       </c>
       <c r="E62" s="3">
-        <v>1634900</v>
+        <v>1537500</v>
       </c>
       <c r="F62" s="3">
-        <v>1503900</v>
+        <v>1414300</v>
       </c>
       <c r="G62" s="3">
-        <v>1062000</v>
+        <v>998800</v>
       </c>
       <c r="H62" s="3">
-        <v>1126700</v>
+        <v>1059600</v>
       </c>
       <c r="I62" s="3">
-        <v>1023900</v>
+        <v>962900</v>
       </c>
       <c r="J62" s="3">
-        <v>1018100</v>
+        <v>957400</v>
       </c>
       <c r="K62" s="3">
         <v>475000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>687115000</v>
+        <v>646189000</v>
       </c>
       <c r="E66" s="3">
-        <v>630273000</v>
+        <v>592732000</v>
       </c>
       <c r="F66" s="3">
-        <v>583828000</v>
+        <v>549054000</v>
       </c>
       <c r="G66" s="3">
-        <v>570634000</v>
+        <v>536646000</v>
       </c>
       <c r="H66" s="3">
-        <v>562594000</v>
+        <v>529085000</v>
       </c>
       <c r="I66" s="3">
-        <v>549906000</v>
+        <v>517153000</v>
       </c>
       <c r="J66" s="3">
-        <v>452615000</v>
+        <v>425656000</v>
       </c>
       <c r="K66" s="3">
         <v>373340000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3168600</v>
+        <v>2979900</v>
       </c>
       <c r="E70" s="3">
-        <v>3168600</v>
+        <v>2979900</v>
       </c>
       <c r="F70" s="3">
-        <v>3168600</v>
+        <v>2979900</v>
       </c>
       <c r="G70" s="3">
-        <v>2965500</v>
+        <v>2788900</v>
       </c>
       <c r="H70" s="3">
-        <v>2965500</v>
+        <v>2788900</v>
       </c>
       <c r="I70" s="3">
-        <v>2232600</v>
+        <v>2099700</v>
       </c>
       <c r="J70" s="3">
-        <v>2232600</v>
+        <v>2099700</v>
       </c>
       <c r="K70" s="3">
         <v>2073100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15658300</v>
+        <v>14725600</v>
       </c>
       <c r="E72" s="3">
-        <v>12840300</v>
+        <v>12075500</v>
       </c>
       <c r="F72" s="3">
-        <v>10532300</v>
+        <v>9904900</v>
       </c>
       <c r="G72" s="3">
-        <v>8359300</v>
+        <v>7861400</v>
       </c>
       <c r="H72" s="3">
-        <v>8090700</v>
+        <v>7608800</v>
       </c>
       <c r="I72" s="3">
-        <v>6962400</v>
+        <v>6547700</v>
       </c>
       <c r="J72" s="3">
-        <v>6320700</v>
+        <v>5944200</v>
       </c>
       <c r="K72" s="3">
         <v>4075400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39569800</v>
+        <v>37212900</v>
       </c>
       <c r="E76" s="3">
-        <v>37367800</v>
+        <v>35142100</v>
       </c>
       <c r="F76" s="3">
-        <v>35015800</v>
+        <v>32930100</v>
       </c>
       <c r="G76" s="3">
-        <v>31219500</v>
+        <v>29360000</v>
       </c>
       <c r="H76" s="3">
-        <v>31920900</v>
+        <v>30019600</v>
       </c>
       <c r="I76" s="3">
-        <v>32045300</v>
+        <v>30136500</v>
       </c>
       <c r="J76" s="3">
-        <v>25509100</v>
+        <v>23989600</v>
       </c>
       <c r="K76" s="3">
         <v>19987600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4725600</v>
+        <v>4444100</v>
       </c>
       <c r="E81" s="3">
-        <v>4501700</v>
+        <v>4233600</v>
       </c>
       <c r="F81" s="3">
-        <v>3574900</v>
+        <v>3611400</v>
       </c>
       <c r="G81" s="3">
-        <v>2003800</v>
+        <v>1884500</v>
       </c>
       <c r="H81" s="3">
-        <v>2307200</v>
+        <v>2169800</v>
       </c>
       <c r="I81" s="3">
-        <v>1678800</v>
+        <v>1617800</v>
       </c>
       <c r="J81" s="3">
-        <v>2794700</v>
+        <v>2631400</v>
       </c>
       <c r="K81" s="3">
         <v>2308700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>543900</v>
+        <v>511500</v>
       </c>
       <c r="E83" s="3">
-        <v>519000</v>
+        <v>488100</v>
       </c>
       <c r="F83" s="3">
-        <v>619300</v>
+        <v>582400</v>
       </c>
       <c r="G83" s="3">
-        <v>464300</v>
+        <v>436600</v>
       </c>
       <c r="H83" s="3">
-        <v>574500</v>
+        <v>540300</v>
       </c>
       <c r="I83" s="3">
-        <v>480800</v>
+        <v>452200</v>
       </c>
       <c r="J83" s="3">
-        <v>383000</v>
+        <v>360200</v>
       </c>
       <c r="K83" s="3">
         <v>327900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16620800</v>
+        <v>15630800</v>
       </c>
       <c r="E89" s="3">
-        <v>17030300</v>
+        <v>16016000</v>
       </c>
       <c r="F89" s="3">
-        <v>15907800</v>
+        <v>14960300</v>
       </c>
       <c r="G89" s="3">
-        <v>14749600</v>
+        <v>13871100</v>
       </c>
       <c r="H89" s="3">
-        <v>14123700</v>
+        <v>13282500</v>
       </c>
       <c r="I89" s="3">
-        <v>8567400</v>
+        <v>8057100</v>
       </c>
       <c r="J89" s="3">
-        <v>8958700</v>
+        <v>8425100</v>
       </c>
       <c r="K89" s="3">
         <v>7315600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11729400</v>
+        <v>-11030800</v>
       </c>
       <c r="E94" s="3">
-        <v>-11465800</v>
+        <v>-10782800</v>
       </c>
       <c r="F94" s="3">
-        <v>-15753600</v>
+        <v>-14815300</v>
       </c>
       <c r="G94" s="3">
-        <v>-13502700</v>
+        <v>-12698500</v>
       </c>
       <c r="H94" s="3">
-        <v>-18851800</v>
+        <v>-17728900</v>
       </c>
       <c r="I94" s="3">
-        <v>-11494800</v>
+        <v>-10810100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3370900</v>
+        <v>-3170100</v>
       </c>
       <c r="K94" s="3">
         <v>-8119300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1940000</v>
+        <v>-1824400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1159000</v>
+        <v>-1090000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1482300</v>
+        <v>-1394000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1475700</v>
+        <v>-1387800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1320700</v>
+        <v>-1242000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1183100</v>
+        <v>-1112600</v>
       </c>
       <c r="J96" s="3">
-        <v>-754400</v>
+        <v>-709500</v>
       </c>
       <c r="K96" s="3">
         <v>-585800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>549700</v>
+        <v>516900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1724400</v>
+        <v>-1621700</v>
       </c>
       <c r="F100" s="3">
-        <v>-600200</v>
+        <v>-564500</v>
       </c>
       <c r="G100" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="H100" s="3">
-        <v>2724300</v>
+        <v>2562000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1663100</v>
+        <v>-1564000</v>
       </c>
       <c r="J100" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="K100" s="3">
         <v>537300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-437700</v>
+        <v>-411700</v>
       </c>
       <c r="E101" s="3">
-        <v>-386300</v>
+        <v>-363300</v>
       </c>
       <c r="F101" s="3">
-        <v>681500</v>
+        <v>640900</v>
       </c>
       <c r="G101" s="3">
-        <v>-545500</v>
+        <v>-513000</v>
       </c>
       <c r="H101" s="3">
-        <v>-287700</v>
+        <v>-270500</v>
       </c>
       <c r="I101" s="3">
-        <v>1742700</v>
+        <v>1638900</v>
       </c>
       <c r="J101" s="3">
-        <v>654900</v>
+        <v>615900</v>
       </c>
       <c r="K101" s="3">
         <v>368700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5003300</v>
+        <v>4705300</v>
       </c>
       <c r="E102" s="3">
-        <v>3453800</v>
+        <v>3248100</v>
       </c>
       <c r="F102" s="3">
-        <v>235500</v>
+        <v>221400</v>
       </c>
       <c r="G102" s="3">
-        <v>713000</v>
+        <v>670500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2291500</v>
+        <v>-2155000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2847800</v>
+        <v>-2678200</v>
       </c>
       <c r="J102" s="3">
-        <v>6260200</v>
+        <v>5887300</v>
       </c>
       <c r="K102" s="3">
         <v>102400</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56066100</v>
+        <v>56452900</v>
       </c>
       <c r="E8" s="3">
-        <v>60675500</v>
+        <v>61094200</v>
       </c>
       <c r="F8" s="3">
-        <v>29053600</v>
+        <v>29254100</v>
       </c>
       <c r="G8" s="3">
-        <v>45472700</v>
+        <v>45786500</v>
       </c>
       <c r="H8" s="3">
-        <v>41585300</v>
+        <v>41872200</v>
       </c>
       <c r="I8" s="3">
-        <v>25584900</v>
+        <v>25761400</v>
       </c>
       <c r="J8" s="3">
-        <v>42404700</v>
+        <v>42697300</v>
       </c>
       <c r="K8" s="3">
         <v>14348700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46676500</v>
+        <v>46998600</v>
       </c>
       <c r="E9" s="3">
-        <v>47375100</v>
+        <v>47702000</v>
       </c>
       <c r="F9" s="3">
-        <v>15825700</v>
+        <v>15934900</v>
       </c>
       <c r="G9" s="3">
-        <v>34564300</v>
+        <v>34802800</v>
       </c>
       <c r="H9" s="3">
-        <v>30283200</v>
+        <v>30492100</v>
       </c>
       <c r="I9" s="3">
-        <v>16693500</v>
+        <v>16808700</v>
       </c>
       <c r="J9" s="3">
-        <v>32409300</v>
+        <v>32633000</v>
       </c>
       <c r="K9" s="3">
         <v>5127800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9389600</v>
+        <v>9454400</v>
       </c>
       <c r="E10" s="3">
-        <v>13300400</v>
+        <v>13392200</v>
       </c>
       <c r="F10" s="3">
-        <v>13227900</v>
+        <v>13319200</v>
       </c>
       <c r="G10" s="3">
-        <v>10908400</v>
+        <v>10983600</v>
       </c>
       <c r="H10" s="3">
-        <v>11302100</v>
+        <v>11380100</v>
       </c>
       <c r="I10" s="3">
-        <v>8891400</v>
+        <v>8952700</v>
       </c>
       <c r="J10" s="3">
-        <v>9995400</v>
+        <v>10064300</v>
       </c>
       <c r="K10" s="3">
         <v>9220900</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>548100</v>
+        <v>551900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51782600</v>
+        <v>52139900</v>
       </c>
       <c r="E17" s="3">
-        <v>54797500</v>
+        <v>55175700</v>
       </c>
       <c r="F17" s="3">
-        <v>23756500</v>
+        <v>23920500</v>
       </c>
       <c r="G17" s="3">
-        <v>42634700</v>
+        <v>42928900</v>
       </c>
       <c r="H17" s="3">
-        <v>38199900</v>
+        <v>38463500</v>
       </c>
       <c r="I17" s="3">
-        <v>22685300</v>
+        <v>22841800</v>
       </c>
       <c r="J17" s="3">
-        <v>38198400</v>
+        <v>38462000</v>
       </c>
       <c r="K17" s="3">
         <v>10659700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4283500</v>
+        <v>4313100</v>
       </c>
       <c r="E18" s="3">
-        <v>5877900</v>
+        <v>5918500</v>
       </c>
       <c r="F18" s="3">
-        <v>5297100</v>
+        <v>5333600</v>
       </c>
       <c r="G18" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="H18" s="3">
-        <v>3385300</v>
+        <v>3408700</v>
       </c>
       <c r="I18" s="3">
-        <v>2899600</v>
+        <v>2919600</v>
       </c>
       <c r="J18" s="3">
-        <v>4206300</v>
+        <v>4235300</v>
       </c>
       <c r="K18" s="3">
         <v>3689000</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1916400</v>
+        <v>1929700</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6718300</v>
+        <v>6755800</v>
       </c>
       <c r="E21" s="3">
-        <v>6372600</v>
+        <v>6408100</v>
       </c>
       <c r="F21" s="3">
-        <v>5887400</v>
+        <v>5917900</v>
       </c>
       <c r="G21" s="3">
-        <v>3280500</v>
+        <v>3295600</v>
       </c>
       <c r="H21" s="3">
-        <v>3932900</v>
+        <v>3950700</v>
       </c>
       <c r="I21" s="3">
-        <v>3357900</v>
+        <v>3373200</v>
       </c>
       <c r="J21" s="3">
-        <v>4571400</v>
+        <v>4596700</v>
       </c>
       <c r="K21" s="3">
         <v>4016300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>920800</v>
+        <v>927100</v>
       </c>
       <c r="E22" s="3">
-        <v>1028400</v>
+        <v>1035500</v>
       </c>
       <c r="F22" s="3">
-        <v>994100</v>
+        <v>1000900</v>
       </c>
       <c r="G22" s="3">
-        <v>888000</v>
+        <v>894200</v>
       </c>
       <c r="H22" s="3">
-        <v>789800</v>
+        <v>795300</v>
       </c>
       <c r="I22" s="3">
-        <v>858400</v>
+        <v>864300</v>
       </c>
       <c r="J22" s="3">
-        <v>881800</v>
+        <v>887900</v>
       </c>
       <c r="K22" s="3">
         <v>804500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5279100</v>
+        <v>5315600</v>
       </c>
       <c r="E23" s="3">
-        <v>4849500</v>
+        <v>4883000</v>
       </c>
       <c r="F23" s="3">
-        <v>4303000</v>
+        <v>4332700</v>
       </c>
       <c r="G23" s="3">
-        <v>1950000</v>
+        <v>1963400</v>
       </c>
       <c r="H23" s="3">
-        <v>2595500</v>
+        <v>2613400</v>
       </c>
       <c r="I23" s="3">
-        <v>2041200</v>
+        <v>2055300</v>
       </c>
       <c r="J23" s="3">
-        <v>3324500</v>
+        <v>3347500</v>
       </c>
       <c r="K23" s="3">
         <v>2884500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>931700</v>
+        <v>938100</v>
       </c>
       <c r="E24" s="3">
-        <v>559800</v>
+        <v>563700</v>
       </c>
       <c r="F24" s="3">
-        <v>742200</v>
+        <v>747400</v>
       </c>
       <c r="G24" s="3">
-        <v>-181700</v>
+        <v>-182900</v>
       </c>
       <c r="H24" s="3">
-        <v>163000</v>
+        <v>164100</v>
       </c>
       <c r="I24" s="3">
-        <v>255700</v>
+        <v>257500</v>
       </c>
       <c r="J24" s="3">
-        <v>526300</v>
+        <v>529900</v>
       </c>
       <c r="K24" s="3">
         <v>463400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4347400</v>
+        <v>4377400</v>
       </c>
       <c r="E26" s="3">
-        <v>4289700</v>
+        <v>4319300</v>
       </c>
       <c r="F26" s="3">
-        <v>3560800</v>
+        <v>3585300</v>
       </c>
       <c r="G26" s="3">
-        <v>2131600</v>
+        <v>2146300</v>
       </c>
       <c r="H26" s="3">
-        <v>2432600</v>
+        <v>2449400</v>
       </c>
       <c r="I26" s="3">
-        <v>1785400</v>
+        <v>1797800</v>
       </c>
       <c r="J26" s="3">
-        <v>2798200</v>
+        <v>2817500</v>
       </c>
       <c r="K26" s="3">
         <v>2421100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4444100</v>
+        <v>4474800</v>
       </c>
       <c r="E27" s="3">
-        <v>4233600</v>
+        <v>4262800</v>
       </c>
       <c r="F27" s="3">
-        <v>3361900</v>
+        <v>3385100</v>
       </c>
       <c r="G27" s="3">
-        <v>1884500</v>
+        <v>1897500</v>
       </c>
       <c r="H27" s="3">
-        <v>2169800</v>
+        <v>2184800</v>
       </c>
       <c r="I27" s="3">
-        <v>1617800</v>
+        <v>1629000</v>
       </c>
       <c r="J27" s="3">
-        <v>2628300</v>
+        <v>2646400</v>
       </c>
       <c r="K27" s="3">
         <v>2292500</v>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>249500</v>
+        <v>251200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1916400</v>
+        <v>-1929700</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4444100</v>
+        <v>4474800</v>
       </c>
       <c r="E33" s="3">
-        <v>4233600</v>
+        <v>4262800</v>
       </c>
       <c r="F33" s="3">
-        <v>3611400</v>
+        <v>3636400</v>
       </c>
       <c r="G33" s="3">
-        <v>1884500</v>
+        <v>1897500</v>
       </c>
       <c r="H33" s="3">
-        <v>2169800</v>
+        <v>2184800</v>
       </c>
       <c r="I33" s="3">
-        <v>1617800</v>
+        <v>1629000</v>
       </c>
       <c r="J33" s="3">
-        <v>2631400</v>
+        <v>2649500</v>
       </c>
       <c r="K33" s="3">
         <v>2308700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4444100</v>
+        <v>4474800</v>
       </c>
       <c r="E35" s="3">
-        <v>4233600</v>
+        <v>4262800</v>
       </c>
       <c r="F35" s="3">
-        <v>3611400</v>
+        <v>3636400</v>
       </c>
       <c r="G35" s="3">
-        <v>1884500</v>
+        <v>1897500</v>
       </c>
       <c r="H35" s="3">
-        <v>2169800</v>
+        <v>2184800</v>
       </c>
       <c r="I35" s="3">
-        <v>1617800</v>
+        <v>1629000</v>
       </c>
       <c r="J35" s="3">
-        <v>2631400</v>
+        <v>2649500</v>
       </c>
       <c r="K35" s="3">
         <v>2308700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20401600</v>
+        <v>20542400</v>
       </c>
       <c r="E41" s="3">
-        <v>15827300</v>
+        <v>15936500</v>
       </c>
       <c r="F41" s="3">
-        <v>12642300</v>
+        <v>12729600</v>
       </c>
       <c r="G41" s="3">
-        <v>12447400</v>
+        <v>12533300</v>
       </c>
       <c r="H41" s="3">
-        <v>11812800</v>
+        <v>11894300</v>
       </c>
       <c r="I41" s="3">
-        <v>13944400</v>
+        <v>14040600</v>
       </c>
       <c r="J41" s="3">
-        <v>16434700</v>
+        <v>16548100</v>
       </c>
       <c r="K41" s="3">
         <v>10492600</v>
@@ -1810,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1125800</v>
+        <v>1133600</v>
       </c>
       <c r="E43" s="3">
-        <v>1079800</v>
+        <v>1087300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300025000</v>
+        <v>302095000</v>
       </c>
       <c r="E47" s="3">
-        <v>279299000</v>
+        <v>281226000</v>
       </c>
       <c r="F47" s="3">
-        <v>263099000</v>
+        <v>264914000</v>
       </c>
       <c r="G47" s="3">
-        <v>248135000</v>
+        <v>249848000</v>
       </c>
       <c r="H47" s="3">
-        <v>239139000</v>
+        <v>240789000</v>
       </c>
       <c r="I47" s="3">
-        <v>227182000</v>
+        <v>228749000</v>
       </c>
       <c r="J47" s="3">
-        <v>193538000</v>
+        <v>194874000</v>
       </c>
       <c r="K47" s="3">
         <v>152474000</v>
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>297100</v>
+        <v>299100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7741300</v>
+        <v>7794800</v>
       </c>
       <c r="E49" s="3">
-        <v>7777200</v>
+        <v>7830900</v>
       </c>
       <c r="F49" s="3">
-        <v>7872300</v>
+        <v>7926600</v>
       </c>
       <c r="G49" s="3">
-        <v>7672000</v>
+        <v>7724900</v>
       </c>
       <c r="H49" s="3">
-        <v>7880100</v>
+        <v>7934500</v>
       </c>
       <c r="I49" s="3">
-        <v>7316400</v>
+        <v>7366900</v>
       </c>
       <c r="J49" s="3">
-        <v>4257800</v>
+        <v>4287200</v>
       </c>
       <c r="K49" s="3">
         <v>4078500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3775200</v>
+        <v>3801200</v>
       </c>
       <c r="E52" s="3">
-        <v>3566200</v>
+        <v>3590800</v>
       </c>
       <c r="F52" s="3">
-        <v>3366600</v>
+        <v>3389800</v>
       </c>
       <c r="G52" s="3">
-        <v>3562300</v>
+        <v>3586900</v>
       </c>
       <c r="H52" s="3">
-        <v>3461000</v>
+        <v>3484800</v>
       </c>
       <c r="I52" s="3">
-        <v>3170900</v>
+        <v>3192800</v>
       </c>
       <c r="J52" s="3">
-        <v>2595500</v>
+        <v>2613400</v>
       </c>
       <c r="K52" s="3">
         <v>2127000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>686382000</v>
+        <v>691118000</v>
       </c>
       <c r="E54" s="3">
-        <v>630854000</v>
+        <v>635208000</v>
       </c>
       <c r="F54" s="3">
-        <v>584964000</v>
+        <v>589000000</v>
       </c>
       <c r="G54" s="3">
-        <v>568795000</v>
+        <v>572720000</v>
       </c>
       <c r="H54" s="3">
-        <v>561893000</v>
+        <v>565771000</v>
       </c>
       <c r="I54" s="3">
-        <v>549389000</v>
+        <v>553180000</v>
       </c>
       <c r="J54" s="3">
-        <v>451746000</v>
+        <v>454863000</v>
       </c>
       <c r="K54" s="3">
         <v>395401000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314285000</v>
+        <v>316454000</v>
       </c>
       <c r="E59" s="3">
-        <v>295086000</v>
+        <v>297123000</v>
       </c>
       <c r="F59" s="3">
-        <v>270294000</v>
+        <v>272159000</v>
       </c>
       <c r="G59" s="3">
-        <v>276803000</v>
+        <v>278713000</v>
       </c>
       <c r="H59" s="3">
-        <v>269601000</v>
+        <v>271462000</v>
       </c>
       <c r="I59" s="3">
-        <v>268108000</v>
+        <v>269958000</v>
       </c>
       <c r="J59" s="3">
-        <v>222237000</v>
+        <v>223771000</v>
       </c>
       <c r="K59" s="3">
         <v>191862000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10909900</v>
+        <v>10985200</v>
       </c>
       <c r="E61" s="3">
-        <v>9413000</v>
+        <v>9477900</v>
       </c>
       <c r="F61" s="3">
-        <v>10526300</v>
+        <v>10599000</v>
       </c>
       <c r="G61" s="3">
-        <v>10269800</v>
+        <v>10340700</v>
       </c>
       <c r="H61" s="3">
-        <v>10039000</v>
+        <v>10108300</v>
       </c>
       <c r="I61" s="3">
-        <v>7444300</v>
+        <v>7495700</v>
       </c>
       <c r="J61" s="3">
-        <v>7259500</v>
+        <v>7309600</v>
       </c>
       <c r="K61" s="3">
         <v>7051600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2038100</v>
+        <v>2052100</v>
       </c>
       <c r="E62" s="3">
-        <v>1537500</v>
+        <v>1548100</v>
       </c>
       <c r="F62" s="3">
-        <v>1414300</v>
+        <v>1424100</v>
       </c>
       <c r="G62" s="3">
-        <v>998800</v>
+        <v>1005600</v>
       </c>
       <c r="H62" s="3">
-        <v>1059600</v>
+        <v>1066900</v>
       </c>
       <c r="I62" s="3">
-        <v>962900</v>
+        <v>969500</v>
       </c>
       <c r="J62" s="3">
-        <v>957400</v>
+        <v>964000</v>
       </c>
       <c r="K62" s="3">
         <v>475000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>646189000</v>
+        <v>650648000</v>
       </c>
       <c r="E66" s="3">
-        <v>592732000</v>
+        <v>596823000</v>
       </c>
       <c r="F66" s="3">
-        <v>549054000</v>
+        <v>552842000</v>
       </c>
       <c r="G66" s="3">
-        <v>536646000</v>
+        <v>540349000</v>
       </c>
       <c r="H66" s="3">
-        <v>529085000</v>
+        <v>532736000</v>
       </c>
       <c r="I66" s="3">
-        <v>517153000</v>
+        <v>520721000</v>
       </c>
       <c r="J66" s="3">
-        <v>425656000</v>
+        <v>428593000</v>
       </c>
       <c r="K66" s="3">
         <v>373340000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2979900</v>
+        <v>3000500</v>
       </c>
       <c r="E70" s="3">
-        <v>2979900</v>
+        <v>3000500</v>
       </c>
       <c r="F70" s="3">
-        <v>2979900</v>
+        <v>3000500</v>
       </c>
       <c r="G70" s="3">
-        <v>2788900</v>
+        <v>2808100</v>
       </c>
       <c r="H70" s="3">
-        <v>2788900</v>
+        <v>2808100</v>
       </c>
       <c r="I70" s="3">
-        <v>2099700</v>
+        <v>2114100</v>
       </c>
       <c r="J70" s="3">
-        <v>2099700</v>
+        <v>2114100</v>
       </c>
       <c r="K70" s="3">
         <v>2073100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14725600</v>
+        <v>14827200</v>
       </c>
       <c r="E72" s="3">
-        <v>12075500</v>
+        <v>12158900</v>
       </c>
       <c r="F72" s="3">
-        <v>9904900</v>
+        <v>9973300</v>
       </c>
       <c r="G72" s="3">
-        <v>7861400</v>
+        <v>7915700</v>
       </c>
       <c r="H72" s="3">
-        <v>7608800</v>
+        <v>7661300</v>
       </c>
       <c r="I72" s="3">
-        <v>6547700</v>
+        <v>6592800</v>
       </c>
       <c r="J72" s="3">
-        <v>5944200</v>
+        <v>5985200</v>
       </c>
       <c r="K72" s="3">
         <v>4075400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37212900</v>
+        <v>37469600</v>
       </c>
       <c r="E76" s="3">
-        <v>35142100</v>
+        <v>35384500</v>
       </c>
       <c r="F76" s="3">
-        <v>32930100</v>
+        <v>33157300</v>
       </c>
       <c r="G76" s="3">
-        <v>29360000</v>
+        <v>29562700</v>
       </c>
       <c r="H76" s="3">
-        <v>30019600</v>
+        <v>30226800</v>
       </c>
       <c r="I76" s="3">
-        <v>30136500</v>
+        <v>30344600</v>
       </c>
       <c r="J76" s="3">
-        <v>23989600</v>
+        <v>24155200</v>
       </c>
       <c r="K76" s="3">
         <v>19987600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4444100</v>
+        <v>4474800</v>
       </c>
       <c r="E81" s="3">
-        <v>4233600</v>
+        <v>4262800</v>
       </c>
       <c r="F81" s="3">
-        <v>3611400</v>
+        <v>3636400</v>
       </c>
       <c r="G81" s="3">
-        <v>1884500</v>
+        <v>1897500</v>
       </c>
       <c r="H81" s="3">
-        <v>2169800</v>
+        <v>2184800</v>
       </c>
       <c r="I81" s="3">
-        <v>1617800</v>
+        <v>1629000</v>
       </c>
       <c r="J81" s="3">
-        <v>2631400</v>
+        <v>2649500</v>
       </c>
       <c r="K81" s="3">
         <v>2308700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>511500</v>
+        <v>515000</v>
       </c>
       <c r="E83" s="3">
-        <v>488100</v>
+        <v>491400</v>
       </c>
       <c r="F83" s="3">
-        <v>582400</v>
+        <v>586400</v>
       </c>
       <c r="G83" s="3">
-        <v>436600</v>
+        <v>439600</v>
       </c>
       <c r="H83" s="3">
-        <v>540300</v>
+        <v>544000</v>
       </c>
       <c r="I83" s="3">
-        <v>452200</v>
+        <v>455300</v>
       </c>
       <c r="J83" s="3">
-        <v>360200</v>
+        <v>362700</v>
       </c>
       <c r="K83" s="3">
         <v>327900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15630800</v>
+        <v>15738700</v>
       </c>
       <c r="E89" s="3">
-        <v>16016000</v>
+        <v>16126500</v>
       </c>
       <c r="F89" s="3">
-        <v>14960300</v>
+        <v>15063500</v>
       </c>
       <c r="G89" s="3">
-        <v>13871100</v>
+        <v>13966800</v>
       </c>
       <c r="H89" s="3">
-        <v>13282500</v>
+        <v>13374100</v>
       </c>
       <c r="I89" s="3">
-        <v>8057100</v>
+        <v>8112700</v>
       </c>
       <c r="J89" s="3">
-        <v>8425100</v>
+        <v>8483300</v>
       </c>
       <c r="K89" s="3">
         <v>7315600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11030800</v>
+        <v>-11106900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10782800</v>
+        <v>-10857200</v>
       </c>
       <c r="F94" s="3">
-        <v>-14815300</v>
+        <v>-14917500</v>
       </c>
       <c r="G94" s="3">
-        <v>-12698500</v>
+        <v>-12786100</v>
       </c>
       <c r="H94" s="3">
-        <v>-17728900</v>
+        <v>-17851300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10810100</v>
+        <v>-10884700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3170100</v>
+        <v>-3192000</v>
       </c>
       <c r="K94" s="3">
         <v>-8119300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1824400</v>
+        <v>-1837000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1090000</v>
+        <v>-1097500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1394000</v>
+        <v>-1403700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1387800</v>
+        <v>-1397400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1242000</v>
+        <v>-1250600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1112600</v>
+        <v>-1120300</v>
       </c>
       <c r="J96" s="3">
-        <v>-709500</v>
+        <v>-714400</v>
       </c>
       <c r="K96" s="3">
         <v>-585800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>516900</v>
+        <v>520500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1621700</v>
+        <v>-1632900</v>
       </c>
       <c r="F100" s="3">
-        <v>-564500</v>
+        <v>-568400</v>
       </c>
       <c r="G100" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H100" s="3">
-        <v>2562000</v>
+        <v>2579700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1564000</v>
+        <v>-1574800</v>
       </c>
       <c r="J100" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="K100" s="3">
         <v>537300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-411700</v>
+        <v>-414500</v>
       </c>
       <c r="E101" s="3">
-        <v>-363300</v>
+        <v>-365800</v>
       </c>
       <c r="F101" s="3">
-        <v>640900</v>
+        <v>645300</v>
       </c>
       <c r="G101" s="3">
-        <v>-513000</v>
+        <v>-516600</v>
       </c>
       <c r="H101" s="3">
-        <v>-270500</v>
+        <v>-272400</v>
       </c>
       <c r="I101" s="3">
-        <v>1638900</v>
+        <v>1650200</v>
       </c>
       <c r="J101" s="3">
-        <v>615900</v>
+        <v>620200</v>
       </c>
       <c r="K101" s="3">
         <v>368700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4705300</v>
+        <v>4737800</v>
       </c>
       <c r="E102" s="3">
-        <v>3248100</v>
+        <v>3270500</v>
       </c>
       <c r="F102" s="3">
-        <v>221400</v>
+        <v>223000</v>
       </c>
       <c r="G102" s="3">
-        <v>670500</v>
+        <v>675100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2155000</v>
+        <v>-2169900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2678200</v>
+        <v>-2696600</v>
       </c>
       <c r="J102" s="3">
-        <v>5887300</v>
+        <v>5927900</v>
       </c>
       <c r="K102" s="3">
         <v>102400</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>MFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56452900</v>
+        <v>43889700</v>
       </c>
       <c r="E8" s="3">
-        <v>61094200</v>
+        <v>58359500</v>
       </c>
       <c r="F8" s="3">
-        <v>29254100</v>
+        <v>61070000</v>
       </c>
       <c r="G8" s="3">
-        <v>45786500</v>
+        <v>29242600</v>
       </c>
       <c r="H8" s="3">
-        <v>41872200</v>
+        <v>45768400</v>
       </c>
       <c r="I8" s="3">
-        <v>25761400</v>
+        <v>41855700</v>
       </c>
       <c r="J8" s="3">
+        <v>25751200</v>
+      </c>
+      <c r="K8" s="3">
         <v>42697300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14348700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21913700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39166700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46998600</v>
+        <v>32335200</v>
       </c>
       <c r="E9" s="3">
-        <v>47702000</v>
+        <v>46980000</v>
       </c>
       <c r="F9" s="3">
-        <v>15934900</v>
+        <v>47683200</v>
       </c>
       <c r="G9" s="3">
-        <v>34802800</v>
+        <v>15928700</v>
       </c>
       <c r="H9" s="3">
-        <v>30492100</v>
+        <v>34789100</v>
       </c>
       <c r="I9" s="3">
-        <v>16808700</v>
+        <v>30480100</v>
       </c>
       <c r="J9" s="3">
+        <v>16802100</v>
+      </c>
+      <c r="K9" s="3">
         <v>32633000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5127800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14975300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32666700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9454400</v>
+        <v>11554500</v>
       </c>
       <c r="E10" s="3">
-        <v>13392200</v>
+        <v>11379500</v>
       </c>
       <c r="F10" s="3">
-        <v>13319200</v>
+        <v>13386900</v>
       </c>
       <c r="G10" s="3">
-        <v>10983600</v>
+        <v>13313900</v>
       </c>
       <c r="H10" s="3">
-        <v>11380100</v>
+        <v>10979300</v>
       </c>
       <c r="I10" s="3">
-        <v>8952700</v>
+        <v>11375600</v>
       </c>
       <c r="J10" s="3">
+        <v>8949200</v>
+      </c>
+      <c r="K10" s="3">
         <v>10064300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9220900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6938500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6500000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,17 +925,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>551900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>-11800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>551700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -930,24 +949,27 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>150600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>510900</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52139900</v>
+        <v>36720300</v>
       </c>
       <c r="E17" s="3">
-        <v>55175700</v>
+        <v>52119300</v>
       </c>
       <c r="F17" s="3">
-        <v>23920500</v>
+        <v>55153900</v>
       </c>
       <c r="G17" s="3">
-        <v>42928900</v>
+        <v>23911000</v>
       </c>
       <c r="H17" s="3">
-        <v>38463500</v>
+        <v>42911900</v>
       </c>
       <c r="I17" s="3">
-        <v>22841800</v>
+        <v>38448300</v>
       </c>
       <c r="J17" s="3">
+        <v>22832800</v>
+      </c>
+      <c r="K17" s="3">
         <v>38462000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10659700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20274900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38093500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4313100</v>
+        <v>7169400</v>
       </c>
       <c r="E18" s="3">
-        <v>5918500</v>
+        <v>6240300</v>
       </c>
       <c r="F18" s="3">
-        <v>5333600</v>
+        <v>5916200</v>
       </c>
       <c r="G18" s="3">
-        <v>2857600</v>
+        <v>5331500</v>
       </c>
       <c r="H18" s="3">
-        <v>3408700</v>
+        <v>2856500</v>
       </c>
       <c r="I18" s="3">
-        <v>2919600</v>
+        <v>3407300</v>
       </c>
       <c r="J18" s="3">
+        <v>2918400</v>
+      </c>
+      <c r="K18" s="3">
         <v>4235300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3689000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1638800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1073200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,13 +1115,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1929700</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1118,153 +1151,168 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6755800</v>
+        <v>7582500</v>
       </c>
       <c r="E21" s="3">
-        <v>6408100</v>
+        <v>6752600</v>
       </c>
       <c r="F21" s="3">
-        <v>5917900</v>
+        <v>6405100</v>
       </c>
       <c r="G21" s="3">
-        <v>3295600</v>
+        <v>5914900</v>
       </c>
       <c r="H21" s="3">
-        <v>3950700</v>
+        <v>3293800</v>
       </c>
       <c r="I21" s="3">
-        <v>3373200</v>
+        <v>3948600</v>
       </c>
       <c r="J21" s="3">
+        <v>3371400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4596700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4016300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1932500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1339500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>927100</v>
+        <v>793400</v>
       </c>
       <c r="E22" s="3">
-        <v>1035500</v>
+        <v>926800</v>
       </c>
       <c r="F22" s="3">
-        <v>1000900</v>
+        <v>1035100</v>
       </c>
       <c r="G22" s="3">
-        <v>894200</v>
+        <v>1000500</v>
       </c>
       <c r="H22" s="3">
-        <v>795300</v>
+        <v>893800</v>
       </c>
       <c r="I22" s="3">
-        <v>864300</v>
+        <v>794900</v>
       </c>
       <c r="J22" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K22" s="3">
         <v>887900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>804500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>703100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>959500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5315600</v>
+        <v>6376000</v>
       </c>
       <c r="E23" s="3">
-        <v>4883000</v>
+        <v>5313500</v>
       </c>
       <c r="F23" s="3">
-        <v>4332700</v>
+        <v>4881100</v>
       </c>
       <c r="G23" s="3">
-        <v>1963400</v>
+        <v>4331000</v>
       </c>
       <c r="H23" s="3">
-        <v>2613400</v>
+        <v>1962600</v>
       </c>
       <c r="I23" s="3">
-        <v>2055300</v>
+        <v>2612400</v>
       </c>
       <c r="J23" s="3">
+        <v>2054400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3347500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2884500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>935700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>938100</v>
+        <v>951900</v>
       </c>
       <c r="E24" s="3">
-        <v>563700</v>
+        <v>937800</v>
       </c>
       <c r="F24" s="3">
-        <v>747400</v>
+        <v>563400</v>
       </c>
       <c r="G24" s="3">
-        <v>-182900</v>
+        <v>747100</v>
       </c>
       <c r="H24" s="3">
-        <v>164100</v>
+        <v>-182800</v>
       </c>
       <c r="I24" s="3">
-        <v>257500</v>
+        <v>164000</v>
       </c>
       <c r="J24" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K24" s="3">
         <v>529900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>463400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-319200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-74500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4377400</v>
+        <v>5424100</v>
       </c>
       <c r="E26" s="3">
-        <v>4319300</v>
+        <v>4375700</v>
       </c>
       <c r="F26" s="3">
-        <v>3585300</v>
+        <v>4317600</v>
       </c>
       <c r="G26" s="3">
-        <v>2146300</v>
+        <v>3583900</v>
       </c>
       <c r="H26" s="3">
-        <v>2449400</v>
+        <v>2145500</v>
       </c>
       <c r="I26" s="3">
-        <v>1797800</v>
+        <v>2448400</v>
       </c>
       <c r="J26" s="3">
+        <v>1797100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2817500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2421100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1254900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4474800</v>
+        <v>5406900</v>
       </c>
       <c r="E27" s="3">
-        <v>4262800</v>
+        <v>4473000</v>
       </c>
       <c r="F27" s="3">
-        <v>3385100</v>
+        <v>4261100</v>
       </c>
       <c r="G27" s="3">
-        <v>1897500</v>
+        <v>3383800</v>
       </c>
       <c r="H27" s="3">
-        <v>2184800</v>
+        <v>1896700</v>
       </c>
       <c r="I27" s="3">
-        <v>1629000</v>
+        <v>2183900</v>
       </c>
       <c r="J27" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2646400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2292500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1227000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>33800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,11 +1478,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>251200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>251100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1430,21 +1490,24 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>3100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>16200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>51200</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,14 +1580,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1929700</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1550,45 +1619,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4474800</v>
+        <v>5406900</v>
       </c>
       <c r="E33" s="3">
-        <v>4262800</v>
+        <v>4473000</v>
       </c>
       <c r="F33" s="3">
-        <v>3636400</v>
+        <v>4261100</v>
       </c>
       <c r="G33" s="3">
-        <v>1897500</v>
+        <v>3634900</v>
       </c>
       <c r="H33" s="3">
-        <v>2184800</v>
+        <v>1896700</v>
       </c>
       <c r="I33" s="3">
-        <v>1629000</v>
+        <v>2183900</v>
       </c>
       <c r="J33" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2649500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2308700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1278200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>33800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4474800</v>
+        <v>5406900</v>
       </c>
       <c r="E35" s="3">
-        <v>4262800</v>
+        <v>4473000</v>
       </c>
       <c r="F35" s="3">
-        <v>3636400</v>
+        <v>4261100</v>
       </c>
       <c r="G35" s="3">
-        <v>1897500</v>
+        <v>3634900</v>
       </c>
       <c r="H35" s="3">
-        <v>2184800</v>
+        <v>1896700</v>
       </c>
       <c r="I35" s="3">
-        <v>1629000</v>
+        <v>2183900</v>
       </c>
       <c r="J35" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2649500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2308700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1278200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>33800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20542400</v>
+        <v>17730400</v>
       </c>
       <c r="E41" s="3">
-        <v>15936500</v>
+        <v>20534300</v>
       </c>
       <c r="F41" s="3">
-        <v>12729600</v>
+        <v>15930200</v>
       </c>
       <c r="G41" s="3">
-        <v>12533300</v>
+        <v>12724600</v>
       </c>
       <c r="H41" s="3">
-        <v>11894300</v>
+        <v>12528400</v>
       </c>
       <c r="I41" s="3">
-        <v>14040600</v>
+        <v>11889600</v>
       </c>
       <c r="J41" s="3">
+        <v>14035100</v>
+      </c>
+      <c r="K41" s="3">
         <v>16548100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10492600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10076800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9843300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,20 +1892,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1133600</v>
+        <v>1015500</v>
       </c>
       <c r="E43" s="3">
-        <v>1087300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>1133200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1086900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -1830,8 +1922,8 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,56 +2048,62 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>302095000</v>
+        <v>317431000</v>
       </c>
       <c r="E47" s="3">
-        <v>281226000</v>
+        <v>301976000</v>
       </c>
       <c r="F47" s="3">
-        <v>264914000</v>
+        <v>281115000</v>
       </c>
       <c r="G47" s="3">
-        <v>249848000</v>
+        <v>264810000</v>
       </c>
       <c r="H47" s="3">
-        <v>240789000</v>
+        <v>249749000</v>
       </c>
       <c r="I47" s="3">
-        <v>228749000</v>
+        <v>240694000</v>
       </c>
       <c r="J47" s="3">
+        <v>228659000</v>
+      </c>
+      <c r="K47" s="3">
         <v>194874000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>152474000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>155275000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>148586000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>299100</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>299000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -2013,51 +2120,57 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7794800</v>
+        <v>7780700</v>
       </c>
       <c r="E49" s="3">
-        <v>7830900</v>
+        <v>7791700</v>
       </c>
       <c r="F49" s="3">
-        <v>7926600</v>
+        <v>7827800</v>
       </c>
       <c r="G49" s="3">
-        <v>7724900</v>
+        <v>7923500</v>
       </c>
       <c r="H49" s="3">
-        <v>7934500</v>
+        <v>7721800</v>
       </c>
       <c r="I49" s="3">
-        <v>7366900</v>
+        <v>7931400</v>
       </c>
       <c r="J49" s="3">
+        <v>7364000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4287200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4078500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7698000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4180700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3801200</v>
+        <v>4123000</v>
       </c>
       <c r="E52" s="3">
-        <v>3590800</v>
+        <v>3799700</v>
       </c>
       <c r="F52" s="3">
-        <v>3389800</v>
+        <v>3589400</v>
       </c>
       <c r="G52" s="3">
-        <v>3586900</v>
+        <v>3388500</v>
       </c>
       <c r="H52" s="3">
-        <v>3484800</v>
+        <v>3585500</v>
       </c>
       <c r="I52" s="3">
-        <v>3192800</v>
+        <v>3483500</v>
       </c>
       <c r="J52" s="3">
+        <v>3191500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2613400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2127000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2391600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1349800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>691118000</v>
+        <v>720111000</v>
       </c>
       <c r="E54" s="3">
-        <v>635208000</v>
+        <v>690845000</v>
       </c>
       <c r="F54" s="3">
-        <v>589000000</v>
+        <v>634957000</v>
       </c>
       <c r="G54" s="3">
-        <v>572720000</v>
+        <v>588768000</v>
       </c>
       <c r="H54" s="3">
-        <v>565771000</v>
+        <v>572494000</v>
       </c>
       <c r="I54" s="3">
-        <v>553180000</v>
+        <v>565547000</v>
       </c>
       <c r="J54" s="3">
+        <v>552962000</v>
+      </c>
+      <c r="K54" s="3">
         <v>454863000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>395401000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>365102000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>354905000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>316454000</v>
+        <v>341958000</v>
       </c>
       <c r="E59" s="3">
-        <v>297123000</v>
+        <v>316329000</v>
       </c>
       <c r="F59" s="3">
-        <v>272159000</v>
+        <v>297005000</v>
       </c>
       <c r="G59" s="3">
-        <v>278713000</v>
+        <v>272051000</v>
       </c>
       <c r="H59" s="3">
-        <v>271462000</v>
+        <v>278603000</v>
       </c>
       <c r="I59" s="3">
-        <v>269958000</v>
+        <v>271355000</v>
       </c>
       <c r="J59" s="3">
+        <v>269852000</v>
+      </c>
+      <c r="K59" s="3">
         <v>223771000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191862000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>314510000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>296767000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10985200</v>
+        <v>9308600</v>
       </c>
       <c r="E61" s="3">
-        <v>9477900</v>
+        <v>10980900</v>
       </c>
       <c r="F61" s="3">
-        <v>10599000</v>
+        <v>9474200</v>
       </c>
       <c r="G61" s="3">
-        <v>10340700</v>
+        <v>10594800</v>
       </c>
       <c r="H61" s="3">
-        <v>10108300</v>
+        <v>10336600</v>
       </c>
       <c r="I61" s="3">
-        <v>7495700</v>
+        <v>10104300</v>
       </c>
       <c r="J61" s="3">
+        <v>7492700</v>
+      </c>
+      <c r="K61" s="3">
         <v>7309600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7051600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6736700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13169000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2052100</v>
+        <v>2172900</v>
       </c>
       <c r="E62" s="3">
-        <v>1548100</v>
+        <v>2051300</v>
       </c>
       <c r="F62" s="3">
-        <v>1424100</v>
+        <v>1547500</v>
       </c>
       <c r="G62" s="3">
-        <v>1005600</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="3">
-        <v>1066900</v>
+        <v>1005300</v>
       </c>
       <c r="I62" s="3">
-        <v>969500</v>
+        <v>1066500</v>
       </c>
       <c r="J62" s="3">
+        <v>969200</v>
+      </c>
+      <c r="K62" s="3">
         <v>964000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>475000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>453900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>588500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>650648000</v>
+        <v>675244000</v>
       </c>
       <c r="E66" s="3">
-        <v>596823000</v>
+        <v>650391000</v>
       </c>
       <c r="F66" s="3">
-        <v>552842000</v>
+        <v>596587000</v>
       </c>
       <c r="G66" s="3">
-        <v>540349000</v>
+        <v>552624000</v>
       </c>
       <c r="H66" s="3">
-        <v>532736000</v>
+        <v>540136000</v>
       </c>
       <c r="I66" s="3">
-        <v>520721000</v>
+        <v>532525000</v>
       </c>
       <c r="J66" s="3">
+        <v>520516000</v>
+      </c>
+      <c r="K66" s="3">
         <v>428593000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>373340000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346389000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>336111000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,45 +2879,51 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3000500</v>
+        <v>5007400</v>
       </c>
       <c r="E70" s="3">
-        <v>3000500</v>
+        <v>2999300</v>
       </c>
       <c r="F70" s="3">
-        <v>3000500</v>
+        <v>2999300</v>
       </c>
       <c r="G70" s="3">
-        <v>2808100</v>
+        <v>2999300</v>
       </c>
       <c r="H70" s="3">
-        <v>2808100</v>
+        <v>2807000</v>
       </c>
       <c r="I70" s="3">
+        <v>2807000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2113300</v>
+      </c>
+      <c r="K70" s="3">
         <v>2114100</v>
       </c>
-      <c r="J70" s="3">
-        <v>2114100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2073100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3759400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1392800</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14827200</v>
+        <v>18435100</v>
       </c>
       <c r="E72" s="3">
-        <v>12158900</v>
+        <v>14821400</v>
       </c>
       <c r="F72" s="3">
-        <v>9973300</v>
+        <v>12154100</v>
       </c>
       <c r="G72" s="3">
-        <v>7915700</v>
+        <v>9969300</v>
       </c>
       <c r="H72" s="3">
-        <v>7661300</v>
+        <v>7912500</v>
       </c>
       <c r="I72" s="3">
-        <v>6592800</v>
+        <v>7658300</v>
       </c>
       <c r="J72" s="3">
+        <v>6590200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5985200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4075400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2451100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1921300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37469600</v>
+        <v>39860100</v>
       </c>
       <c r="E76" s="3">
-        <v>35384500</v>
+        <v>37454800</v>
       </c>
       <c r="F76" s="3">
-        <v>33157300</v>
+        <v>35370600</v>
       </c>
       <c r="G76" s="3">
-        <v>29562700</v>
+        <v>33144300</v>
       </c>
       <c r="H76" s="3">
-        <v>30226800</v>
+        <v>29551000</v>
       </c>
       <c r="I76" s="3">
-        <v>30344600</v>
+        <v>30214900</v>
       </c>
       <c r="J76" s="3">
+        <v>30332600</v>
+      </c>
+      <c r="K76" s="3">
         <v>24155200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19987600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14953500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17401200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4474800</v>
+        <v>5406900</v>
       </c>
       <c r="E81" s="3">
-        <v>4262800</v>
+        <v>4473000</v>
       </c>
       <c r="F81" s="3">
-        <v>3636400</v>
+        <v>4261100</v>
       </c>
       <c r="G81" s="3">
-        <v>1897500</v>
+        <v>3634900</v>
       </c>
       <c r="H81" s="3">
-        <v>2184800</v>
+        <v>1896700</v>
       </c>
       <c r="I81" s="3">
-        <v>1629000</v>
+        <v>2183900</v>
       </c>
       <c r="J81" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2649500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2308700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1278200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>33800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>515000</v>
+        <v>415100</v>
       </c>
       <c r="E83" s="3">
-        <v>491400</v>
+        <v>514800</v>
       </c>
       <c r="F83" s="3">
-        <v>586400</v>
+        <v>491200</v>
       </c>
       <c r="G83" s="3">
-        <v>439600</v>
+        <v>586200</v>
       </c>
       <c r="H83" s="3">
-        <v>544000</v>
+        <v>439500</v>
       </c>
       <c r="I83" s="3">
-        <v>455300</v>
+        <v>543800</v>
       </c>
       <c r="J83" s="3">
+        <v>455100</v>
+      </c>
+      <c r="K83" s="3">
         <v>362700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>327900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>293600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15738700</v>
+        <v>18170700</v>
       </c>
       <c r="E89" s="3">
-        <v>16126500</v>
+        <v>15732500</v>
       </c>
       <c r="F89" s="3">
-        <v>15063500</v>
+        <v>16120100</v>
       </c>
       <c r="G89" s="3">
-        <v>13966800</v>
+        <v>15057600</v>
       </c>
       <c r="H89" s="3">
-        <v>13374100</v>
+        <v>13961300</v>
       </c>
       <c r="I89" s="3">
-        <v>8112700</v>
+        <v>13368800</v>
       </c>
       <c r="J89" s="3">
+        <v>8109500</v>
+      </c>
+      <c r="K89" s="3">
         <v>8483300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7315600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8126400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8349100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,8 +3584,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3400,9 +3620,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11106900</v>
+        <v>-19180600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10857200</v>
+        <v>-11102500</v>
       </c>
       <c r="F94" s="3">
-        <v>-14917500</v>
+        <v>-10853000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12786100</v>
+        <v>-14911600</v>
       </c>
       <c r="H94" s="3">
-        <v>-17851300</v>
+        <v>-12781100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10884700</v>
+        <v>-17844200</v>
       </c>
       <c r="J94" s="3">
+        <v>-10880400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3192000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8119300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8156500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8263900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1837000</v>
+        <v>-1961900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1097500</v>
+        <v>-1836300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1403700</v>
+        <v>-1097100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1397400</v>
+        <v>-1403100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1250600</v>
+        <v>-1396800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1120300</v>
+        <v>-1250100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1119800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-714400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-585800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-551800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-550800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>520500</v>
+        <v>-1606400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1632900</v>
+        <v>520300</v>
       </c>
       <c r="F100" s="3">
-        <v>-568400</v>
+        <v>-1632300</v>
       </c>
       <c r="G100" s="3">
+        <v>-568200</v>
+      </c>
+      <c r="H100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
-        <v>2579700</v>
-      </c>
       <c r="I100" s="3">
-        <v>-1574800</v>
+        <v>2578700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1574200</v>
+      </c>
+      <c r="K100" s="3">
         <v>16500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>537300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>557100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>503200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-414500</v>
+        <v>-250300</v>
       </c>
       <c r="E101" s="3">
-        <v>-365800</v>
+        <v>-414300</v>
       </c>
       <c r="F101" s="3">
-        <v>645300</v>
+        <v>-365700</v>
       </c>
       <c r="G101" s="3">
-        <v>-516600</v>
+        <v>645100</v>
       </c>
       <c r="H101" s="3">
-        <v>-272400</v>
+        <v>-516400</v>
       </c>
       <c r="I101" s="3">
-        <v>1650200</v>
+        <v>-272300</v>
       </c>
       <c r="J101" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K101" s="3">
         <v>620200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>368700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-160300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>147500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4737800</v>
+        <v>-2866700</v>
       </c>
       <c r="E102" s="3">
-        <v>3270500</v>
+        <v>4735900</v>
       </c>
       <c r="F102" s="3">
-        <v>223000</v>
+        <v>3269200</v>
       </c>
       <c r="G102" s="3">
-        <v>675100</v>
+        <v>222900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2169900</v>
+        <v>674900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2696600</v>
+        <v>-2169000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2695600</v>
+      </c>
+      <c r="K102" s="3">
         <v>5927900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>102400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>366600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>736000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43889700</v>
+        <v>42877400</v>
       </c>
       <c r="E8" s="3">
-        <v>58359500</v>
+        <v>57013500</v>
       </c>
       <c r="F8" s="3">
-        <v>61070000</v>
+        <v>59661500</v>
       </c>
       <c r="G8" s="3">
-        <v>29242600</v>
+        <v>28568100</v>
       </c>
       <c r="H8" s="3">
-        <v>45768400</v>
+        <v>44712700</v>
       </c>
       <c r="I8" s="3">
-        <v>41855700</v>
+        <v>40890300</v>
       </c>
       <c r="J8" s="3">
-        <v>25751200</v>
+        <v>25157300</v>
       </c>
       <c r="K8" s="3">
         <v>42697300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32335200</v>
+        <v>31589400</v>
       </c>
       <c r="E9" s="3">
-        <v>46980000</v>
+        <v>45896400</v>
       </c>
       <c r="F9" s="3">
-        <v>47683200</v>
+        <v>46583300</v>
       </c>
       <c r="G9" s="3">
-        <v>15928700</v>
+        <v>15561300</v>
       </c>
       <c r="H9" s="3">
-        <v>34789100</v>
+        <v>33986700</v>
       </c>
       <c r="I9" s="3">
-        <v>30480100</v>
+        <v>29777100</v>
       </c>
       <c r="J9" s="3">
-        <v>16802100</v>
+        <v>16414500</v>
       </c>
       <c r="K9" s="3">
         <v>32633000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11554500</v>
+        <v>11288000</v>
       </c>
       <c r="E10" s="3">
-        <v>11379500</v>
+        <v>11117000</v>
       </c>
       <c r="F10" s="3">
-        <v>13386900</v>
+        <v>13078100</v>
       </c>
       <c r="G10" s="3">
-        <v>13313900</v>
+        <v>13006800</v>
       </c>
       <c r="H10" s="3">
-        <v>10979300</v>
+        <v>10726100</v>
       </c>
       <c r="I10" s="3">
-        <v>11375600</v>
+        <v>11113200</v>
       </c>
       <c r="J10" s="3">
-        <v>8949200</v>
+        <v>8742800</v>
       </c>
       <c r="K10" s="3">
         <v>10064300</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="E14" s="3">
-        <v>551700</v>
+        <v>538900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36720300</v>
+        <v>35873400</v>
       </c>
       <c r="E17" s="3">
-        <v>52119300</v>
+        <v>50917200</v>
       </c>
       <c r="F17" s="3">
-        <v>55153900</v>
+        <v>53881800</v>
       </c>
       <c r="G17" s="3">
-        <v>23911000</v>
+        <v>23359500</v>
       </c>
       <c r="H17" s="3">
-        <v>42911900</v>
+        <v>41922200</v>
       </c>
       <c r="I17" s="3">
-        <v>38448300</v>
+        <v>37561500</v>
       </c>
       <c r="J17" s="3">
-        <v>22832800</v>
+        <v>22306200</v>
       </c>
       <c r="K17" s="3">
         <v>38462000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7169400</v>
+        <v>7004000</v>
       </c>
       <c r="E18" s="3">
-        <v>6240300</v>
+        <v>6096300</v>
       </c>
       <c r="F18" s="3">
-        <v>5916200</v>
+        <v>5779700</v>
       </c>
       <c r="G18" s="3">
-        <v>5331500</v>
+        <v>5208600</v>
       </c>
       <c r="H18" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="I18" s="3">
-        <v>3407300</v>
+        <v>3328800</v>
       </c>
       <c r="J18" s="3">
-        <v>2918400</v>
+        <v>2851100</v>
       </c>
       <c r="K18" s="3">
         <v>4235300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7582500</v>
+        <v>7411200</v>
       </c>
       <c r="E21" s="3">
-        <v>6752600</v>
+        <v>6601200</v>
       </c>
       <c r="F21" s="3">
-        <v>6405100</v>
+        <v>6261500</v>
       </c>
       <c r="G21" s="3">
-        <v>5914900</v>
+        <v>5783500</v>
       </c>
       <c r="H21" s="3">
-        <v>3293800</v>
+        <v>3221600</v>
       </c>
       <c r="I21" s="3">
-        <v>3948600</v>
+        <v>3862100</v>
       </c>
       <c r="J21" s="3">
-        <v>3371400</v>
+        <v>3297500</v>
       </c>
       <c r="K21" s="3">
         <v>4596700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>793400</v>
+        <v>775100</v>
       </c>
       <c r="E22" s="3">
-        <v>926800</v>
+        <v>905400</v>
       </c>
       <c r="F22" s="3">
-        <v>1035100</v>
+        <v>1011200</v>
       </c>
       <c r="G22" s="3">
-        <v>1000500</v>
+        <v>977500</v>
       </c>
       <c r="H22" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="I22" s="3">
-        <v>794900</v>
+        <v>776600</v>
       </c>
       <c r="J22" s="3">
-        <v>864000</v>
+        <v>844100</v>
       </c>
       <c r="K22" s="3">
         <v>887900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6376000</v>
+        <v>6229000</v>
       </c>
       <c r="E23" s="3">
-        <v>5313500</v>
+        <v>5190900</v>
       </c>
       <c r="F23" s="3">
-        <v>4881100</v>
+        <v>4768500</v>
       </c>
       <c r="G23" s="3">
-        <v>4331000</v>
+        <v>4231100</v>
       </c>
       <c r="H23" s="3">
-        <v>1962600</v>
+        <v>1917400</v>
       </c>
       <c r="I23" s="3">
-        <v>2612400</v>
+        <v>2552100</v>
       </c>
       <c r="J23" s="3">
-        <v>2054400</v>
+        <v>2007100</v>
       </c>
       <c r="K23" s="3">
         <v>3347500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>951900</v>
+        <v>929900</v>
       </c>
       <c r="E24" s="3">
-        <v>937800</v>
+        <v>916100</v>
       </c>
       <c r="F24" s="3">
-        <v>563400</v>
+        <v>550400</v>
       </c>
       <c r="G24" s="3">
-        <v>747100</v>
+        <v>729800</v>
       </c>
       <c r="H24" s="3">
-        <v>-182800</v>
+        <v>-178600</v>
       </c>
       <c r="I24" s="3">
-        <v>164000</v>
+        <v>160200</v>
       </c>
       <c r="J24" s="3">
-        <v>257400</v>
+        <v>251500</v>
       </c>
       <c r="K24" s="3">
         <v>529900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5424100</v>
+        <v>5299000</v>
       </c>
       <c r="E26" s="3">
-        <v>4375700</v>
+        <v>4274800</v>
       </c>
       <c r="F26" s="3">
-        <v>4317600</v>
+        <v>4218100</v>
       </c>
       <c r="G26" s="3">
-        <v>3583900</v>
+        <v>3501200</v>
       </c>
       <c r="H26" s="3">
-        <v>2145500</v>
+        <v>2096000</v>
       </c>
       <c r="I26" s="3">
-        <v>2448400</v>
+        <v>2391900</v>
       </c>
       <c r="J26" s="3">
-        <v>1797100</v>
+        <v>1755600</v>
       </c>
       <c r="K26" s="3">
         <v>2817500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5406900</v>
+        <v>5282100</v>
       </c>
       <c r="E27" s="3">
-        <v>4473000</v>
+        <v>4369800</v>
       </c>
       <c r="F27" s="3">
-        <v>4261100</v>
+        <v>4162900</v>
       </c>
       <c r="G27" s="3">
-        <v>3383800</v>
+        <v>3305800</v>
       </c>
       <c r="H27" s="3">
-        <v>1896700</v>
+        <v>1853000</v>
       </c>
       <c r="I27" s="3">
-        <v>2183900</v>
+        <v>2133600</v>
       </c>
       <c r="J27" s="3">
-        <v>1628300</v>
+        <v>1590800</v>
       </c>
       <c r="K27" s="3">
         <v>2646400</v>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>251100</v>
+        <v>245300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5406900</v>
+        <v>5282100</v>
       </c>
       <c r="E33" s="3">
-        <v>4473000</v>
+        <v>4369800</v>
       </c>
       <c r="F33" s="3">
-        <v>4261100</v>
+        <v>4162900</v>
       </c>
       <c r="G33" s="3">
-        <v>3634900</v>
+        <v>3551100</v>
       </c>
       <c r="H33" s="3">
-        <v>1896700</v>
+        <v>1853000</v>
       </c>
       <c r="I33" s="3">
-        <v>2183900</v>
+        <v>2133600</v>
       </c>
       <c r="J33" s="3">
-        <v>1628300</v>
+        <v>1590800</v>
       </c>
       <c r="K33" s="3">
         <v>2649500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5406900</v>
+        <v>5282100</v>
       </c>
       <c r="E35" s="3">
-        <v>4473000</v>
+        <v>4369800</v>
       </c>
       <c r="F35" s="3">
-        <v>4261100</v>
+        <v>4162900</v>
       </c>
       <c r="G35" s="3">
-        <v>3634900</v>
+        <v>3551100</v>
       </c>
       <c r="H35" s="3">
-        <v>1896700</v>
+        <v>1853000</v>
       </c>
       <c r="I35" s="3">
-        <v>2183900</v>
+        <v>2133600</v>
       </c>
       <c r="J35" s="3">
-        <v>1628300</v>
+        <v>1590800</v>
       </c>
       <c r="K35" s="3">
         <v>2649500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17730400</v>
+        <v>17321500</v>
       </c>
       <c r="E41" s="3">
-        <v>20534300</v>
+        <v>20060700</v>
       </c>
       <c r="F41" s="3">
-        <v>15930200</v>
+        <v>15562800</v>
       </c>
       <c r="G41" s="3">
-        <v>12724600</v>
+        <v>12431100</v>
       </c>
       <c r="H41" s="3">
-        <v>12528400</v>
+        <v>12239400</v>
       </c>
       <c r="I41" s="3">
-        <v>11889600</v>
+        <v>11615400</v>
       </c>
       <c r="J41" s="3">
-        <v>14035100</v>
+        <v>13711400</v>
       </c>
       <c r="K41" s="3">
         <v>16548100</v>
@@ -1902,13 +1902,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1015500</v>
+        <v>992000</v>
       </c>
       <c r="E43" s="3">
-        <v>1133200</v>
+        <v>1107000</v>
       </c>
       <c r="F43" s="3">
-        <v>1086900</v>
+        <v>1061800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>317431000</v>
+        <v>310109000</v>
       </c>
       <c r="E47" s="3">
-        <v>301976000</v>
+        <v>295011000</v>
       </c>
       <c r="F47" s="3">
-        <v>281115000</v>
+        <v>274631000</v>
       </c>
       <c r="G47" s="3">
-        <v>264810000</v>
+        <v>258702000</v>
       </c>
       <c r="H47" s="3">
-        <v>249749000</v>
+        <v>243989000</v>
       </c>
       <c r="I47" s="3">
-        <v>240694000</v>
+        <v>235142000</v>
       </c>
       <c r="J47" s="3">
-        <v>228659000</v>
+        <v>223385000</v>
       </c>
       <c r="K47" s="3">
         <v>194874000</v>
@@ -2103,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>299000</v>
+        <v>292100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7780700</v>
+        <v>7601200</v>
       </c>
       <c r="E49" s="3">
-        <v>7791700</v>
+        <v>7612000</v>
       </c>
       <c r="F49" s="3">
-        <v>7827800</v>
+        <v>7647200</v>
       </c>
       <c r="G49" s="3">
-        <v>7923500</v>
+        <v>7740800</v>
       </c>
       <c r="H49" s="3">
-        <v>7721800</v>
+        <v>7543700</v>
       </c>
       <c r="I49" s="3">
-        <v>7931400</v>
+        <v>7748400</v>
       </c>
       <c r="J49" s="3">
-        <v>7364000</v>
+        <v>7194100</v>
       </c>
       <c r="K49" s="3">
         <v>4287200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4123000</v>
+        <v>4027900</v>
       </c>
       <c r="E52" s="3">
-        <v>3799700</v>
+        <v>3712100</v>
       </c>
       <c r="F52" s="3">
-        <v>3589400</v>
+        <v>3506600</v>
       </c>
       <c r="G52" s="3">
-        <v>3388500</v>
+        <v>3310400</v>
       </c>
       <c r="H52" s="3">
-        <v>3585500</v>
+        <v>3502800</v>
       </c>
       <c r="I52" s="3">
-        <v>3483500</v>
+        <v>3403100</v>
       </c>
       <c r="J52" s="3">
-        <v>3191500</v>
+        <v>3117900</v>
       </c>
       <c r="K52" s="3">
         <v>2613400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>720111000</v>
+        <v>703502000</v>
       </c>
       <c r="E54" s="3">
-        <v>690845000</v>
+        <v>674911000</v>
       </c>
       <c r="F54" s="3">
-        <v>634957000</v>
+        <v>620311000</v>
       </c>
       <c r="G54" s="3">
-        <v>588768000</v>
+        <v>575188000</v>
       </c>
       <c r="H54" s="3">
-        <v>572494000</v>
+        <v>559289000</v>
       </c>
       <c r="I54" s="3">
-        <v>565547000</v>
+        <v>552503000</v>
       </c>
       <c r="J54" s="3">
-        <v>552962000</v>
+        <v>540208000</v>
       </c>
       <c r="K54" s="3">
         <v>454863000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>341958000</v>
+        <v>334070000</v>
       </c>
       <c r="E59" s="3">
-        <v>316329000</v>
+        <v>309033000</v>
       </c>
       <c r="F59" s="3">
-        <v>297005000</v>
+        <v>290155000</v>
       </c>
       <c r="G59" s="3">
-        <v>272051000</v>
+        <v>265777000</v>
       </c>
       <c r="H59" s="3">
-        <v>278603000</v>
+        <v>272177000</v>
       </c>
       <c r="I59" s="3">
-        <v>271355000</v>
+        <v>265096000</v>
       </c>
       <c r="J59" s="3">
-        <v>269852000</v>
+        <v>263628000</v>
       </c>
       <c r="K59" s="3">
         <v>223771000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9308600</v>
+        <v>9093900</v>
       </c>
       <c r="E61" s="3">
-        <v>10980900</v>
+        <v>10727600</v>
       </c>
       <c r="F61" s="3">
-        <v>9474200</v>
+        <v>9255600</v>
       </c>
       <c r="G61" s="3">
-        <v>10594800</v>
+        <v>10350400</v>
       </c>
       <c r="H61" s="3">
-        <v>10336600</v>
+        <v>10098200</v>
       </c>
       <c r="I61" s="3">
-        <v>10104300</v>
+        <v>9871300</v>
       </c>
       <c r="J61" s="3">
-        <v>7492700</v>
+        <v>7319900</v>
       </c>
       <c r="K61" s="3">
         <v>7309600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2172900</v>
+        <v>2122800</v>
       </c>
       <c r="E62" s="3">
-        <v>2051300</v>
+        <v>2004000</v>
       </c>
       <c r="F62" s="3">
-        <v>1547500</v>
+        <v>1511800</v>
       </c>
       <c r="G62" s="3">
-        <v>1423500</v>
+        <v>1390700</v>
       </c>
       <c r="H62" s="3">
-        <v>1005300</v>
+        <v>982100</v>
       </c>
       <c r="I62" s="3">
-        <v>1066500</v>
+        <v>1041900</v>
       </c>
       <c r="J62" s="3">
-        <v>969200</v>
+        <v>946800</v>
       </c>
       <c r="K62" s="3">
         <v>964000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>675244000</v>
+        <v>659669000</v>
       </c>
       <c r="E66" s="3">
-        <v>650391000</v>
+        <v>635390000</v>
       </c>
       <c r="F66" s="3">
-        <v>596587000</v>
+        <v>582827000</v>
       </c>
       <c r="G66" s="3">
-        <v>552624000</v>
+        <v>539878000</v>
       </c>
       <c r="H66" s="3">
-        <v>540136000</v>
+        <v>527678000</v>
       </c>
       <c r="I66" s="3">
-        <v>532525000</v>
+        <v>520243000</v>
       </c>
       <c r="J66" s="3">
-        <v>520516000</v>
+        <v>508510000</v>
       </c>
       <c r="K66" s="3">
         <v>428593000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5007400</v>
+        <v>4891900</v>
       </c>
       <c r="E70" s="3">
-        <v>2999300</v>
+        <v>2930100</v>
       </c>
       <c r="F70" s="3">
-        <v>2999300</v>
+        <v>2930100</v>
       </c>
       <c r="G70" s="3">
-        <v>2999300</v>
+        <v>2930100</v>
       </c>
       <c r="H70" s="3">
-        <v>2807000</v>
+        <v>2742300</v>
       </c>
       <c r="I70" s="3">
-        <v>2807000</v>
+        <v>2742300</v>
       </c>
       <c r="J70" s="3">
-        <v>2113300</v>
+        <v>2064600</v>
       </c>
       <c r="K70" s="3">
         <v>2114100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18435100</v>
+        <v>18009900</v>
       </c>
       <c r="E72" s="3">
-        <v>14821400</v>
+        <v>14479500</v>
       </c>
       <c r="F72" s="3">
-        <v>12154100</v>
+        <v>11873700</v>
       </c>
       <c r="G72" s="3">
-        <v>9969300</v>
+        <v>9739400</v>
       </c>
       <c r="H72" s="3">
-        <v>7912500</v>
+        <v>7730000</v>
       </c>
       <c r="I72" s="3">
-        <v>7658300</v>
+        <v>7481600</v>
       </c>
       <c r="J72" s="3">
-        <v>6590200</v>
+        <v>6438200</v>
       </c>
       <c r="K72" s="3">
         <v>5985200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39860100</v>
+        <v>38940700</v>
       </c>
       <c r="E76" s="3">
-        <v>37454800</v>
+        <v>36591000</v>
       </c>
       <c r="F76" s="3">
-        <v>35370600</v>
+        <v>34554800</v>
       </c>
       <c r="G76" s="3">
-        <v>33144300</v>
+        <v>32379800</v>
       </c>
       <c r="H76" s="3">
-        <v>29551000</v>
+        <v>28869300</v>
       </c>
       <c r="I76" s="3">
-        <v>30214900</v>
+        <v>29517900</v>
       </c>
       <c r="J76" s="3">
-        <v>30332600</v>
+        <v>29632900</v>
       </c>
       <c r="K76" s="3">
         <v>24155200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5406900</v>
+        <v>5282100</v>
       </c>
       <c r="E81" s="3">
-        <v>4473000</v>
+        <v>4369800</v>
       </c>
       <c r="F81" s="3">
-        <v>4261100</v>
+        <v>4162900</v>
       </c>
       <c r="G81" s="3">
-        <v>3634900</v>
+        <v>3551100</v>
       </c>
       <c r="H81" s="3">
-        <v>1896700</v>
+        <v>1853000</v>
       </c>
       <c r="I81" s="3">
-        <v>2183900</v>
+        <v>2133600</v>
       </c>
       <c r="J81" s="3">
-        <v>1628300</v>
+        <v>1590800</v>
       </c>
       <c r="K81" s="3">
         <v>2649500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>415100</v>
+        <v>405600</v>
       </c>
       <c r="E83" s="3">
-        <v>514800</v>
+        <v>502900</v>
       </c>
       <c r="F83" s="3">
-        <v>491200</v>
+        <v>479900</v>
       </c>
       <c r="G83" s="3">
-        <v>586200</v>
+        <v>572700</v>
       </c>
       <c r="H83" s="3">
-        <v>439500</v>
+        <v>429300</v>
       </c>
       <c r="I83" s="3">
-        <v>543800</v>
+        <v>531300</v>
       </c>
       <c r="J83" s="3">
-        <v>455100</v>
+        <v>444700</v>
       </c>
       <c r="K83" s="3">
         <v>362700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18170700</v>
+        <v>17751500</v>
       </c>
       <c r="E89" s="3">
-        <v>15732500</v>
+        <v>15369600</v>
       </c>
       <c r="F89" s="3">
-        <v>16120100</v>
+        <v>15748300</v>
       </c>
       <c r="G89" s="3">
-        <v>15057600</v>
+        <v>14710300</v>
       </c>
       <c r="H89" s="3">
-        <v>13961300</v>
+        <v>13639300</v>
       </c>
       <c r="I89" s="3">
-        <v>13368800</v>
+        <v>13060500</v>
       </c>
       <c r="J89" s="3">
-        <v>8109500</v>
+        <v>7922500</v>
       </c>
       <c r="K89" s="3">
         <v>8483300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19180600</v>
+        <v>-18738200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11102500</v>
+        <v>-10846400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10853000</v>
+        <v>-10602600</v>
       </c>
       <c r="G94" s="3">
-        <v>-14911600</v>
+        <v>-14567700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12781100</v>
+        <v>-12486300</v>
       </c>
       <c r="I94" s="3">
-        <v>-17844200</v>
+        <v>-17432600</v>
       </c>
       <c r="J94" s="3">
-        <v>-10880400</v>
+        <v>-10629500</v>
       </c>
       <c r="K94" s="3">
         <v>-3192000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1961900</v>
+        <v>-1916600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1836300</v>
+        <v>-1793900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1097100</v>
+        <v>-1071800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1403100</v>
+        <v>-1370800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1396800</v>
+        <v>-1364600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1250100</v>
+        <v>-1221300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1119800</v>
+        <v>-1094000</v>
       </c>
       <c r="K96" s="3">
         <v>-714400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1606400</v>
+        <v>-1569300</v>
       </c>
       <c r="E100" s="3">
-        <v>520300</v>
+        <v>508300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1632300</v>
+        <v>-1594600</v>
       </c>
       <c r="G100" s="3">
-        <v>-568200</v>
+        <v>-555000</v>
       </c>
       <c r="H100" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="I100" s="3">
-        <v>2578700</v>
+        <v>2519200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1574200</v>
+        <v>-1537900</v>
       </c>
       <c r="K100" s="3">
         <v>16500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-250300</v>
+        <v>-244600</v>
       </c>
       <c r="E101" s="3">
-        <v>-414300</v>
+        <v>-404800</v>
       </c>
       <c r="F101" s="3">
-        <v>-365700</v>
+        <v>-357300</v>
       </c>
       <c r="G101" s="3">
-        <v>645100</v>
+        <v>630200</v>
       </c>
       <c r="H101" s="3">
-        <v>-516400</v>
+        <v>-504400</v>
       </c>
       <c r="I101" s="3">
-        <v>-272300</v>
+        <v>-266000</v>
       </c>
       <c r="J101" s="3">
-        <v>1649500</v>
+        <v>1611500</v>
       </c>
       <c r="K101" s="3">
         <v>620200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2866700</v>
+        <v>-2800500</v>
       </c>
       <c r="E102" s="3">
-        <v>4735900</v>
+        <v>4626700</v>
       </c>
       <c r="F102" s="3">
-        <v>3269200</v>
+        <v>3193800</v>
       </c>
       <c r="G102" s="3">
-        <v>222900</v>
+        <v>217700</v>
       </c>
       <c r="H102" s="3">
-        <v>674900</v>
+        <v>659300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2169000</v>
+        <v>-2119000</v>
       </c>
       <c r="J102" s="3">
-        <v>-2695600</v>
+        <v>-2633400</v>
       </c>
       <c r="K102" s="3">
         <v>5927900</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42877400</v>
+        <v>43275100</v>
       </c>
       <c r="E8" s="3">
-        <v>57013500</v>
+        <v>57542200</v>
       </c>
       <c r="F8" s="3">
-        <v>59661500</v>
+        <v>60214800</v>
       </c>
       <c r="G8" s="3">
-        <v>28568100</v>
+        <v>28833000</v>
       </c>
       <c r="H8" s="3">
-        <v>44712700</v>
+        <v>45127400</v>
       </c>
       <c r="I8" s="3">
-        <v>40890300</v>
+        <v>41269500</v>
       </c>
       <c r="J8" s="3">
-        <v>25157300</v>
+        <v>25390600</v>
       </c>
       <c r="K8" s="3">
         <v>42697300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31589400</v>
+        <v>31882400</v>
       </c>
       <c r="E9" s="3">
-        <v>45896400</v>
+        <v>46322100</v>
       </c>
       <c r="F9" s="3">
-        <v>46583300</v>
+        <v>47015400</v>
       </c>
       <c r="G9" s="3">
-        <v>15561300</v>
+        <v>15705600</v>
       </c>
       <c r="H9" s="3">
-        <v>33986700</v>
+        <v>34301900</v>
       </c>
       <c r="I9" s="3">
-        <v>29777100</v>
+        <v>30053200</v>
       </c>
       <c r="J9" s="3">
-        <v>16414500</v>
+        <v>16566800</v>
       </c>
       <c r="K9" s="3">
         <v>32633000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11288000</v>
+        <v>11392700</v>
       </c>
       <c r="E10" s="3">
-        <v>11117000</v>
+        <v>11220100</v>
       </c>
       <c r="F10" s="3">
-        <v>13078100</v>
+        <v>13199400</v>
       </c>
       <c r="G10" s="3">
-        <v>13006800</v>
+        <v>13127400</v>
       </c>
       <c r="H10" s="3">
-        <v>10726100</v>
+        <v>10825500</v>
       </c>
       <c r="I10" s="3">
-        <v>11113200</v>
+        <v>11216300</v>
       </c>
       <c r="J10" s="3">
-        <v>8742800</v>
+        <v>8823800</v>
       </c>
       <c r="K10" s="3">
         <v>10064300</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="E14" s="3">
-        <v>538900</v>
+        <v>543900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35873400</v>
+        <v>36206100</v>
       </c>
       <c r="E17" s="3">
-        <v>50917200</v>
+        <v>51389400</v>
       </c>
       <c r="F17" s="3">
-        <v>53881800</v>
+        <v>54381500</v>
       </c>
       <c r="G17" s="3">
-        <v>23359500</v>
+        <v>23576200</v>
       </c>
       <c r="H17" s="3">
-        <v>41922200</v>
+        <v>42311000</v>
       </c>
       <c r="I17" s="3">
-        <v>37561500</v>
+        <v>37909900</v>
       </c>
       <c r="J17" s="3">
-        <v>22306200</v>
+        <v>22513000</v>
       </c>
       <c r="K17" s="3">
         <v>38462000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7004000</v>
+        <v>7069000</v>
       </c>
       <c r="E18" s="3">
-        <v>6096300</v>
+        <v>6152900</v>
       </c>
       <c r="F18" s="3">
-        <v>5779700</v>
+        <v>5833300</v>
       </c>
       <c r="G18" s="3">
-        <v>5208600</v>
+        <v>5256900</v>
       </c>
       <c r="H18" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="I18" s="3">
-        <v>3328800</v>
+        <v>3359600</v>
       </c>
       <c r="J18" s="3">
-        <v>2851100</v>
+        <v>2877600</v>
       </c>
       <c r="K18" s="3">
         <v>4235300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7411200</v>
+        <v>7477000</v>
       </c>
       <c r="E21" s="3">
-        <v>6601200</v>
+        <v>6658800</v>
       </c>
       <c r="F21" s="3">
-        <v>6261500</v>
+        <v>6316100</v>
       </c>
       <c r="G21" s="3">
-        <v>5783500</v>
+        <v>5833000</v>
       </c>
       <c r="H21" s="3">
-        <v>3221600</v>
+        <v>3248400</v>
       </c>
       <c r="I21" s="3">
-        <v>3862100</v>
+        <v>3894100</v>
       </c>
       <c r="J21" s="3">
-        <v>3297500</v>
+        <v>3324900</v>
       </c>
       <c r="K21" s="3">
         <v>4596700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>775100</v>
+        <v>782300</v>
       </c>
       <c r="E22" s="3">
-        <v>905400</v>
+        <v>913800</v>
       </c>
       <c r="F22" s="3">
-        <v>1011200</v>
+        <v>1020600</v>
       </c>
       <c r="G22" s="3">
-        <v>977500</v>
+        <v>986500</v>
       </c>
       <c r="H22" s="3">
-        <v>873200</v>
+        <v>881300</v>
       </c>
       <c r="I22" s="3">
-        <v>776600</v>
+        <v>783800</v>
       </c>
       <c r="J22" s="3">
-        <v>844100</v>
+        <v>851900</v>
       </c>
       <c r="K22" s="3">
         <v>887900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6229000</v>
+        <v>6286700</v>
       </c>
       <c r="E23" s="3">
-        <v>5190900</v>
+        <v>5239100</v>
       </c>
       <c r="F23" s="3">
-        <v>4768500</v>
+        <v>4812700</v>
       </c>
       <c r="G23" s="3">
-        <v>4231100</v>
+        <v>4270300</v>
       </c>
       <c r="H23" s="3">
-        <v>1917400</v>
+        <v>1935100</v>
       </c>
       <c r="I23" s="3">
-        <v>2552100</v>
+        <v>2575800</v>
       </c>
       <c r="J23" s="3">
-        <v>2007100</v>
+        <v>2025700</v>
       </c>
       <c r="K23" s="3">
         <v>3347500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>929900</v>
+        <v>938600</v>
       </c>
       <c r="E24" s="3">
-        <v>916100</v>
+        <v>924600</v>
       </c>
       <c r="F24" s="3">
-        <v>550400</v>
+        <v>555600</v>
       </c>
       <c r="G24" s="3">
-        <v>729800</v>
+        <v>736600</v>
       </c>
       <c r="H24" s="3">
-        <v>-178600</v>
+        <v>184900</v>
       </c>
       <c r="I24" s="3">
-        <v>160200</v>
+        <v>151700</v>
       </c>
       <c r="J24" s="3">
-        <v>251500</v>
+        <v>253800</v>
       </c>
       <c r="K24" s="3">
         <v>529900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5299000</v>
+        <v>5348200</v>
       </c>
       <c r="E26" s="3">
-        <v>4274800</v>
+        <v>4314400</v>
       </c>
       <c r="F26" s="3">
-        <v>4218100</v>
+        <v>4257200</v>
       </c>
       <c r="G26" s="3">
-        <v>3501200</v>
+        <v>3533700</v>
       </c>
       <c r="H26" s="3">
-        <v>2096000</v>
+        <v>1750200</v>
       </c>
       <c r="I26" s="3">
-        <v>2391900</v>
+        <v>2424200</v>
       </c>
       <c r="J26" s="3">
-        <v>1755600</v>
+        <v>1771900</v>
       </c>
       <c r="K26" s="3">
         <v>2817500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5282100</v>
+        <v>5331100</v>
       </c>
       <c r="E27" s="3">
-        <v>4369800</v>
+        <v>4410400</v>
       </c>
       <c r="F27" s="3">
-        <v>4162900</v>
+        <v>4201500</v>
       </c>
       <c r="G27" s="3">
-        <v>3305800</v>
+        <v>3336400</v>
       </c>
       <c r="H27" s="3">
-        <v>1853000</v>
+        <v>1504900</v>
       </c>
       <c r="I27" s="3">
-        <v>2133600</v>
+        <v>2163400</v>
       </c>
       <c r="J27" s="3">
-        <v>1590800</v>
+        <v>1605500</v>
       </c>
       <c r="K27" s="3">
         <v>2646400</v>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>245300</v>
+        <v>247600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5282100</v>
+        <v>5331100</v>
       </c>
       <c r="E33" s="3">
-        <v>4369800</v>
+        <v>4410400</v>
       </c>
       <c r="F33" s="3">
-        <v>4162900</v>
+        <v>4201500</v>
       </c>
       <c r="G33" s="3">
-        <v>3551100</v>
+        <v>3584000</v>
       </c>
       <c r="H33" s="3">
-        <v>1853000</v>
+        <v>1504900</v>
       </c>
       <c r="I33" s="3">
-        <v>2133600</v>
+        <v>2163400</v>
       </c>
       <c r="J33" s="3">
-        <v>1590800</v>
+        <v>1605500</v>
       </c>
       <c r="K33" s="3">
         <v>2649500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5282100</v>
+        <v>5331100</v>
       </c>
       <c r="E35" s="3">
-        <v>4369800</v>
+        <v>4410400</v>
       </c>
       <c r="F35" s="3">
-        <v>4162900</v>
+        <v>4201500</v>
       </c>
       <c r="G35" s="3">
-        <v>3551100</v>
+        <v>3584000</v>
       </c>
       <c r="H35" s="3">
-        <v>1853000</v>
+        <v>1504900</v>
       </c>
       <c r="I35" s="3">
-        <v>2133600</v>
+        <v>2163400</v>
       </c>
       <c r="J35" s="3">
-        <v>1590800</v>
+        <v>1605500</v>
       </c>
       <c r="K35" s="3">
         <v>2649500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17321500</v>
+        <v>17482100</v>
       </c>
       <c r="E41" s="3">
-        <v>20060700</v>
+        <v>20246700</v>
       </c>
       <c r="F41" s="3">
-        <v>15562800</v>
+        <v>15707100</v>
       </c>
       <c r="G41" s="3">
-        <v>12431100</v>
+        <v>12546400</v>
       </c>
       <c r="H41" s="3">
-        <v>12239400</v>
+        <v>12352900</v>
       </c>
       <c r="I41" s="3">
-        <v>11615400</v>
+        <v>11723100</v>
       </c>
       <c r="J41" s="3">
-        <v>13711400</v>
+        <v>13838500</v>
       </c>
       <c r="K41" s="3">
         <v>16548100</v>
@@ -1902,13 +1902,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>992000</v>
+        <v>1001200</v>
       </c>
       <c r="E43" s="3">
-        <v>1107000</v>
+        <v>1117300</v>
       </c>
       <c r="F43" s="3">
-        <v>1061800</v>
+        <v>1071600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>310109000</v>
+        <v>312985000</v>
       </c>
       <c r="E47" s="3">
-        <v>295011000</v>
+        <v>297747000</v>
       </c>
       <c r="F47" s="3">
-        <v>274631000</v>
+        <v>277178000</v>
       </c>
       <c r="G47" s="3">
-        <v>258702000</v>
+        <v>261101000</v>
       </c>
       <c r="H47" s="3">
-        <v>243989000</v>
+        <v>246251000</v>
       </c>
       <c r="I47" s="3">
-        <v>235142000</v>
+        <v>237323000</v>
       </c>
       <c r="J47" s="3">
-        <v>223385000</v>
+        <v>225457000</v>
       </c>
       <c r="K47" s="3">
         <v>194874000</v>
@@ -2103,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>292100</v>
+        <v>294800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7601200</v>
+        <v>7671700</v>
       </c>
       <c r="E49" s="3">
-        <v>7612000</v>
+        <v>7682600</v>
       </c>
       <c r="F49" s="3">
-        <v>7647200</v>
+        <v>7718200</v>
       </c>
       <c r="G49" s="3">
-        <v>7740800</v>
+        <v>7812600</v>
       </c>
       <c r="H49" s="3">
-        <v>7543700</v>
+        <v>7613700</v>
       </c>
       <c r="I49" s="3">
-        <v>7748400</v>
+        <v>7820300</v>
       </c>
       <c r="J49" s="3">
-        <v>7194100</v>
+        <v>7260900</v>
       </c>
       <c r="K49" s="3">
         <v>4287200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4027900</v>
+        <v>4065300</v>
       </c>
       <c r="E52" s="3">
-        <v>3712100</v>
+        <v>3746500</v>
       </c>
       <c r="F52" s="3">
-        <v>3506600</v>
+        <v>3539100</v>
       </c>
       <c r="G52" s="3">
-        <v>3310400</v>
+        <v>3341100</v>
       </c>
       <c r="H52" s="3">
-        <v>3502800</v>
+        <v>3535300</v>
       </c>
       <c r="I52" s="3">
-        <v>3403100</v>
+        <v>3434700</v>
       </c>
       <c r="J52" s="3">
-        <v>3117900</v>
+        <v>3146800</v>
       </c>
       <c r="K52" s="3">
         <v>2613400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>703502000</v>
+        <v>710026000</v>
       </c>
       <c r="E54" s="3">
-        <v>674911000</v>
+        <v>681170000</v>
       </c>
       <c r="F54" s="3">
-        <v>620311000</v>
+        <v>626064000</v>
       </c>
       <c r="G54" s="3">
-        <v>575188000</v>
+        <v>580522000</v>
       </c>
       <c r="H54" s="3">
-        <v>559289000</v>
+        <v>564476000</v>
       </c>
       <c r="I54" s="3">
-        <v>552503000</v>
+        <v>557627000</v>
       </c>
       <c r="J54" s="3">
-        <v>540208000</v>
+        <v>545218000</v>
       </c>
       <c r="K54" s="3">
         <v>454863000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>334070000</v>
+        <v>337169000</v>
       </c>
       <c r="E59" s="3">
-        <v>309033000</v>
+        <v>311899000</v>
       </c>
       <c r="F59" s="3">
-        <v>290155000</v>
+        <v>292846000</v>
       </c>
       <c r="G59" s="3">
-        <v>265777000</v>
+        <v>268241000</v>
       </c>
       <c r="H59" s="3">
-        <v>272177000</v>
+        <v>274701000</v>
       </c>
       <c r="I59" s="3">
-        <v>265096000</v>
+        <v>267554000</v>
       </c>
       <c r="J59" s="3">
-        <v>263628000</v>
+        <v>266073000</v>
       </c>
       <c r="K59" s="3">
         <v>223771000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9093900</v>
+        <v>9178200</v>
       </c>
       <c r="E61" s="3">
-        <v>10727600</v>
+        <v>10827100</v>
       </c>
       <c r="F61" s="3">
-        <v>9255600</v>
+        <v>9341500</v>
       </c>
       <c r="G61" s="3">
-        <v>10350400</v>
+        <v>10446400</v>
       </c>
       <c r="H61" s="3">
-        <v>10098200</v>
+        <v>10191800</v>
       </c>
       <c r="I61" s="3">
-        <v>9871300</v>
+        <v>9962800</v>
       </c>
       <c r="J61" s="3">
-        <v>7319900</v>
+        <v>7387800</v>
       </c>
       <c r="K61" s="3">
         <v>7309600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2122800</v>
+        <v>2142500</v>
       </c>
       <c r="E62" s="3">
-        <v>2004000</v>
+        <v>2022600</v>
       </c>
       <c r="F62" s="3">
-        <v>1511800</v>
+        <v>1525800</v>
       </c>
       <c r="G62" s="3">
-        <v>1390700</v>
+        <v>1403600</v>
       </c>
       <c r="H62" s="3">
-        <v>982100</v>
+        <v>991200</v>
       </c>
       <c r="I62" s="3">
-        <v>1041900</v>
+        <v>1051500</v>
       </c>
       <c r="J62" s="3">
-        <v>946800</v>
+        <v>955600</v>
       </c>
       <c r="K62" s="3">
         <v>964000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>659669000</v>
+        <v>665787000</v>
       </c>
       <c r="E66" s="3">
-        <v>635390000</v>
+        <v>641283000</v>
       </c>
       <c r="F66" s="3">
-        <v>582827000</v>
+        <v>588232000</v>
       </c>
       <c r="G66" s="3">
-        <v>539878000</v>
+        <v>544885000</v>
       </c>
       <c r="H66" s="3">
-        <v>527678000</v>
+        <v>532571000</v>
       </c>
       <c r="I66" s="3">
-        <v>520243000</v>
+        <v>525068000</v>
       </c>
       <c r="J66" s="3">
-        <v>508510000</v>
+        <v>513226000</v>
       </c>
       <c r="K66" s="3">
         <v>428593000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4891900</v>
+        <v>4937300</v>
       </c>
       <c r="E70" s="3">
-        <v>2930100</v>
+        <v>2957300</v>
       </c>
       <c r="F70" s="3">
-        <v>2930100</v>
+        <v>2957300</v>
       </c>
       <c r="G70" s="3">
-        <v>2930100</v>
+        <v>2957300</v>
       </c>
       <c r="H70" s="3">
-        <v>2742300</v>
+        <v>2767700</v>
       </c>
       <c r="I70" s="3">
-        <v>2742300</v>
+        <v>2767700</v>
       </c>
       <c r="J70" s="3">
-        <v>2064600</v>
+        <v>2083700</v>
       </c>
       <c r="K70" s="3">
         <v>2114100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18009900</v>
+        <v>18176900</v>
       </c>
       <c r="E72" s="3">
-        <v>14479500</v>
+        <v>14613800</v>
       </c>
       <c r="F72" s="3">
-        <v>11873700</v>
+        <v>11983800</v>
       </c>
       <c r="G72" s="3">
-        <v>9739400</v>
+        <v>9829700</v>
       </c>
       <c r="H72" s="3">
-        <v>7730000</v>
+        <v>7801700</v>
       </c>
       <c r="I72" s="3">
-        <v>7481600</v>
+        <v>7551000</v>
       </c>
       <c r="J72" s="3">
-        <v>6438200</v>
+        <v>6498000</v>
       </c>
       <c r="K72" s="3">
         <v>5985200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38940700</v>
+        <v>39301900</v>
       </c>
       <c r="E76" s="3">
-        <v>36591000</v>
+        <v>36930300</v>
       </c>
       <c r="F76" s="3">
-        <v>34554800</v>
+        <v>34875200</v>
       </c>
       <c r="G76" s="3">
-        <v>32379800</v>
+        <v>32680100</v>
       </c>
       <c r="H76" s="3">
-        <v>28869300</v>
+        <v>29137100</v>
       </c>
       <c r="I76" s="3">
-        <v>29517900</v>
+        <v>29791700</v>
       </c>
       <c r="J76" s="3">
-        <v>29632900</v>
+        <v>29907800</v>
       </c>
       <c r="K76" s="3">
         <v>24155200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5282100</v>
+        <v>5331100</v>
       </c>
       <c r="E81" s="3">
-        <v>4369800</v>
+        <v>4410400</v>
       </c>
       <c r="F81" s="3">
-        <v>4162900</v>
+        <v>4201500</v>
       </c>
       <c r="G81" s="3">
-        <v>3551100</v>
+        <v>3584000</v>
       </c>
       <c r="H81" s="3">
-        <v>1853000</v>
+        <v>1504900</v>
       </c>
       <c r="I81" s="3">
-        <v>2133600</v>
+        <v>2163400</v>
       </c>
       <c r="J81" s="3">
-        <v>1590800</v>
+        <v>1605500</v>
       </c>
       <c r="K81" s="3">
         <v>2649500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>405600</v>
+        <v>409300</v>
       </c>
       <c r="E83" s="3">
-        <v>502900</v>
+        <v>507600</v>
       </c>
       <c r="F83" s="3">
-        <v>479900</v>
+        <v>484400</v>
       </c>
       <c r="G83" s="3">
-        <v>572700</v>
+        <v>578000</v>
       </c>
       <c r="H83" s="3">
-        <v>429300</v>
+        <v>433300</v>
       </c>
       <c r="I83" s="3">
-        <v>531300</v>
+        <v>536200</v>
       </c>
       <c r="J83" s="3">
-        <v>444700</v>
+        <v>448800</v>
       </c>
       <c r="K83" s="3">
         <v>362700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17751500</v>
+        <v>17916200</v>
       </c>
       <c r="E89" s="3">
-        <v>15369600</v>
+        <v>15512100</v>
       </c>
       <c r="F89" s="3">
-        <v>15748300</v>
+        <v>15894400</v>
       </c>
       <c r="G89" s="3">
-        <v>14710300</v>
+        <v>14846700</v>
       </c>
       <c r="H89" s="3">
-        <v>13639300</v>
+        <v>13765800</v>
       </c>
       <c r="I89" s="3">
-        <v>13060500</v>
+        <v>13181600</v>
       </c>
       <c r="J89" s="3">
-        <v>7922500</v>
+        <v>7995900</v>
       </c>
       <c r="K89" s="3">
         <v>8483300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18738200</v>
+        <v>-18912000</v>
       </c>
       <c r="E94" s="3">
-        <v>-10846400</v>
+        <v>-10947000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10602600</v>
+        <v>-10701000</v>
       </c>
       <c r="G94" s="3">
-        <v>-14567700</v>
+        <v>-14702800</v>
       </c>
       <c r="H94" s="3">
-        <v>-12486300</v>
+        <v>-12602100</v>
       </c>
       <c r="I94" s="3">
-        <v>-17432600</v>
+        <v>-17594300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10629500</v>
+        <v>-10728000</v>
       </c>
       <c r="K94" s="3">
         <v>-3192000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1916600</v>
+        <v>-1934400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1793900</v>
+        <v>-1810600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1071800</v>
+        <v>-1081700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1370800</v>
+        <v>-1383500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1364600</v>
+        <v>-1377300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1221300</v>
+        <v>-1232600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1094000</v>
+        <v>-1104100</v>
       </c>
       <c r="K96" s="3">
         <v>-714400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1569300</v>
+        <v>-1583900</v>
       </c>
       <c r="E100" s="3">
-        <v>508300</v>
+        <v>513000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1594600</v>
+        <v>-1609400</v>
       </c>
       <c r="G100" s="3">
-        <v>-555000</v>
+        <v>-560200</v>
       </c>
       <c r="H100" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I100" s="3">
-        <v>2519200</v>
+        <v>2542500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1537900</v>
+        <v>-1552100</v>
       </c>
       <c r="K100" s="3">
         <v>16500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-244600</v>
+        <v>-246800</v>
       </c>
       <c r="E101" s="3">
-        <v>-404800</v>
+        <v>-408500</v>
       </c>
       <c r="F101" s="3">
-        <v>-357300</v>
+        <v>-360600</v>
       </c>
       <c r="G101" s="3">
-        <v>630200</v>
+        <v>636000</v>
       </c>
       <c r="H101" s="3">
-        <v>-504400</v>
+        <v>-509100</v>
       </c>
       <c r="I101" s="3">
-        <v>-266000</v>
+        <v>-268500</v>
       </c>
       <c r="J101" s="3">
-        <v>1611500</v>
+        <v>1626400</v>
       </c>
       <c r="K101" s="3">
         <v>620200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2800500</v>
+        <v>-2826500</v>
       </c>
       <c r="E102" s="3">
-        <v>4626700</v>
+        <v>4669600</v>
       </c>
       <c r="F102" s="3">
-        <v>3193800</v>
+        <v>3223400</v>
       </c>
       <c r="G102" s="3">
-        <v>217700</v>
+        <v>219700</v>
       </c>
       <c r="H102" s="3">
-        <v>659300</v>
+        <v>665400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2119000</v>
+        <v>-2138600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2633400</v>
+        <v>-2657800</v>
       </c>
       <c r="K102" s="3">
         <v>5927900</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43275100</v>
+        <v>41994800</v>
       </c>
       <c r="E8" s="3">
-        <v>57542200</v>
+        <v>55840000</v>
       </c>
       <c r="F8" s="3">
-        <v>60214800</v>
+        <v>58433400</v>
       </c>
       <c r="G8" s="3">
-        <v>28833000</v>
+        <v>27980000</v>
       </c>
       <c r="H8" s="3">
-        <v>45127400</v>
+        <v>43792400</v>
       </c>
       <c r="I8" s="3">
-        <v>41269500</v>
+        <v>40048600</v>
       </c>
       <c r="J8" s="3">
-        <v>25390600</v>
+        <v>24639500</v>
       </c>
       <c r="K8" s="3">
         <v>42697300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31882400</v>
+        <v>30939200</v>
       </c>
       <c r="E9" s="3">
-        <v>46322100</v>
+        <v>44951700</v>
       </c>
       <c r="F9" s="3">
-        <v>47015400</v>
+        <v>45624500</v>
       </c>
       <c r="G9" s="3">
-        <v>15705600</v>
+        <v>15241000</v>
       </c>
       <c r="H9" s="3">
-        <v>34301900</v>
+        <v>33287100</v>
       </c>
       <c r="I9" s="3">
-        <v>30053200</v>
+        <v>29164200</v>
       </c>
       <c r="J9" s="3">
-        <v>16566800</v>
+        <v>16076700</v>
       </c>
       <c r="K9" s="3">
         <v>32633000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11392700</v>
+        <v>11055700</v>
       </c>
       <c r="E10" s="3">
-        <v>11220100</v>
+        <v>10888200</v>
       </c>
       <c r="F10" s="3">
-        <v>13199400</v>
+        <v>12808900</v>
       </c>
       <c r="G10" s="3">
-        <v>13127400</v>
+        <v>12739100</v>
       </c>
       <c r="H10" s="3">
-        <v>10825500</v>
+        <v>10505300</v>
       </c>
       <c r="I10" s="3">
-        <v>11216300</v>
+        <v>10884500</v>
       </c>
       <c r="J10" s="3">
-        <v>8823800</v>
+        <v>8562800</v>
       </c>
       <c r="K10" s="3">
         <v>10064300</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="E14" s="3">
-        <v>543900</v>
+        <v>527900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36206100</v>
+        <v>35135000</v>
       </c>
       <c r="E17" s="3">
-        <v>51389400</v>
+        <v>49869100</v>
       </c>
       <c r="F17" s="3">
-        <v>54381500</v>
+        <v>52772700</v>
       </c>
       <c r="G17" s="3">
-        <v>23576200</v>
+        <v>22878700</v>
       </c>
       <c r="H17" s="3">
-        <v>42311000</v>
+        <v>41059300</v>
       </c>
       <c r="I17" s="3">
-        <v>37909900</v>
+        <v>36788400</v>
       </c>
       <c r="J17" s="3">
-        <v>22513000</v>
+        <v>21847000</v>
       </c>
       <c r="K17" s="3">
         <v>38462000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7069000</v>
+        <v>6859900</v>
       </c>
       <c r="E18" s="3">
-        <v>6152900</v>
+        <v>5970800</v>
       </c>
       <c r="F18" s="3">
-        <v>5833300</v>
+        <v>5660700</v>
       </c>
       <c r="G18" s="3">
-        <v>5256900</v>
+        <v>5101300</v>
       </c>
       <c r="H18" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="I18" s="3">
-        <v>3359600</v>
+        <v>3260200</v>
       </c>
       <c r="J18" s="3">
-        <v>2877600</v>
+        <v>2792400</v>
       </c>
       <c r="K18" s="3">
         <v>4235300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7477000</v>
+        <v>7251000</v>
       </c>
       <c r="E21" s="3">
-        <v>6658800</v>
+        <v>6455800</v>
       </c>
       <c r="F21" s="3">
-        <v>6316100</v>
+        <v>6123500</v>
       </c>
       <c r="G21" s="3">
-        <v>5833000</v>
+        <v>5653600</v>
       </c>
       <c r="H21" s="3">
-        <v>3248400</v>
+        <v>3147100</v>
       </c>
       <c r="I21" s="3">
-        <v>3894100</v>
+        <v>3772600</v>
       </c>
       <c r="J21" s="3">
-        <v>3324900</v>
+        <v>3221300</v>
       </c>
       <c r="K21" s="3">
         <v>4596700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>782300</v>
+        <v>759100</v>
       </c>
       <c r="E22" s="3">
-        <v>913800</v>
+        <v>886800</v>
       </c>
       <c r="F22" s="3">
-        <v>1020600</v>
+        <v>990400</v>
       </c>
       <c r="G22" s="3">
-        <v>986500</v>
+        <v>957300</v>
       </c>
       <c r="H22" s="3">
-        <v>881300</v>
+        <v>855200</v>
       </c>
       <c r="I22" s="3">
-        <v>783800</v>
+        <v>760600</v>
       </c>
       <c r="J22" s="3">
-        <v>851900</v>
+        <v>826700</v>
       </c>
       <c r="K22" s="3">
         <v>887900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6286700</v>
+        <v>6100700</v>
       </c>
       <c r="E23" s="3">
-        <v>5239100</v>
+        <v>5084100</v>
       </c>
       <c r="F23" s="3">
-        <v>4812700</v>
+        <v>4670300</v>
       </c>
       <c r="G23" s="3">
-        <v>4270300</v>
+        <v>4144000</v>
       </c>
       <c r="H23" s="3">
-        <v>1935100</v>
+        <v>1877900</v>
       </c>
       <c r="I23" s="3">
-        <v>2575800</v>
+        <v>2499600</v>
       </c>
       <c r="J23" s="3">
-        <v>2025700</v>
+        <v>1965800</v>
       </c>
       <c r="K23" s="3">
         <v>3347500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>938600</v>
+        <v>910800</v>
       </c>
       <c r="E24" s="3">
-        <v>924600</v>
+        <v>897300</v>
       </c>
       <c r="F24" s="3">
-        <v>555600</v>
+        <v>539100</v>
       </c>
       <c r="G24" s="3">
-        <v>736600</v>
+        <v>714800</v>
       </c>
       <c r="H24" s="3">
-        <v>184900</v>
+        <v>179500</v>
       </c>
       <c r="I24" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="J24" s="3">
-        <v>253800</v>
+        <v>246300</v>
       </c>
       <c r="K24" s="3">
         <v>529900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5348200</v>
+        <v>5189900</v>
       </c>
       <c r="E26" s="3">
-        <v>4314400</v>
+        <v>4186800</v>
       </c>
       <c r="F26" s="3">
-        <v>4257200</v>
+        <v>4131200</v>
       </c>
       <c r="G26" s="3">
-        <v>3533700</v>
+        <v>3429200</v>
       </c>
       <c r="H26" s="3">
-        <v>1750200</v>
+        <v>1698400</v>
       </c>
       <c r="I26" s="3">
-        <v>2424200</v>
+        <v>2352400</v>
       </c>
       <c r="J26" s="3">
-        <v>1771900</v>
+        <v>1719500</v>
       </c>
       <c r="K26" s="3">
         <v>2817500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5331100</v>
+        <v>5173400</v>
       </c>
       <c r="E27" s="3">
-        <v>4410400</v>
+        <v>4279900</v>
       </c>
       <c r="F27" s="3">
-        <v>4201500</v>
+        <v>4077200</v>
       </c>
       <c r="G27" s="3">
-        <v>3336400</v>
+        <v>3237700</v>
       </c>
       <c r="H27" s="3">
-        <v>1504900</v>
+        <v>1460400</v>
       </c>
       <c r="I27" s="3">
-        <v>2163400</v>
+        <v>2099400</v>
       </c>
       <c r="J27" s="3">
-        <v>1605500</v>
+        <v>1558000</v>
       </c>
       <c r="K27" s="3">
         <v>2646400</v>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>247600</v>
+        <v>240300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5331100</v>
+        <v>5173400</v>
       </c>
       <c r="E33" s="3">
-        <v>4410400</v>
+        <v>4279900</v>
       </c>
       <c r="F33" s="3">
-        <v>4201500</v>
+        <v>4077200</v>
       </c>
       <c r="G33" s="3">
-        <v>3584000</v>
+        <v>3478000</v>
       </c>
       <c r="H33" s="3">
-        <v>1504900</v>
+        <v>1460400</v>
       </c>
       <c r="I33" s="3">
-        <v>2163400</v>
+        <v>2099400</v>
       </c>
       <c r="J33" s="3">
-        <v>1605500</v>
+        <v>1558000</v>
       </c>
       <c r="K33" s="3">
         <v>2649500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5331100</v>
+        <v>5173400</v>
       </c>
       <c r="E35" s="3">
-        <v>4410400</v>
+        <v>4279900</v>
       </c>
       <c r="F35" s="3">
-        <v>4201500</v>
+        <v>4077200</v>
       </c>
       <c r="G35" s="3">
-        <v>3584000</v>
+        <v>3478000</v>
       </c>
       <c r="H35" s="3">
-        <v>1504900</v>
+        <v>1460400</v>
       </c>
       <c r="I35" s="3">
-        <v>2163400</v>
+        <v>2099400</v>
       </c>
       <c r="J35" s="3">
-        <v>1605500</v>
+        <v>1558000</v>
       </c>
       <c r="K35" s="3">
         <v>2649500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17482100</v>
+        <v>16964900</v>
       </c>
       <c r="E41" s="3">
-        <v>20246700</v>
+        <v>19647800</v>
       </c>
       <c r="F41" s="3">
-        <v>15707100</v>
+        <v>15242500</v>
       </c>
       <c r="G41" s="3">
-        <v>12546400</v>
+        <v>12175200</v>
       </c>
       <c r="H41" s="3">
-        <v>12352900</v>
+        <v>11987500</v>
       </c>
       <c r="I41" s="3">
-        <v>11723100</v>
+        <v>11376300</v>
       </c>
       <c r="J41" s="3">
-        <v>13838500</v>
+        <v>13429100</v>
       </c>
       <c r="K41" s="3">
         <v>16548100</v>
@@ -1902,13 +1902,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1001200</v>
+        <v>971600</v>
       </c>
       <c r="E43" s="3">
-        <v>1117300</v>
+        <v>1084200</v>
       </c>
       <c r="F43" s="3">
-        <v>1071600</v>
+        <v>1039900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>312985000</v>
+        <v>303726000</v>
       </c>
       <c r="E47" s="3">
-        <v>297747000</v>
+        <v>288938000</v>
       </c>
       <c r="F47" s="3">
-        <v>277178000</v>
+        <v>268978000</v>
       </c>
       <c r="G47" s="3">
-        <v>261101000</v>
+        <v>253377000</v>
       </c>
       <c r="H47" s="3">
-        <v>246251000</v>
+        <v>238967000</v>
       </c>
       <c r="I47" s="3">
-        <v>237323000</v>
+        <v>230302000</v>
       </c>
       <c r="J47" s="3">
-        <v>225457000</v>
+        <v>218787000</v>
       </c>
       <c r="K47" s="3">
         <v>194874000</v>
@@ -2103,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>294800</v>
+        <v>286100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7671700</v>
+        <v>7444800</v>
       </c>
       <c r="E49" s="3">
-        <v>7682600</v>
+        <v>7455300</v>
       </c>
       <c r="F49" s="3">
-        <v>7718200</v>
+        <v>7489800</v>
       </c>
       <c r="G49" s="3">
-        <v>7812600</v>
+        <v>7581400</v>
       </c>
       <c r="H49" s="3">
-        <v>7613700</v>
+        <v>7388500</v>
       </c>
       <c r="I49" s="3">
-        <v>7820300</v>
+        <v>7588900</v>
       </c>
       <c r="J49" s="3">
-        <v>7260900</v>
+        <v>7046100</v>
       </c>
       <c r="K49" s="3">
         <v>4287200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4065300</v>
+        <v>3945000</v>
       </c>
       <c r="E52" s="3">
-        <v>3746500</v>
+        <v>3635700</v>
       </c>
       <c r="F52" s="3">
-        <v>3539100</v>
+        <v>3434400</v>
       </c>
       <c r="G52" s="3">
-        <v>3341100</v>
+        <v>3242200</v>
       </c>
       <c r="H52" s="3">
-        <v>3535300</v>
+        <v>3430700</v>
       </c>
       <c r="I52" s="3">
-        <v>3434700</v>
+        <v>3333100</v>
       </c>
       <c r="J52" s="3">
-        <v>3146800</v>
+        <v>3053700</v>
       </c>
       <c r="K52" s="3">
         <v>2613400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>710026000</v>
+        <v>689021000</v>
       </c>
       <c r="E54" s="3">
-        <v>681170000</v>
+        <v>661019000</v>
       </c>
       <c r="F54" s="3">
-        <v>626064000</v>
+        <v>607543000</v>
       </c>
       <c r="G54" s="3">
-        <v>580522000</v>
+        <v>563349000</v>
       </c>
       <c r="H54" s="3">
-        <v>564476000</v>
+        <v>547777000</v>
       </c>
       <c r="I54" s="3">
-        <v>557627000</v>
+        <v>541131000</v>
       </c>
       <c r="J54" s="3">
-        <v>545218000</v>
+        <v>529088000</v>
       </c>
       <c r="K54" s="3">
         <v>454863000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>337169000</v>
+        <v>327194000</v>
       </c>
       <c r="E59" s="3">
-        <v>311899000</v>
+        <v>302672000</v>
       </c>
       <c r="F59" s="3">
-        <v>292846000</v>
+        <v>284183000</v>
       </c>
       <c r="G59" s="3">
-        <v>268241000</v>
+        <v>260306000</v>
       </c>
       <c r="H59" s="3">
-        <v>274701000</v>
+        <v>266575000</v>
       </c>
       <c r="I59" s="3">
-        <v>267554000</v>
+        <v>259639000</v>
       </c>
       <c r="J59" s="3">
-        <v>266073000</v>
+        <v>258201000</v>
       </c>
       <c r="K59" s="3">
         <v>223771000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9178200</v>
+        <v>8906700</v>
       </c>
       <c r="E61" s="3">
-        <v>10827100</v>
+        <v>10506800</v>
       </c>
       <c r="F61" s="3">
-        <v>9341500</v>
+        <v>9065100</v>
       </c>
       <c r="G61" s="3">
-        <v>10446400</v>
+        <v>10137400</v>
       </c>
       <c r="H61" s="3">
-        <v>10191800</v>
+        <v>9890300</v>
       </c>
       <c r="I61" s="3">
-        <v>9962800</v>
+        <v>9668100</v>
       </c>
       <c r="J61" s="3">
-        <v>7387800</v>
+        <v>7169200</v>
       </c>
       <c r="K61" s="3">
         <v>7309600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2142500</v>
+        <v>2079100</v>
       </c>
       <c r="E62" s="3">
-        <v>2022600</v>
+        <v>1962700</v>
       </c>
       <c r="F62" s="3">
-        <v>1525800</v>
+        <v>1480700</v>
       </c>
       <c r="G62" s="3">
-        <v>1403600</v>
+        <v>1362100</v>
       </c>
       <c r="H62" s="3">
-        <v>991200</v>
+        <v>961900</v>
       </c>
       <c r="I62" s="3">
-        <v>1051500</v>
+        <v>1020400</v>
       </c>
       <c r="J62" s="3">
-        <v>955600</v>
+        <v>927300</v>
       </c>
       <c r="K62" s="3">
         <v>964000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>665787000</v>
+        <v>646091000</v>
       </c>
       <c r="E66" s="3">
-        <v>641283000</v>
+        <v>622311000</v>
       </c>
       <c r="F66" s="3">
-        <v>588232000</v>
+        <v>570830000</v>
       </c>
       <c r="G66" s="3">
-        <v>544885000</v>
+        <v>528765000</v>
       </c>
       <c r="H66" s="3">
-        <v>532571000</v>
+        <v>516816000</v>
       </c>
       <c r="I66" s="3">
-        <v>525068000</v>
+        <v>509534000</v>
       </c>
       <c r="J66" s="3">
-        <v>513226000</v>
+        <v>498043000</v>
       </c>
       <c r="K66" s="3">
         <v>428593000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4937300</v>
+        <v>4791200</v>
       </c>
       <c r="E70" s="3">
-        <v>2957300</v>
+        <v>2869800</v>
       </c>
       <c r="F70" s="3">
-        <v>2957300</v>
+        <v>2869800</v>
       </c>
       <c r="G70" s="3">
-        <v>2957300</v>
+        <v>2869800</v>
       </c>
       <c r="H70" s="3">
-        <v>2767700</v>
+        <v>2685800</v>
       </c>
       <c r="I70" s="3">
-        <v>2767700</v>
+        <v>2685800</v>
       </c>
       <c r="J70" s="3">
-        <v>2083700</v>
+        <v>2022100</v>
       </c>
       <c r="K70" s="3">
         <v>2114100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18176900</v>
+        <v>17639200</v>
       </c>
       <c r="E72" s="3">
-        <v>14613800</v>
+        <v>14181500</v>
       </c>
       <c r="F72" s="3">
-        <v>11983800</v>
+        <v>11629300</v>
       </c>
       <c r="G72" s="3">
-        <v>9829700</v>
+        <v>9538900</v>
       </c>
       <c r="H72" s="3">
-        <v>7801700</v>
+        <v>7570900</v>
       </c>
       <c r="I72" s="3">
-        <v>7551000</v>
+        <v>7327600</v>
       </c>
       <c r="J72" s="3">
-        <v>6498000</v>
+        <v>6305700</v>
       </c>
       <c r="K72" s="3">
         <v>5985200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39301900</v>
+        <v>38139200</v>
       </c>
       <c r="E76" s="3">
-        <v>36930300</v>
+        <v>35837800</v>
       </c>
       <c r="F76" s="3">
-        <v>34875200</v>
+        <v>33843500</v>
       </c>
       <c r="G76" s="3">
-        <v>32680100</v>
+        <v>31713300</v>
       </c>
       <c r="H76" s="3">
-        <v>29137100</v>
+        <v>28275200</v>
       </c>
       <c r="I76" s="3">
-        <v>29791700</v>
+        <v>28910400</v>
       </c>
       <c r="J76" s="3">
-        <v>29907800</v>
+        <v>29023000</v>
       </c>
       <c r="K76" s="3">
         <v>24155200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5331100</v>
+        <v>5173400</v>
       </c>
       <c r="E81" s="3">
-        <v>4410400</v>
+        <v>4279900</v>
       </c>
       <c r="F81" s="3">
-        <v>4201500</v>
+        <v>4077200</v>
       </c>
       <c r="G81" s="3">
-        <v>3584000</v>
+        <v>3478000</v>
       </c>
       <c r="H81" s="3">
-        <v>1504900</v>
+        <v>1460400</v>
       </c>
       <c r="I81" s="3">
-        <v>2163400</v>
+        <v>2099400</v>
       </c>
       <c r="J81" s="3">
-        <v>1605500</v>
+        <v>1558000</v>
       </c>
       <c r="K81" s="3">
         <v>2649500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409300</v>
+        <v>397200</v>
       </c>
       <c r="E83" s="3">
-        <v>507600</v>
+        <v>492600</v>
       </c>
       <c r="F83" s="3">
-        <v>484400</v>
+        <v>470000</v>
       </c>
       <c r="G83" s="3">
-        <v>578000</v>
+        <v>560900</v>
       </c>
       <c r="H83" s="3">
-        <v>433300</v>
+        <v>420500</v>
       </c>
       <c r="I83" s="3">
-        <v>536200</v>
+        <v>520300</v>
       </c>
       <c r="J83" s="3">
-        <v>448800</v>
+        <v>435500</v>
       </c>
       <c r="K83" s="3">
         <v>362700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17916200</v>
+        <v>17386200</v>
       </c>
       <c r="E89" s="3">
-        <v>15512100</v>
+        <v>15053200</v>
       </c>
       <c r="F89" s="3">
-        <v>15894400</v>
+        <v>15424200</v>
       </c>
       <c r="G89" s="3">
-        <v>14846700</v>
+        <v>14407500</v>
       </c>
       <c r="H89" s="3">
-        <v>13765800</v>
+        <v>13358600</v>
       </c>
       <c r="I89" s="3">
-        <v>13181600</v>
+        <v>12791700</v>
       </c>
       <c r="J89" s="3">
-        <v>7995900</v>
+        <v>7759400</v>
       </c>
       <c r="K89" s="3">
         <v>8483300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18912000</v>
+        <v>-18352500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10947000</v>
+        <v>-10623200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10701000</v>
+        <v>-10384400</v>
       </c>
       <c r="G94" s="3">
-        <v>-14702800</v>
+        <v>-14267800</v>
       </c>
       <c r="H94" s="3">
-        <v>-12602100</v>
+        <v>-12229300</v>
       </c>
       <c r="I94" s="3">
-        <v>-17594300</v>
+        <v>-17073800</v>
       </c>
       <c r="J94" s="3">
-        <v>-10728000</v>
+        <v>-10410700</v>
       </c>
       <c r="K94" s="3">
         <v>-3192000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1934400</v>
+        <v>-1877200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1810600</v>
+        <v>-1757000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1081700</v>
+        <v>-1049700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1383500</v>
+        <v>-1342500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1377300</v>
+        <v>-1336500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1232600</v>
+        <v>-1196100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1104100</v>
+        <v>-1071500</v>
       </c>
       <c r="K96" s="3">
         <v>-714400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1583900</v>
+        <v>-1537000</v>
       </c>
       <c r="E100" s="3">
-        <v>513000</v>
+        <v>497800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1609400</v>
+        <v>-1561800</v>
       </c>
       <c r="G100" s="3">
-        <v>-560200</v>
+        <v>-543600</v>
       </c>
       <c r="H100" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="I100" s="3">
-        <v>2542500</v>
+        <v>2467300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1552100</v>
+        <v>-1506200</v>
       </c>
       <c r="K100" s="3">
         <v>16500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-246800</v>
+        <v>-239500</v>
       </c>
       <c r="E101" s="3">
-        <v>-408500</v>
+        <v>-396500</v>
       </c>
       <c r="F101" s="3">
-        <v>-360600</v>
+        <v>-349900</v>
       </c>
       <c r="G101" s="3">
-        <v>636000</v>
+        <v>617200</v>
       </c>
       <c r="H101" s="3">
-        <v>-509100</v>
+        <v>-494100</v>
       </c>
       <c r="I101" s="3">
-        <v>-268500</v>
+        <v>-260500</v>
       </c>
       <c r="J101" s="3">
-        <v>1626400</v>
+        <v>1578300</v>
       </c>
       <c r="K101" s="3">
         <v>620200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2826500</v>
+        <v>-2742900</v>
       </c>
       <c r="E102" s="3">
-        <v>4669600</v>
+        <v>4531400</v>
       </c>
       <c r="F102" s="3">
-        <v>3223400</v>
+        <v>3128100</v>
       </c>
       <c r="G102" s="3">
-        <v>219700</v>
+        <v>213200</v>
       </c>
       <c r="H102" s="3">
-        <v>665400</v>
+        <v>645700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2138600</v>
+        <v>-2075400</v>
       </c>
       <c r="J102" s="3">
-        <v>-2657800</v>
+        <v>-2579200</v>
       </c>
       <c r="K102" s="3">
         <v>5927900</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>MFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41994800</v>
+        <v>8450800</v>
       </c>
       <c r="E8" s="3">
-        <v>55840000</v>
+        <v>40449000</v>
       </c>
       <c r="F8" s="3">
-        <v>58433400</v>
+        <v>53784400</v>
       </c>
       <c r="G8" s="3">
-        <v>27980000</v>
+        <v>56282400</v>
       </c>
       <c r="H8" s="3">
-        <v>43792400</v>
+        <v>26950100</v>
       </c>
       <c r="I8" s="3">
-        <v>40048600</v>
+        <v>42180400</v>
       </c>
       <c r="J8" s="3">
+        <v>38574400</v>
+      </c>
+      <c r="K8" s="3">
         <v>24639500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42697300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14348700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21913700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39166700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30939200</v>
+        <v>-3122900</v>
       </c>
       <c r="E9" s="3">
-        <v>44951700</v>
+        <v>29800300</v>
       </c>
       <c r="F9" s="3">
-        <v>45624500</v>
+        <v>43297000</v>
       </c>
       <c r="G9" s="3">
-        <v>15241000</v>
+        <v>43945000</v>
       </c>
       <c r="H9" s="3">
-        <v>33287100</v>
+        <v>14679900</v>
       </c>
       <c r="I9" s="3">
-        <v>29164200</v>
+        <v>32061800</v>
       </c>
       <c r="J9" s="3">
+        <v>28090600</v>
+      </c>
+      <c r="K9" s="3">
         <v>16076700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32633000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5127800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14975300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32666700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11055700</v>
+        <v>11573700</v>
       </c>
       <c r="E10" s="3">
-        <v>10888200</v>
+        <v>10648700</v>
       </c>
       <c r="F10" s="3">
-        <v>12808900</v>
+        <v>10487400</v>
       </c>
       <c r="G10" s="3">
-        <v>12739100</v>
+        <v>12337400</v>
       </c>
       <c r="H10" s="3">
-        <v>10505300</v>
+        <v>12270200</v>
       </c>
       <c r="I10" s="3">
-        <v>10884500</v>
+        <v>10118600</v>
       </c>
       <c r="J10" s="3">
+        <v>10483800</v>
+      </c>
+      <c r="K10" s="3">
         <v>8562800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10064300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9220900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6938500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6500000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,20 +944,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11300</v>
+        <v>109200</v>
       </c>
       <c r="E14" s="3">
-        <v>527900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-10800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>508400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -952,24 +971,27 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>150600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>510900</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35135000</v>
+        <v>1148500</v>
       </c>
       <c r="E17" s="3">
-        <v>49869100</v>
+        <v>33841600</v>
       </c>
       <c r="F17" s="3">
-        <v>52772700</v>
+        <v>48033400</v>
       </c>
       <c r="G17" s="3">
-        <v>22878700</v>
+        <v>50830100</v>
       </c>
       <c r="H17" s="3">
-        <v>41059300</v>
+        <v>22036500</v>
       </c>
       <c r="I17" s="3">
-        <v>36788400</v>
+        <v>39547800</v>
       </c>
       <c r="J17" s="3">
+        <v>35434200</v>
+      </c>
+      <c r="K17" s="3">
         <v>21847000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38462000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10659700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20274900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38093500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6859900</v>
+        <v>7302400</v>
       </c>
       <c r="E18" s="3">
-        <v>5970800</v>
+        <v>6607300</v>
       </c>
       <c r="F18" s="3">
-        <v>5660700</v>
+        <v>5751000</v>
       </c>
       <c r="G18" s="3">
-        <v>5101300</v>
+        <v>5452400</v>
       </c>
       <c r="H18" s="3">
-        <v>2733100</v>
+        <v>4913600</v>
       </c>
       <c r="I18" s="3">
-        <v>3260200</v>
+        <v>2632500</v>
       </c>
       <c r="J18" s="3">
+        <v>3140200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2792400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4235300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3689000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1638800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1073200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,8 +1148,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,165 +1187,180 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7251000</v>
+        <v>7692100</v>
       </c>
       <c r="E21" s="3">
-        <v>6455800</v>
+        <v>6990600</v>
       </c>
       <c r="F21" s="3">
-        <v>6123500</v>
+        <v>6226300</v>
       </c>
       <c r="G21" s="3">
-        <v>5653600</v>
+        <v>5905800</v>
       </c>
       <c r="H21" s="3">
-        <v>3147100</v>
+        <v>5454700</v>
       </c>
       <c r="I21" s="3">
-        <v>3772600</v>
+        <v>3038200</v>
       </c>
       <c r="J21" s="3">
+        <v>3642300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3221300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4596700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4016300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1932500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1339500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>759100</v>
+        <v>976300</v>
       </c>
       <c r="E22" s="3">
-        <v>886800</v>
+        <v>731200</v>
       </c>
       <c r="F22" s="3">
-        <v>990400</v>
+        <v>854100</v>
       </c>
       <c r="G22" s="3">
-        <v>957300</v>
+        <v>953900</v>
       </c>
       <c r="H22" s="3">
-        <v>855200</v>
+        <v>922100</v>
       </c>
       <c r="I22" s="3">
-        <v>760600</v>
+        <v>823700</v>
       </c>
       <c r="J22" s="3">
+        <v>732600</v>
+      </c>
+      <c r="K22" s="3">
         <v>826700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>887900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>804500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>703100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>959500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6100700</v>
+        <v>6326000</v>
       </c>
       <c r="E23" s="3">
-        <v>5084100</v>
+        <v>5876200</v>
       </c>
       <c r="F23" s="3">
-        <v>4670300</v>
+        <v>4896900</v>
       </c>
       <c r="G23" s="3">
-        <v>4144000</v>
+        <v>4498400</v>
       </c>
       <c r="H23" s="3">
-        <v>1877900</v>
+        <v>3991500</v>
       </c>
       <c r="I23" s="3">
-        <v>2499600</v>
+        <v>1808800</v>
       </c>
       <c r="J23" s="3">
+        <v>2407600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1965800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3347500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2884500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>935700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>113700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>910800</v>
+        <v>1131800</v>
       </c>
       <c r="E24" s="3">
-        <v>897300</v>
+        <v>877300</v>
       </c>
       <c r="F24" s="3">
-        <v>539100</v>
+        <v>864200</v>
       </c>
       <c r="G24" s="3">
-        <v>714800</v>
+        <v>519300</v>
       </c>
       <c r="H24" s="3">
-        <v>179500</v>
+        <v>688500</v>
       </c>
       <c r="I24" s="3">
-        <v>147200</v>
+        <v>172800</v>
       </c>
       <c r="J24" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K24" s="3">
         <v>246300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>529900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>463400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-319200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-74500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5189900</v>
+        <v>5194200</v>
       </c>
       <c r="E26" s="3">
-        <v>4186800</v>
+        <v>4998900</v>
       </c>
       <c r="F26" s="3">
-        <v>4131200</v>
+        <v>4032700</v>
       </c>
       <c r="G26" s="3">
-        <v>3429200</v>
+        <v>3979200</v>
       </c>
       <c r="H26" s="3">
-        <v>1698400</v>
+        <v>3302900</v>
       </c>
       <c r="I26" s="3">
-        <v>2352400</v>
+        <v>1635900</v>
       </c>
       <c r="J26" s="3">
+        <v>2265800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1719500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2817500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2421100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1254900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>188200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5173400</v>
+        <v>5087100</v>
       </c>
       <c r="E27" s="3">
-        <v>4279900</v>
+        <v>4983000</v>
       </c>
       <c r="F27" s="3">
-        <v>4077200</v>
+        <v>4122400</v>
       </c>
       <c r="G27" s="3">
-        <v>3237700</v>
+        <v>3927100</v>
       </c>
       <c r="H27" s="3">
-        <v>1460400</v>
+        <v>3118500</v>
       </c>
       <c r="I27" s="3">
-        <v>2099400</v>
+        <v>1406700</v>
       </c>
       <c r="J27" s="3">
+        <v>2022100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1558000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2646400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2292500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1227000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,10 +1542,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>240300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>231400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1493,21 +1553,24 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>3100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>16200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>51200</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,9 +1649,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1622,48 +1691,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5173400</v>
+        <v>5087100</v>
       </c>
       <c r="E33" s="3">
-        <v>4279900</v>
+        <v>4983000</v>
       </c>
       <c r="F33" s="3">
-        <v>4077200</v>
+        <v>4122400</v>
       </c>
       <c r="G33" s="3">
-        <v>3478000</v>
+        <v>3927100</v>
       </c>
       <c r="H33" s="3">
-        <v>1460400</v>
+        <v>3350000</v>
       </c>
       <c r="I33" s="3">
-        <v>2099400</v>
+        <v>1406700</v>
       </c>
       <c r="J33" s="3">
+        <v>2022100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1558000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2649500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2308700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1278200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5173400</v>
+        <v>5087100</v>
       </c>
       <c r="E35" s="3">
-        <v>4279900</v>
+        <v>4983000</v>
       </c>
       <c r="F35" s="3">
-        <v>4077200</v>
+        <v>4122400</v>
       </c>
       <c r="G35" s="3">
-        <v>3478000</v>
+        <v>3927100</v>
       </c>
       <c r="H35" s="3">
-        <v>1460400</v>
+        <v>3350000</v>
       </c>
       <c r="I35" s="3">
-        <v>2099400</v>
+        <v>1406700</v>
       </c>
       <c r="J35" s="3">
+        <v>2022100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1558000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2649500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2308700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1278200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16964900</v>
+        <v>13851800</v>
       </c>
       <c r="E41" s="3">
-        <v>19647800</v>
+        <v>16340400</v>
       </c>
       <c r="F41" s="3">
-        <v>15242500</v>
+        <v>18924500</v>
       </c>
       <c r="G41" s="3">
-        <v>12175200</v>
+        <v>14681400</v>
       </c>
       <c r="H41" s="3">
-        <v>11987500</v>
+        <v>11727000</v>
       </c>
       <c r="I41" s="3">
-        <v>11376300</v>
+        <v>11546200</v>
       </c>
       <c r="J41" s="3">
+        <v>10957500</v>
+      </c>
+      <c r="K41" s="3">
         <v>13429100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16548100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10492600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10076800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9843300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,23 +1984,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>971600</v>
+        <v>1047200</v>
       </c>
       <c r="E43" s="3">
-        <v>1084200</v>
+        <v>935800</v>
       </c>
       <c r="F43" s="3">
-        <v>1039900</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+        <v>1044300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1001700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -1925,8 +2017,8 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,48 +2152,54 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>303726000</v>
+        <v>285562000</v>
       </c>
       <c r="E47" s="3">
-        <v>288938000</v>
+        <v>292545000</v>
       </c>
       <c r="F47" s="3">
-        <v>268978000</v>
+        <v>278302000</v>
       </c>
       <c r="G47" s="3">
-        <v>253377000</v>
+        <v>259077000</v>
       </c>
       <c r="H47" s="3">
-        <v>238967000</v>
+        <v>244050000</v>
       </c>
       <c r="I47" s="3">
-        <v>230302000</v>
+        <v>230170000</v>
       </c>
       <c r="J47" s="3">
+        <v>221825000</v>
+      </c>
+      <c r="K47" s="3">
         <v>218787000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>194874000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>152474000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>155275000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>148586000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2102,11 +2209,11 @@
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
-        <v>286100</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>275500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -2123,54 +2230,60 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7444800</v>
+        <v>7607600</v>
       </c>
       <c r="E49" s="3">
-        <v>7455300</v>
+        <v>7170700</v>
       </c>
       <c r="F49" s="3">
-        <v>7489800</v>
+        <v>7180900</v>
       </c>
       <c r="G49" s="3">
-        <v>7581400</v>
+        <v>7214100</v>
       </c>
       <c r="H49" s="3">
-        <v>7388500</v>
+        <v>7302400</v>
       </c>
       <c r="I49" s="3">
-        <v>7588900</v>
+        <v>7116500</v>
       </c>
       <c r="J49" s="3">
+        <v>7309600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7046100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4287200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4078500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7698000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4180700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3945000</v>
+        <v>3922000</v>
       </c>
       <c r="E52" s="3">
-        <v>3635700</v>
+        <v>3799800</v>
       </c>
       <c r="F52" s="3">
-        <v>3434400</v>
+        <v>3501800</v>
       </c>
       <c r="G52" s="3">
-        <v>3242200</v>
+        <v>3308000</v>
       </c>
       <c r="H52" s="3">
-        <v>3430700</v>
+        <v>3122900</v>
       </c>
       <c r="I52" s="3">
-        <v>3333100</v>
+        <v>3304400</v>
       </c>
       <c r="J52" s="3">
+        <v>3210400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3053700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2613400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2127000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2391600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1349800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>689021000</v>
+        <v>613971000</v>
       </c>
       <c r="E54" s="3">
-        <v>661019000</v>
+        <v>663658000</v>
       </c>
       <c r="F54" s="3">
-        <v>607543000</v>
+        <v>636686000</v>
       </c>
       <c r="G54" s="3">
-        <v>563349000</v>
+        <v>585179000</v>
       </c>
       <c r="H54" s="3">
-        <v>547777000</v>
+        <v>542611000</v>
       </c>
       <c r="I54" s="3">
-        <v>541131000</v>
+        <v>527613000</v>
       </c>
       <c r="J54" s="3">
+        <v>521211000</v>
+      </c>
+      <c r="K54" s="3">
         <v>529088000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454863000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>395401000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>365102000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354905000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,9 +2566,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>327194000</v>
+        <v>280580000</v>
       </c>
       <c r="E59" s="3">
-        <v>302672000</v>
+        <v>315150000</v>
       </c>
       <c r="F59" s="3">
-        <v>284183000</v>
+        <v>291530000</v>
       </c>
       <c r="G59" s="3">
-        <v>260306000</v>
+        <v>273721000</v>
       </c>
       <c r="H59" s="3">
-        <v>266575000</v>
+        <v>250724000</v>
       </c>
       <c r="I59" s="3">
-        <v>259639000</v>
+        <v>256762000</v>
       </c>
       <c r="J59" s="3">
+        <v>250082000</v>
+      </c>
+      <c r="K59" s="3">
         <v>258201000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>223771000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191862000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>314510000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>296767000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8906700</v>
+        <v>8936100</v>
       </c>
       <c r="E61" s="3">
-        <v>10506800</v>
+        <v>8578800</v>
       </c>
       <c r="F61" s="3">
-        <v>9065100</v>
+        <v>10120000</v>
       </c>
       <c r="G61" s="3">
-        <v>10137400</v>
+        <v>8731400</v>
       </c>
       <c r="H61" s="3">
-        <v>9890300</v>
+        <v>9764200</v>
       </c>
       <c r="I61" s="3">
-        <v>9668100</v>
+        <v>9526300</v>
       </c>
       <c r="J61" s="3">
+        <v>9312200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7169200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7309600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7051600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6736700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13169000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2079100</v>
+        <v>2006200</v>
       </c>
       <c r="E62" s="3">
-        <v>1962700</v>
+        <v>2002600</v>
       </c>
       <c r="F62" s="3">
-        <v>1480700</v>
+        <v>1890500</v>
       </c>
       <c r="G62" s="3">
-        <v>1362100</v>
+        <v>1426200</v>
       </c>
       <c r="H62" s="3">
-        <v>961900</v>
+        <v>1311900</v>
       </c>
       <c r="I62" s="3">
-        <v>1020400</v>
+        <v>926400</v>
       </c>
       <c r="J62" s="3">
+        <v>982900</v>
+      </c>
+      <c r="K62" s="3">
         <v>927300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>964000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>475000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>453900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>588500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>646091000</v>
+        <v>574400000</v>
       </c>
       <c r="E66" s="3">
-        <v>622311000</v>
+        <v>622308000</v>
       </c>
       <c r="F66" s="3">
-        <v>570830000</v>
+        <v>599403000</v>
       </c>
       <c r="G66" s="3">
-        <v>528765000</v>
+        <v>549817000</v>
       </c>
       <c r="H66" s="3">
-        <v>516816000</v>
+        <v>509301000</v>
       </c>
       <c r="I66" s="3">
-        <v>509534000</v>
+        <v>497792000</v>
       </c>
       <c r="J66" s="3">
+        <v>490778000</v>
+      </c>
+      <c r="K66" s="3">
         <v>498043000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>428593000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>373340000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>346389000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>336111000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,48 +3046,54 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4791200</v>
+        <v>4816600</v>
       </c>
       <c r="E70" s="3">
-        <v>2869800</v>
+        <v>4614900</v>
       </c>
       <c r="F70" s="3">
-        <v>2869800</v>
+        <v>2764100</v>
       </c>
       <c r="G70" s="3">
-        <v>2869800</v>
+        <v>2764100</v>
       </c>
       <c r="H70" s="3">
-        <v>2685800</v>
+        <v>2764100</v>
       </c>
       <c r="I70" s="3">
-        <v>2685800</v>
+        <v>2587000</v>
       </c>
       <c r="J70" s="3">
+        <v>2587000</v>
+      </c>
+      <c r="K70" s="3">
         <v>2022100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2114100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2073100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3759400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1392800</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17639200</v>
+        <v>19534200</v>
       </c>
       <c r="E72" s="3">
-        <v>14181500</v>
+        <v>16989900</v>
       </c>
       <c r="F72" s="3">
-        <v>11629300</v>
+        <v>13659500</v>
       </c>
       <c r="G72" s="3">
-        <v>9538900</v>
+        <v>11201200</v>
       </c>
       <c r="H72" s="3">
-        <v>7570900</v>
+        <v>9187800</v>
       </c>
       <c r="I72" s="3">
-        <v>7327600</v>
+        <v>7292200</v>
       </c>
       <c r="J72" s="3">
+        <v>7057900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6305700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5985200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4075400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2451100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1921300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38139200</v>
+        <v>34754400</v>
       </c>
       <c r="E76" s="3">
-        <v>35837800</v>
+        <v>36735200</v>
       </c>
       <c r="F76" s="3">
-        <v>33843500</v>
+        <v>34518600</v>
       </c>
       <c r="G76" s="3">
-        <v>31713300</v>
+        <v>32597700</v>
       </c>
       <c r="H76" s="3">
-        <v>28275200</v>
+        <v>30546000</v>
       </c>
       <c r="I76" s="3">
-        <v>28910400</v>
+        <v>27234300</v>
       </c>
       <c r="J76" s="3">
+        <v>27846100</v>
+      </c>
+      <c r="K76" s="3">
         <v>29023000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24155200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19987600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14953500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17401200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5173400</v>
+        <v>5087100</v>
       </c>
       <c r="E81" s="3">
-        <v>4279900</v>
+        <v>4983000</v>
       </c>
       <c r="F81" s="3">
-        <v>4077200</v>
+        <v>4122400</v>
       </c>
       <c r="G81" s="3">
-        <v>3478000</v>
+        <v>3927100</v>
       </c>
       <c r="H81" s="3">
-        <v>1460400</v>
+        <v>3350000</v>
       </c>
       <c r="I81" s="3">
-        <v>2099400</v>
+        <v>1406700</v>
       </c>
       <c r="J81" s="3">
+        <v>2022100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1558000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2649500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2308700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1278200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>397200</v>
+        <v>389100</v>
       </c>
       <c r="E83" s="3">
-        <v>492600</v>
+        <v>382600</v>
       </c>
       <c r="F83" s="3">
-        <v>470000</v>
+        <v>474400</v>
       </c>
       <c r="G83" s="3">
-        <v>560900</v>
+        <v>452700</v>
       </c>
       <c r="H83" s="3">
-        <v>420500</v>
+        <v>540200</v>
       </c>
       <c r="I83" s="3">
-        <v>520300</v>
+        <v>405000</v>
       </c>
       <c r="J83" s="3">
+        <v>501200</v>
+      </c>
+      <c r="K83" s="3">
         <v>435500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>362700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>327900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>293600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>265000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17386200</v>
+        <v>12826300</v>
       </c>
       <c r="E89" s="3">
-        <v>15053200</v>
+        <v>16746200</v>
       </c>
       <c r="F89" s="3">
-        <v>15424200</v>
+        <v>14499100</v>
       </c>
       <c r="G89" s="3">
-        <v>14407500</v>
+        <v>14856400</v>
       </c>
       <c r="H89" s="3">
-        <v>13358600</v>
+        <v>13877100</v>
       </c>
       <c r="I89" s="3">
-        <v>12791700</v>
+        <v>12866800</v>
       </c>
       <c r="J89" s="3">
+        <v>12320800</v>
+      </c>
+      <c r="K89" s="3">
         <v>7759400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8483300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7315600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8126400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8349100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,8 +3804,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3623,9 +3843,12 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18352500</v>
+        <v>-13459100</v>
       </c>
       <c r="E94" s="3">
-        <v>-10623200</v>
+        <v>-17676900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10384400</v>
+        <v>-10232100</v>
       </c>
       <c r="G94" s="3">
-        <v>-14267800</v>
+        <v>-10002100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12229300</v>
+        <v>-13742600</v>
       </c>
       <c r="I94" s="3">
-        <v>-17073800</v>
+        <v>-11779100</v>
       </c>
       <c r="J94" s="3">
+        <v>-16445300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10410700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3192000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8119300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8156500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8263900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1877200</v>
+        <v>-2015600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1757000</v>
+        <v>-1808100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1049700</v>
+        <v>-1692300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1342500</v>
+        <v>-1011100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1336500</v>
+        <v>-1293100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1196100</v>
+        <v>-1287300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1152100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1071500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-714400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-585800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-551800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-550800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1537000</v>
+        <v>-2173300</v>
       </c>
       <c r="E100" s="3">
-        <v>497800</v>
+        <v>-1480400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1561800</v>
+        <v>479500</v>
       </c>
       <c r="G100" s="3">
-        <v>-543600</v>
+        <v>-1504300</v>
       </c>
       <c r="H100" s="3">
-        <v>10500</v>
+        <v>-523600</v>
       </c>
       <c r="I100" s="3">
-        <v>2467300</v>
+        <v>10100</v>
       </c>
       <c r="J100" s="3">
+        <v>2376500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1506200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>537300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>557100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>503200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-239500</v>
+        <v>423100</v>
       </c>
       <c r="E101" s="3">
-        <v>-396500</v>
+        <v>-230700</v>
       </c>
       <c r="F101" s="3">
-        <v>-349900</v>
+        <v>-381900</v>
       </c>
       <c r="G101" s="3">
-        <v>617200</v>
+        <v>-337000</v>
       </c>
       <c r="H101" s="3">
-        <v>-494100</v>
+        <v>594500</v>
       </c>
       <c r="I101" s="3">
-        <v>-260500</v>
+        <v>-475900</v>
       </c>
       <c r="J101" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1578300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>620200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>368700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-160300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>147500</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2742900</v>
+        <v>-2383000</v>
       </c>
       <c r="E102" s="3">
-        <v>4531400</v>
+        <v>-2641900</v>
       </c>
       <c r="F102" s="3">
-        <v>3128100</v>
+        <v>4364600</v>
       </c>
       <c r="G102" s="3">
-        <v>213200</v>
+        <v>3012900</v>
       </c>
       <c r="H102" s="3">
-        <v>645700</v>
+        <v>205400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2075400</v>
+        <v>622000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1999000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2579200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5927900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>102400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>366600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>736000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8450800</v>
+        <v>8655500</v>
       </c>
       <c r="E8" s="3">
-        <v>40449000</v>
+        <v>41428800</v>
       </c>
       <c r="F8" s="3">
-        <v>53784400</v>
+        <v>55087400</v>
       </c>
       <c r="G8" s="3">
-        <v>56282400</v>
+        <v>57645900</v>
       </c>
       <c r="H8" s="3">
-        <v>26950100</v>
+        <v>27602900</v>
       </c>
       <c r="I8" s="3">
-        <v>42180400</v>
+        <v>43202200</v>
       </c>
       <c r="J8" s="3">
-        <v>38574400</v>
+        <v>39508800</v>
       </c>
       <c r="K8" s="3">
         <v>24639500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-3122900</v>
+        <v>-3198500</v>
       </c>
       <c r="E9" s="3">
-        <v>29800300</v>
+        <v>30522200</v>
       </c>
       <c r="F9" s="3">
-        <v>43297000</v>
+        <v>44345900</v>
       </c>
       <c r="G9" s="3">
-        <v>43945000</v>
+        <v>45009600</v>
       </c>
       <c r="H9" s="3">
-        <v>14679900</v>
+        <v>15035500</v>
       </c>
       <c r="I9" s="3">
-        <v>32061800</v>
+        <v>32838500</v>
       </c>
       <c r="J9" s="3">
-        <v>28090600</v>
+        <v>28771100</v>
       </c>
       <c r="K9" s="3">
         <v>16076700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11573700</v>
+        <v>11854100</v>
       </c>
       <c r="E10" s="3">
-        <v>10648700</v>
+        <v>10906700</v>
       </c>
       <c r="F10" s="3">
-        <v>10487400</v>
+        <v>10741500</v>
       </c>
       <c r="G10" s="3">
-        <v>12337400</v>
+        <v>12636300</v>
       </c>
       <c r="H10" s="3">
-        <v>12270200</v>
+        <v>12567400</v>
       </c>
       <c r="I10" s="3">
-        <v>10118600</v>
+        <v>10363700</v>
       </c>
       <c r="J10" s="3">
-        <v>10483800</v>
+        <v>10737800</v>
       </c>
       <c r="K10" s="3">
         <v>8562800</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109200</v>
+        <v>111900</v>
       </c>
       <c r="E14" s="3">
-        <v>-10800</v>
+        <v>-11100</v>
       </c>
       <c r="F14" s="3">
-        <v>508400</v>
+        <v>520700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1148500</v>
+        <v>1176300</v>
       </c>
       <c r="E17" s="3">
-        <v>33841600</v>
+        <v>34661400</v>
       </c>
       <c r="F17" s="3">
-        <v>48033400</v>
+        <v>49197000</v>
       </c>
       <c r="G17" s="3">
-        <v>50830100</v>
+        <v>52061400</v>
       </c>
       <c r="H17" s="3">
-        <v>22036500</v>
+        <v>22570300</v>
       </c>
       <c r="I17" s="3">
-        <v>39547800</v>
+        <v>40505900</v>
       </c>
       <c r="J17" s="3">
-        <v>35434200</v>
+        <v>36292600</v>
       </c>
       <c r="K17" s="3">
         <v>21847000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7302400</v>
+        <v>7479300</v>
       </c>
       <c r="E18" s="3">
-        <v>6607300</v>
+        <v>6767400</v>
       </c>
       <c r="F18" s="3">
-        <v>5751000</v>
+        <v>5890400</v>
       </c>
       <c r="G18" s="3">
-        <v>5452400</v>
+        <v>5584400</v>
       </c>
       <c r="H18" s="3">
-        <v>4913600</v>
+        <v>5032600</v>
       </c>
       <c r="I18" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="J18" s="3">
-        <v>3140200</v>
+        <v>3216300</v>
       </c>
       <c r="K18" s="3">
         <v>2792400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7692100</v>
+        <v>7879200</v>
       </c>
       <c r="E21" s="3">
-        <v>6990600</v>
+        <v>7160700</v>
       </c>
       <c r="F21" s="3">
-        <v>6226300</v>
+        <v>6378100</v>
       </c>
       <c r="G21" s="3">
-        <v>5905800</v>
+        <v>6049800</v>
       </c>
       <c r="H21" s="3">
-        <v>5454700</v>
+        <v>5587900</v>
       </c>
       <c r="I21" s="3">
-        <v>3038200</v>
+        <v>3112600</v>
       </c>
       <c r="J21" s="3">
-        <v>3642300</v>
+        <v>3731500</v>
       </c>
       <c r="K21" s="3">
         <v>3221300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>976300</v>
+        <v>1000000</v>
       </c>
       <c r="E22" s="3">
-        <v>731200</v>
+        <v>748900</v>
       </c>
       <c r="F22" s="3">
-        <v>854100</v>
+        <v>874800</v>
       </c>
       <c r="G22" s="3">
-        <v>953900</v>
+        <v>977000</v>
       </c>
       <c r="H22" s="3">
-        <v>922100</v>
+        <v>944400</v>
       </c>
       <c r="I22" s="3">
-        <v>823700</v>
+        <v>843700</v>
       </c>
       <c r="J22" s="3">
-        <v>732600</v>
+        <v>750400</v>
       </c>
       <c r="K22" s="3">
         <v>826700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6326000</v>
+        <v>6479300</v>
       </c>
       <c r="E23" s="3">
-        <v>5876200</v>
+        <v>6018500</v>
       </c>
       <c r="F23" s="3">
-        <v>4896900</v>
+        <v>5015600</v>
       </c>
       <c r="G23" s="3">
-        <v>4498400</v>
+        <v>4607400</v>
       </c>
       <c r="H23" s="3">
-        <v>3991500</v>
+        <v>4088100</v>
       </c>
       <c r="I23" s="3">
-        <v>1808800</v>
+        <v>1852600</v>
       </c>
       <c r="J23" s="3">
-        <v>2407600</v>
+        <v>2465900</v>
       </c>
       <c r="K23" s="3">
         <v>1965800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1131800</v>
+        <v>1159300</v>
       </c>
       <c r="E24" s="3">
-        <v>877300</v>
+        <v>898500</v>
       </c>
       <c r="F24" s="3">
-        <v>864200</v>
+        <v>885200</v>
       </c>
       <c r="G24" s="3">
-        <v>519300</v>
+        <v>531900</v>
       </c>
       <c r="H24" s="3">
-        <v>688500</v>
+        <v>705200</v>
       </c>
       <c r="I24" s="3">
-        <v>172800</v>
+        <v>177000</v>
       </c>
       <c r="J24" s="3">
-        <v>141800</v>
+        <v>145200</v>
       </c>
       <c r="K24" s="3">
         <v>246300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5194200</v>
+        <v>5320000</v>
       </c>
       <c r="E26" s="3">
-        <v>4998900</v>
+        <v>5120000</v>
       </c>
       <c r="F26" s="3">
-        <v>4032700</v>
+        <v>4130400</v>
       </c>
       <c r="G26" s="3">
-        <v>3979200</v>
+        <v>4075600</v>
       </c>
       <c r="H26" s="3">
-        <v>3302900</v>
+        <v>3383000</v>
       </c>
       <c r="I26" s="3">
-        <v>1635900</v>
+        <v>1675600</v>
       </c>
       <c r="J26" s="3">
-        <v>2265800</v>
+        <v>2320700</v>
       </c>
       <c r="K26" s="3">
         <v>1719500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5087100</v>
+        <v>5210400</v>
       </c>
       <c r="E27" s="3">
-        <v>4983000</v>
+        <v>5103700</v>
       </c>
       <c r="F27" s="3">
-        <v>4122400</v>
+        <v>4222200</v>
       </c>
       <c r="G27" s="3">
-        <v>3927100</v>
+        <v>4022200</v>
       </c>
       <c r="H27" s="3">
-        <v>3118500</v>
+        <v>3194100</v>
       </c>
       <c r="I27" s="3">
-        <v>1406700</v>
+        <v>1440700</v>
       </c>
       <c r="J27" s="3">
-        <v>2022100</v>
+        <v>2071100</v>
       </c>
       <c r="K27" s="3">
         <v>1558000</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>231400</v>
+        <v>237000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5087100</v>
+        <v>5210400</v>
       </c>
       <c r="E33" s="3">
-        <v>4983000</v>
+        <v>5103700</v>
       </c>
       <c r="F33" s="3">
-        <v>4122400</v>
+        <v>4222200</v>
       </c>
       <c r="G33" s="3">
-        <v>3927100</v>
+        <v>4022200</v>
       </c>
       <c r="H33" s="3">
-        <v>3350000</v>
+        <v>3431100</v>
       </c>
       <c r="I33" s="3">
-        <v>1406700</v>
+        <v>1440700</v>
       </c>
       <c r="J33" s="3">
-        <v>2022100</v>
+        <v>2071100</v>
       </c>
       <c r="K33" s="3">
         <v>1558000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5087100</v>
+        <v>5210400</v>
       </c>
       <c r="E35" s="3">
-        <v>4983000</v>
+        <v>5103700</v>
       </c>
       <c r="F35" s="3">
-        <v>4122400</v>
+        <v>4222200</v>
       </c>
       <c r="G35" s="3">
-        <v>3927100</v>
+        <v>4022200</v>
       </c>
       <c r="H35" s="3">
-        <v>3350000</v>
+        <v>3431100</v>
       </c>
       <c r="I35" s="3">
-        <v>1406700</v>
+        <v>1440700</v>
       </c>
       <c r="J35" s="3">
-        <v>2022100</v>
+        <v>2071100</v>
       </c>
       <c r="K35" s="3">
         <v>1558000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13851800</v>
+        <v>14187400</v>
       </c>
       <c r="E41" s="3">
-        <v>16340400</v>
+        <v>16736300</v>
       </c>
       <c r="F41" s="3">
-        <v>18924500</v>
+        <v>19382900</v>
       </c>
       <c r="G41" s="3">
-        <v>14681400</v>
+        <v>15037000</v>
       </c>
       <c r="H41" s="3">
-        <v>11727000</v>
+        <v>12011100</v>
       </c>
       <c r="I41" s="3">
-        <v>11546200</v>
+        <v>11825900</v>
       </c>
       <c r="J41" s="3">
-        <v>10957500</v>
+        <v>11223000</v>
       </c>
       <c r="K41" s="3">
         <v>13429100</v>
@@ -1994,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1047200</v>
+        <v>1072600</v>
       </c>
       <c r="E43" s="3">
-        <v>935800</v>
+        <v>958500</v>
       </c>
       <c r="F43" s="3">
-        <v>1044300</v>
+        <v>1069600</v>
       </c>
       <c r="G43" s="3">
-        <v>1001700</v>
+        <v>1025900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>285562000</v>
+        <v>287819000</v>
       </c>
       <c r="E47" s="3">
-        <v>292545000</v>
+        <v>299632000</v>
       </c>
       <c r="F47" s="3">
-        <v>278302000</v>
+        <v>285044000</v>
       </c>
       <c r="G47" s="3">
-        <v>259077000</v>
+        <v>265353000</v>
       </c>
       <c r="H47" s="3">
-        <v>244050000</v>
+        <v>249962000</v>
       </c>
       <c r="I47" s="3">
-        <v>230170000</v>
+        <v>235746000</v>
       </c>
       <c r="J47" s="3">
-        <v>221825000</v>
+        <v>227198000</v>
       </c>
       <c r="K47" s="3">
         <v>218787000</v>
@@ -2213,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>275500</v>
+        <v>282200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7607600</v>
+        <v>15583700</v>
       </c>
       <c r="E49" s="3">
-        <v>7170700</v>
+        <v>7344400</v>
       </c>
       <c r="F49" s="3">
-        <v>7180900</v>
+        <v>7354800</v>
       </c>
       <c r="G49" s="3">
-        <v>7214100</v>
+        <v>7388900</v>
       </c>
       <c r="H49" s="3">
-        <v>7302400</v>
+        <v>7479300</v>
       </c>
       <c r="I49" s="3">
-        <v>7116500</v>
+        <v>7288900</v>
       </c>
       <c r="J49" s="3">
-        <v>7309600</v>
+        <v>7486700</v>
       </c>
       <c r="K49" s="3">
         <v>7046100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3922000</v>
+        <v>4968900</v>
       </c>
       <c r="E52" s="3">
-        <v>3799800</v>
+        <v>3891800</v>
       </c>
       <c r="F52" s="3">
-        <v>3501800</v>
+        <v>3586700</v>
       </c>
       <c r="G52" s="3">
-        <v>3308000</v>
+        <v>3388100</v>
       </c>
       <c r="H52" s="3">
-        <v>3122900</v>
+        <v>3198500</v>
       </c>
       <c r="I52" s="3">
-        <v>3304400</v>
+        <v>3384400</v>
       </c>
       <c r="J52" s="3">
-        <v>3210400</v>
+        <v>3288100</v>
       </c>
       <c r="K52" s="3">
         <v>3053700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>613971000</v>
+        <v>617547000</v>
       </c>
       <c r="E54" s="3">
-        <v>663658000</v>
+        <v>679735000</v>
       </c>
       <c r="F54" s="3">
-        <v>636686000</v>
+        <v>652110000</v>
       </c>
       <c r="G54" s="3">
-        <v>585179000</v>
+        <v>599355000</v>
       </c>
       <c r="H54" s="3">
-        <v>542611000</v>
+        <v>555756000</v>
       </c>
       <c r="I54" s="3">
-        <v>527613000</v>
+        <v>540394000</v>
       </c>
       <c r="J54" s="3">
-        <v>521211000</v>
+        <v>533837000</v>
       </c>
       <c r="K54" s="3">
         <v>529088000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>280580000</v>
+        <v>815258000</v>
       </c>
       <c r="E59" s="3">
-        <v>315150000</v>
+        <v>322784000</v>
       </c>
       <c r="F59" s="3">
-        <v>291530000</v>
+        <v>298592000</v>
       </c>
       <c r="G59" s="3">
-        <v>273721000</v>
+        <v>280352000</v>
       </c>
       <c r="H59" s="3">
-        <v>250724000</v>
+        <v>256798000</v>
       </c>
       <c r="I59" s="3">
-        <v>256762000</v>
+        <v>262982000</v>
       </c>
       <c r="J59" s="3">
-        <v>250082000</v>
+        <v>256140000</v>
       </c>
       <c r="K59" s="3">
         <v>258201000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8936100</v>
+        <v>9152600</v>
       </c>
       <c r="E61" s="3">
-        <v>8578800</v>
+        <v>8786700</v>
       </c>
       <c r="F61" s="3">
-        <v>10120000</v>
+        <v>10365200</v>
       </c>
       <c r="G61" s="3">
-        <v>8731400</v>
+        <v>8943000</v>
       </c>
       <c r="H61" s="3">
-        <v>9764200</v>
+        <v>10000700</v>
       </c>
       <c r="I61" s="3">
-        <v>9526300</v>
+        <v>9757000</v>
       </c>
       <c r="J61" s="3">
-        <v>9312200</v>
+        <v>9537800</v>
       </c>
       <c r="K61" s="3">
         <v>7169200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2006200</v>
+        <v>1137800</v>
       </c>
       <c r="E62" s="3">
-        <v>2002600</v>
+        <v>2051100</v>
       </c>
       <c r="F62" s="3">
-        <v>1890500</v>
+        <v>1936300</v>
       </c>
       <c r="G62" s="3">
-        <v>1426200</v>
+        <v>1460700</v>
       </c>
       <c r="H62" s="3">
-        <v>1311900</v>
+        <v>1343700</v>
       </c>
       <c r="I62" s="3">
-        <v>926400</v>
+        <v>948900</v>
       </c>
       <c r="J62" s="3">
-        <v>982900</v>
+        <v>1006700</v>
       </c>
       <c r="K62" s="3">
         <v>927300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>574400000</v>
+        <v>582881000</v>
       </c>
       <c r="E66" s="3">
-        <v>622308000</v>
+        <v>637383000</v>
       </c>
       <c r="F66" s="3">
-        <v>599403000</v>
+        <v>613924000</v>
       </c>
       <c r="G66" s="3">
-        <v>549817000</v>
+        <v>563137000</v>
       </c>
       <c r="H66" s="3">
-        <v>509301000</v>
+        <v>521639000</v>
       </c>
       <c r="I66" s="3">
-        <v>497792000</v>
+        <v>509851000</v>
       </c>
       <c r="J66" s="3">
-        <v>490778000</v>
+        <v>502667000</v>
       </c>
       <c r="K66" s="3">
         <v>498043000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4816600</v>
+        <v>4933300</v>
       </c>
       <c r="E70" s="3">
-        <v>4614900</v>
+        <v>4726700</v>
       </c>
       <c r="F70" s="3">
-        <v>2764100</v>
+        <v>2831100</v>
       </c>
       <c r="G70" s="3">
-        <v>2764100</v>
+        <v>2831100</v>
       </c>
       <c r="H70" s="3">
-        <v>2764100</v>
+        <v>2831100</v>
       </c>
       <c r="I70" s="3">
-        <v>2587000</v>
+        <v>2649600</v>
       </c>
       <c r="J70" s="3">
-        <v>2587000</v>
+        <v>2649600</v>
       </c>
       <c r="K70" s="3">
         <v>2022100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19534200</v>
+        <v>2923700</v>
       </c>
       <c r="E72" s="3">
-        <v>16989900</v>
+        <v>17401500</v>
       </c>
       <c r="F72" s="3">
-        <v>13659500</v>
+        <v>13990400</v>
       </c>
       <c r="G72" s="3">
-        <v>11201200</v>
+        <v>11472600</v>
       </c>
       <c r="H72" s="3">
-        <v>9187800</v>
+        <v>9410400</v>
       </c>
       <c r="I72" s="3">
-        <v>7292200</v>
+        <v>7468900</v>
       </c>
       <c r="J72" s="3">
-        <v>7057900</v>
+        <v>7228900</v>
       </c>
       <c r="K72" s="3">
         <v>6305700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34754400</v>
+        <v>29732600</v>
       </c>
       <c r="E76" s="3">
-        <v>36735200</v>
+        <v>37625100</v>
       </c>
       <c r="F76" s="3">
-        <v>34518600</v>
+        <v>35354800</v>
       </c>
       <c r="G76" s="3">
-        <v>32597700</v>
+        <v>33387400</v>
       </c>
       <c r="H76" s="3">
-        <v>30546000</v>
+        <v>31285900</v>
       </c>
       <c r="I76" s="3">
-        <v>27234300</v>
+        <v>27894100</v>
       </c>
       <c r="J76" s="3">
-        <v>27846100</v>
+        <v>28520700</v>
       </c>
       <c r="K76" s="3">
         <v>29023000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5087100</v>
+        <v>5210400</v>
       </c>
       <c r="E81" s="3">
-        <v>4983000</v>
+        <v>5103700</v>
       </c>
       <c r="F81" s="3">
-        <v>4122400</v>
+        <v>4222200</v>
       </c>
       <c r="G81" s="3">
-        <v>3927100</v>
+        <v>4022200</v>
       </c>
       <c r="H81" s="3">
-        <v>3350000</v>
+        <v>3431100</v>
       </c>
       <c r="I81" s="3">
-        <v>1406700</v>
+        <v>1440700</v>
       </c>
       <c r="J81" s="3">
-        <v>2022100</v>
+        <v>2071100</v>
       </c>
       <c r="K81" s="3">
         <v>1558000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>389100</v>
+        <v>398500</v>
       </c>
       <c r="E83" s="3">
-        <v>382600</v>
+        <v>391900</v>
       </c>
       <c r="F83" s="3">
-        <v>474400</v>
+        <v>485900</v>
       </c>
       <c r="G83" s="3">
-        <v>452700</v>
+        <v>463700</v>
       </c>
       <c r="H83" s="3">
-        <v>540200</v>
+        <v>553300</v>
       </c>
       <c r="I83" s="3">
-        <v>405000</v>
+        <v>414800</v>
       </c>
       <c r="J83" s="3">
-        <v>501200</v>
+        <v>513300</v>
       </c>
       <c r="K83" s="3">
         <v>435500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12826300</v>
+        <v>13137000</v>
       </c>
       <c r="E89" s="3">
-        <v>16746200</v>
+        <v>17151800</v>
       </c>
       <c r="F89" s="3">
-        <v>14499100</v>
+        <v>14850400</v>
       </c>
       <c r="G89" s="3">
-        <v>14856400</v>
+        <v>15216300</v>
       </c>
       <c r="H89" s="3">
-        <v>13877100</v>
+        <v>14213300</v>
       </c>
       <c r="I89" s="3">
-        <v>12866800</v>
+        <v>13178500</v>
       </c>
       <c r="J89" s="3">
-        <v>12320800</v>
+        <v>12619200</v>
       </c>
       <c r="K89" s="3">
         <v>7759400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13459100</v>
+        <v>-13785200</v>
       </c>
       <c r="E94" s="3">
-        <v>-17676900</v>
+        <v>-18105200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10232100</v>
+        <v>-10480000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10002100</v>
+        <v>-10244400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13742600</v>
+        <v>-14075500</v>
       </c>
       <c r="I94" s="3">
-        <v>-11779100</v>
+        <v>-12064400</v>
       </c>
       <c r="J94" s="3">
-        <v>-16445300</v>
+        <v>-16843700</v>
       </c>
       <c r="K94" s="3">
         <v>-10410700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2015600</v>
+        <v>-2064400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1808100</v>
+        <v>-1851900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1692300</v>
+        <v>-1733300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1011100</v>
+        <v>-1035600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1293100</v>
+        <v>-1324400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1287300</v>
+        <v>-1318500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1152100</v>
+        <v>-1180000</v>
       </c>
       <c r="K96" s="3">
         <v>-1071500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2173300</v>
+        <v>-2225900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1480400</v>
+        <v>-1516300</v>
       </c>
       <c r="F100" s="3">
-        <v>479500</v>
+        <v>491100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1504300</v>
+        <v>-1540700</v>
       </c>
       <c r="H100" s="3">
-        <v>-523600</v>
+        <v>-536300</v>
       </c>
       <c r="I100" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="J100" s="3">
-        <v>2376500</v>
+        <v>2434100</v>
       </c>
       <c r="K100" s="3">
         <v>-1506200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>423100</v>
+        <v>433300</v>
       </c>
       <c r="E101" s="3">
-        <v>-230700</v>
+        <v>-236300</v>
       </c>
       <c r="F101" s="3">
-        <v>-381900</v>
+        <v>-391100</v>
       </c>
       <c r="G101" s="3">
-        <v>-337000</v>
+        <v>-345200</v>
       </c>
       <c r="H101" s="3">
-        <v>594500</v>
+        <v>608900</v>
       </c>
       <c r="I101" s="3">
-        <v>-475900</v>
+        <v>-487400</v>
       </c>
       <c r="J101" s="3">
-        <v>-251000</v>
+        <v>-257000</v>
       </c>
       <c r="K101" s="3">
         <v>1578300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2383000</v>
+        <v>-2440700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2641900</v>
+        <v>-2705900</v>
       </c>
       <c r="F102" s="3">
-        <v>4364600</v>
+        <v>4470400</v>
       </c>
       <c r="G102" s="3">
-        <v>3012900</v>
+        <v>3085900</v>
       </c>
       <c r="H102" s="3">
-        <v>205400</v>
+        <v>210400</v>
       </c>
       <c r="I102" s="3">
-        <v>622000</v>
+        <v>637000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1999000</v>
+        <v>-2047400</v>
       </c>
       <c r="K102" s="3">
         <v>-2579200</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8655500</v>
+        <v>8651100</v>
       </c>
       <c r="E8" s="3">
-        <v>41428800</v>
+        <v>41407600</v>
       </c>
       <c r="F8" s="3">
-        <v>55087400</v>
+        <v>55059100</v>
       </c>
       <c r="G8" s="3">
-        <v>57645900</v>
+        <v>57616300</v>
       </c>
       <c r="H8" s="3">
-        <v>27602900</v>
+        <v>27588800</v>
       </c>
       <c r="I8" s="3">
-        <v>43202200</v>
+        <v>43180000</v>
       </c>
       <c r="J8" s="3">
-        <v>39508800</v>
+        <v>39488600</v>
       </c>
       <c r="K8" s="3">
         <v>24639500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-3198500</v>
+        <v>-3196900</v>
       </c>
       <c r="E9" s="3">
-        <v>30522200</v>
+        <v>30506500</v>
       </c>
       <c r="F9" s="3">
-        <v>44345900</v>
+        <v>44323100</v>
       </c>
       <c r="G9" s="3">
-        <v>45009600</v>
+        <v>44986500</v>
       </c>
       <c r="H9" s="3">
-        <v>15035500</v>
+        <v>15027800</v>
       </c>
       <c r="I9" s="3">
-        <v>32838500</v>
+        <v>32821600</v>
       </c>
       <c r="J9" s="3">
-        <v>28771100</v>
+        <v>28756300</v>
       </c>
       <c r="K9" s="3">
         <v>16076700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11854100</v>
+        <v>11848000</v>
       </c>
       <c r="E10" s="3">
-        <v>10906700</v>
+        <v>10901100</v>
       </c>
       <c r="F10" s="3">
-        <v>10741500</v>
+        <v>10736000</v>
       </c>
       <c r="G10" s="3">
-        <v>12636300</v>
+        <v>12629800</v>
       </c>
       <c r="H10" s="3">
-        <v>12567400</v>
+        <v>12560900</v>
       </c>
       <c r="I10" s="3">
-        <v>10363700</v>
+        <v>10358400</v>
       </c>
       <c r="J10" s="3">
-        <v>10737800</v>
+        <v>10732300</v>
       </c>
       <c r="K10" s="3">
         <v>8562800</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>111900</v>
+        <v>111800</v>
       </c>
       <c r="E14" s="3">
         <v>-11100</v>
       </c>
       <c r="F14" s="3">
-        <v>520700</v>
+        <v>520500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1176300</v>
+        <v>1175700</v>
       </c>
       <c r="E17" s="3">
-        <v>34661400</v>
+        <v>34643700</v>
       </c>
       <c r="F17" s="3">
-        <v>49197000</v>
+        <v>49171700</v>
       </c>
       <c r="G17" s="3">
-        <v>52061400</v>
+        <v>52034700</v>
       </c>
       <c r="H17" s="3">
-        <v>22570300</v>
+        <v>22558800</v>
       </c>
       <c r="I17" s="3">
-        <v>40505900</v>
+        <v>40485100</v>
       </c>
       <c r="J17" s="3">
-        <v>36292600</v>
+        <v>36273900</v>
       </c>
       <c r="K17" s="3">
         <v>21847000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7479300</v>
+        <v>7475400</v>
       </c>
       <c r="E18" s="3">
-        <v>6767400</v>
+        <v>6763900</v>
       </c>
       <c r="F18" s="3">
-        <v>5890400</v>
+        <v>5887300</v>
       </c>
       <c r="G18" s="3">
-        <v>5584400</v>
+        <v>5581600</v>
       </c>
       <c r="H18" s="3">
-        <v>5032600</v>
+        <v>5030000</v>
       </c>
       <c r="I18" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="J18" s="3">
-        <v>3216300</v>
+        <v>3214600</v>
       </c>
       <c r="K18" s="3">
         <v>2792400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7879200</v>
+        <v>7873700</v>
       </c>
       <c r="E21" s="3">
-        <v>7160700</v>
+        <v>7155600</v>
       </c>
       <c r="F21" s="3">
-        <v>6378100</v>
+        <v>6373000</v>
       </c>
       <c r="G21" s="3">
-        <v>6049800</v>
+        <v>6045000</v>
       </c>
       <c r="H21" s="3">
-        <v>5587900</v>
+        <v>5583100</v>
       </c>
       <c r="I21" s="3">
-        <v>3112600</v>
+        <v>3109500</v>
       </c>
       <c r="J21" s="3">
-        <v>3731500</v>
+        <v>3727700</v>
       </c>
       <c r="K21" s="3">
         <v>3221300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000000</v>
+        <v>999500</v>
       </c>
       <c r="E22" s="3">
-        <v>748900</v>
+        <v>748500</v>
       </c>
       <c r="F22" s="3">
-        <v>874800</v>
+        <v>874400</v>
       </c>
       <c r="G22" s="3">
-        <v>977000</v>
+        <v>976500</v>
       </c>
       <c r="H22" s="3">
-        <v>944400</v>
+        <v>944000</v>
       </c>
       <c r="I22" s="3">
-        <v>843700</v>
+        <v>843300</v>
       </c>
       <c r="J22" s="3">
-        <v>750400</v>
+        <v>750000</v>
       </c>
       <c r="K22" s="3">
         <v>826700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6479300</v>
+        <v>6475900</v>
       </c>
       <c r="E23" s="3">
-        <v>6018500</v>
+        <v>6015400</v>
       </c>
       <c r="F23" s="3">
-        <v>5015600</v>
+        <v>5013000</v>
       </c>
       <c r="G23" s="3">
-        <v>4607400</v>
+        <v>4605000</v>
       </c>
       <c r="H23" s="3">
-        <v>4088100</v>
+        <v>4086000</v>
       </c>
       <c r="I23" s="3">
-        <v>1852600</v>
+        <v>1851600</v>
       </c>
       <c r="J23" s="3">
-        <v>2465900</v>
+        <v>2464700</v>
       </c>
       <c r="K23" s="3">
         <v>1965800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1159300</v>
+        <v>1158700</v>
       </c>
       <c r="E24" s="3">
-        <v>898500</v>
+        <v>898100</v>
       </c>
       <c r="F24" s="3">
-        <v>885200</v>
+        <v>884700</v>
       </c>
       <c r="G24" s="3">
-        <v>531900</v>
+        <v>531600</v>
       </c>
       <c r="H24" s="3">
-        <v>705200</v>
+        <v>704800</v>
       </c>
       <c r="I24" s="3">
-        <v>177000</v>
+        <v>176900</v>
       </c>
       <c r="J24" s="3">
-        <v>145200</v>
+        <v>145100</v>
       </c>
       <c r="K24" s="3">
         <v>246300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5320000</v>
+        <v>5317300</v>
       </c>
       <c r="E26" s="3">
-        <v>5120000</v>
+        <v>5117400</v>
       </c>
       <c r="F26" s="3">
-        <v>4130400</v>
+        <v>4128200</v>
       </c>
       <c r="G26" s="3">
-        <v>4075600</v>
+        <v>4073500</v>
       </c>
       <c r="H26" s="3">
-        <v>3383000</v>
+        <v>3381200</v>
       </c>
       <c r="I26" s="3">
-        <v>1675600</v>
+        <v>1674700</v>
       </c>
       <c r="J26" s="3">
-        <v>2320700</v>
+        <v>2319500</v>
       </c>
       <c r="K26" s="3">
         <v>1719500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5210400</v>
+        <v>5207700</v>
       </c>
       <c r="E27" s="3">
-        <v>5103700</v>
+        <v>5101100</v>
       </c>
       <c r="F27" s="3">
-        <v>4222200</v>
+        <v>4220100</v>
       </c>
       <c r="G27" s="3">
-        <v>4022200</v>
+        <v>4020200</v>
       </c>
       <c r="H27" s="3">
-        <v>3194100</v>
+        <v>3192400</v>
       </c>
       <c r="I27" s="3">
-        <v>1440700</v>
+        <v>1440000</v>
       </c>
       <c r="J27" s="3">
-        <v>2071100</v>
+        <v>2070000</v>
       </c>
       <c r="K27" s="3">
         <v>1558000</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>237000</v>
+        <v>236900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5210400</v>
+        <v>5207700</v>
       </c>
       <c r="E33" s="3">
-        <v>5103700</v>
+        <v>5101100</v>
       </c>
       <c r="F33" s="3">
-        <v>4222200</v>
+        <v>4220100</v>
       </c>
       <c r="G33" s="3">
-        <v>4022200</v>
+        <v>4020200</v>
       </c>
       <c r="H33" s="3">
-        <v>3431100</v>
+        <v>3429300</v>
       </c>
       <c r="I33" s="3">
-        <v>1440700</v>
+        <v>1440000</v>
       </c>
       <c r="J33" s="3">
-        <v>2071100</v>
+        <v>2070000</v>
       </c>
       <c r="K33" s="3">
         <v>1558000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5210400</v>
+        <v>5207700</v>
       </c>
       <c r="E35" s="3">
-        <v>5103700</v>
+        <v>5101100</v>
       </c>
       <c r="F35" s="3">
-        <v>4222200</v>
+        <v>4220100</v>
       </c>
       <c r="G35" s="3">
-        <v>4022200</v>
+        <v>4020200</v>
       </c>
       <c r="H35" s="3">
-        <v>3431100</v>
+        <v>3429300</v>
       </c>
       <c r="I35" s="3">
-        <v>1440700</v>
+        <v>1440000</v>
       </c>
       <c r="J35" s="3">
-        <v>2071100</v>
+        <v>2070000</v>
       </c>
       <c r="K35" s="3">
         <v>1558000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14187400</v>
+        <v>14180100</v>
       </c>
       <c r="E41" s="3">
-        <v>16736300</v>
+        <v>16727700</v>
       </c>
       <c r="F41" s="3">
-        <v>19382900</v>
+        <v>19373000</v>
       </c>
       <c r="G41" s="3">
-        <v>15037000</v>
+        <v>15029300</v>
       </c>
       <c r="H41" s="3">
-        <v>12011100</v>
+        <v>12004900</v>
       </c>
       <c r="I41" s="3">
-        <v>11825900</v>
+        <v>11819800</v>
       </c>
       <c r="J41" s="3">
-        <v>11223000</v>
+        <v>11217200</v>
       </c>
       <c r="K41" s="3">
         <v>13429100</v>
@@ -1994,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1072600</v>
+        <v>1072000</v>
       </c>
       <c r="E43" s="3">
-        <v>958500</v>
+        <v>958000</v>
       </c>
       <c r="F43" s="3">
-        <v>1069600</v>
+        <v>1069100</v>
       </c>
       <c r="G43" s="3">
-        <v>1025900</v>
+        <v>1025400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>287819000</v>
+        <v>287671000</v>
       </c>
       <c r="E47" s="3">
-        <v>299632000</v>
+        <v>299479000</v>
       </c>
       <c r="F47" s="3">
-        <v>285044000</v>
+        <v>284898000</v>
       </c>
       <c r="G47" s="3">
-        <v>265353000</v>
+        <v>265217000</v>
       </c>
       <c r="H47" s="3">
-        <v>249962000</v>
+        <v>249834000</v>
       </c>
       <c r="I47" s="3">
-        <v>235746000</v>
+        <v>235625000</v>
       </c>
       <c r="J47" s="3">
-        <v>227198000</v>
+        <v>227082000</v>
       </c>
       <c r="K47" s="3">
         <v>218787000</v>
@@ -2213,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>282200</v>
+        <v>282100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15583700</v>
+        <v>15575700</v>
       </c>
       <c r="E49" s="3">
-        <v>7344400</v>
+        <v>7340700</v>
       </c>
       <c r="F49" s="3">
-        <v>7354800</v>
+        <v>7351000</v>
       </c>
       <c r="G49" s="3">
-        <v>7388900</v>
+        <v>7385100</v>
       </c>
       <c r="H49" s="3">
-        <v>7479300</v>
+        <v>7475400</v>
       </c>
       <c r="I49" s="3">
-        <v>7288900</v>
+        <v>7285100</v>
       </c>
       <c r="J49" s="3">
-        <v>7486700</v>
+        <v>7482800</v>
       </c>
       <c r="K49" s="3">
         <v>7046100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4968900</v>
+        <v>4966300</v>
       </c>
       <c r="E52" s="3">
-        <v>3891800</v>
+        <v>3889900</v>
       </c>
       <c r="F52" s="3">
-        <v>3586700</v>
+        <v>3584800</v>
       </c>
       <c r="G52" s="3">
-        <v>3388100</v>
+        <v>3386400</v>
       </c>
       <c r="H52" s="3">
-        <v>3198500</v>
+        <v>3196900</v>
       </c>
       <c r="I52" s="3">
-        <v>3384400</v>
+        <v>3382700</v>
       </c>
       <c r="J52" s="3">
-        <v>3288100</v>
+        <v>3286500</v>
       </c>
       <c r="K52" s="3">
         <v>3053700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>617547000</v>
+        <v>617230000</v>
       </c>
       <c r="E54" s="3">
-        <v>679735000</v>
+        <v>679386000</v>
       </c>
       <c r="F54" s="3">
-        <v>652110000</v>
+        <v>651775000</v>
       </c>
       <c r="G54" s="3">
-        <v>599355000</v>
+        <v>599048000</v>
       </c>
       <c r="H54" s="3">
-        <v>555756000</v>
+        <v>555471000</v>
       </c>
       <c r="I54" s="3">
-        <v>540394000</v>
+        <v>540117000</v>
       </c>
       <c r="J54" s="3">
-        <v>533837000</v>
+        <v>533563000</v>
       </c>
       <c r="K54" s="3">
         <v>529088000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>815258000</v>
+        <v>814840000</v>
       </c>
       <c r="E59" s="3">
-        <v>322784000</v>
+        <v>322619000</v>
       </c>
       <c r="F59" s="3">
-        <v>298592000</v>
+        <v>298439000</v>
       </c>
       <c r="G59" s="3">
-        <v>280352000</v>
+        <v>280209000</v>
       </c>
       <c r="H59" s="3">
-        <v>256798000</v>
+        <v>256666000</v>
       </c>
       <c r="I59" s="3">
-        <v>262982000</v>
+        <v>262847000</v>
       </c>
       <c r="J59" s="3">
-        <v>256140000</v>
+        <v>256008000</v>
       </c>
       <c r="K59" s="3">
         <v>258201000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9152600</v>
+        <v>9147900</v>
       </c>
       <c r="E61" s="3">
-        <v>8786700</v>
+        <v>8782200</v>
       </c>
       <c r="F61" s="3">
-        <v>10365200</v>
+        <v>10359900</v>
       </c>
       <c r="G61" s="3">
-        <v>8943000</v>
+        <v>8938400</v>
       </c>
       <c r="H61" s="3">
-        <v>10000700</v>
+        <v>9995600</v>
       </c>
       <c r="I61" s="3">
-        <v>9757000</v>
+        <v>9752000</v>
       </c>
       <c r="J61" s="3">
-        <v>9537800</v>
+        <v>9532900</v>
       </c>
       <c r="K61" s="3">
         <v>7169200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1137800</v>
+        <v>1137200</v>
       </c>
       <c r="E62" s="3">
-        <v>2051100</v>
+        <v>2050100</v>
       </c>
       <c r="F62" s="3">
-        <v>1936300</v>
+        <v>1935300</v>
       </c>
       <c r="G62" s="3">
-        <v>1460700</v>
+        <v>1460000</v>
       </c>
       <c r="H62" s="3">
-        <v>1343700</v>
+        <v>1343000</v>
       </c>
       <c r="I62" s="3">
-        <v>948900</v>
+        <v>948400</v>
       </c>
       <c r="J62" s="3">
-        <v>1006700</v>
+        <v>1006100</v>
       </c>
       <c r="K62" s="3">
         <v>927300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>582881000</v>
+        <v>582582000</v>
       </c>
       <c r="E66" s="3">
-        <v>637383000</v>
+        <v>637056000</v>
       </c>
       <c r="F66" s="3">
-        <v>613924000</v>
+        <v>613609000</v>
       </c>
       <c r="G66" s="3">
-        <v>563137000</v>
+        <v>562848000</v>
       </c>
       <c r="H66" s="3">
-        <v>521639000</v>
+        <v>521371000</v>
       </c>
       <c r="I66" s="3">
-        <v>509851000</v>
+        <v>509589000</v>
       </c>
       <c r="J66" s="3">
-        <v>502667000</v>
+        <v>502409000</v>
       </c>
       <c r="K66" s="3">
         <v>498043000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4933300</v>
+        <v>4930800</v>
       </c>
       <c r="E70" s="3">
-        <v>4726700</v>
+        <v>4724200</v>
       </c>
       <c r="F70" s="3">
-        <v>2831100</v>
+        <v>2829700</v>
       </c>
       <c r="G70" s="3">
-        <v>2831100</v>
+        <v>2829700</v>
       </c>
       <c r="H70" s="3">
-        <v>2831100</v>
+        <v>2829700</v>
       </c>
       <c r="I70" s="3">
-        <v>2649600</v>
+        <v>2648300</v>
       </c>
       <c r="J70" s="3">
-        <v>2649600</v>
+        <v>2648300</v>
       </c>
       <c r="K70" s="3">
         <v>2022100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2923700</v>
+        <v>2922200</v>
       </c>
       <c r="E72" s="3">
-        <v>17401500</v>
+        <v>17392500</v>
       </c>
       <c r="F72" s="3">
-        <v>13990400</v>
+        <v>13983200</v>
       </c>
       <c r="G72" s="3">
-        <v>11472600</v>
+        <v>11466700</v>
       </c>
       <c r="H72" s="3">
-        <v>9410400</v>
+        <v>9405500</v>
       </c>
       <c r="I72" s="3">
-        <v>7468900</v>
+        <v>7465000</v>
       </c>
       <c r="J72" s="3">
-        <v>7228900</v>
+        <v>7225200</v>
       </c>
       <c r="K72" s="3">
         <v>6305700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29732600</v>
+        <v>29717300</v>
       </c>
       <c r="E76" s="3">
-        <v>37625100</v>
+        <v>37605900</v>
       </c>
       <c r="F76" s="3">
-        <v>35354800</v>
+        <v>35336600</v>
       </c>
       <c r="G76" s="3">
-        <v>33387400</v>
+        <v>33370200</v>
       </c>
       <c r="H76" s="3">
-        <v>31285900</v>
+        <v>31269800</v>
       </c>
       <c r="I76" s="3">
-        <v>27894100</v>
+        <v>27879700</v>
       </c>
       <c r="J76" s="3">
-        <v>28520700</v>
+        <v>28506000</v>
       </c>
       <c r="K76" s="3">
         <v>29023000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5210400</v>
+        <v>5207700</v>
       </c>
       <c r="E81" s="3">
-        <v>5103700</v>
+        <v>5101100</v>
       </c>
       <c r="F81" s="3">
-        <v>4222200</v>
+        <v>4220100</v>
       </c>
       <c r="G81" s="3">
-        <v>4022200</v>
+        <v>4020200</v>
       </c>
       <c r="H81" s="3">
-        <v>3431100</v>
+        <v>3429300</v>
       </c>
       <c r="I81" s="3">
-        <v>1440700</v>
+        <v>1440000</v>
       </c>
       <c r="J81" s="3">
-        <v>2071100</v>
+        <v>2070000</v>
       </c>
       <c r="K81" s="3">
         <v>1558000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>398500</v>
+        <v>398300</v>
       </c>
       <c r="E83" s="3">
-        <v>391900</v>
+        <v>391700</v>
       </c>
       <c r="F83" s="3">
-        <v>485900</v>
+        <v>485700</v>
       </c>
       <c r="G83" s="3">
-        <v>463700</v>
+        <v>463500</v>
       </c>
       <c r="H83" s="3">
-        <v>553300</v>
+        <v>553000</v>
       </c>
       <c r="I83" s="3">
-        <v>414800</v>
+        <v>414600</v>
       </c>
       <c r="J83" s="3">
-        <v>513300</v>
+        <v>513100</v>
       </c>
       <c r="K83" s="3">
         <v>435500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13137000</v>
+        <v>13130300</v>
       </c>
       <c r="E89" s="3">
-        <v>17151800</v>
+        <v>17143000</v>
       </c>
       <c r="F89" s="3">
-        <v>14850400</v>
+        <v>14842700</v>
       </c>
       <c r="G89" s="3">
-        <v>15216300</v>
+        <v>15208500</v>
       </c>
       <c r="H89" s="3">
-        <v>14213300</v>
+        <v>14206000</v>
       </c>
       <c r="I89" s="3">
-        <v>13178500</v>
+        <v>13171700</v>
       </c>
       <c r="J89" s="3">
-        <v>12619200</v>
+        <v>12612800</v>
       </c>
       <c r="K89" s="3">
         <v>7759400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13785200</v>
+        <v>-13778100</v>
       </c>
       <c r="E94" s="3">
-        <v>-18105200</v>
+        <v>-18095900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10480000</v>
+        <v>-10474600</v>
       </c>
       <c r="G94" s="3">
-        <v>-10244400</v>
+        <v>-10239200</v>
       </c>
       <c r="H94" s="3">
-        <v>-14075500</v>
+        <v>-14068300</v>
       </c>
       <c r="I94" s="3">
-        <v>-12064400</v>
+        <v>-12058200</v>
       </c>
       <c r="J94" s="3">
-        <v>-16843700</v>
+        <v>-16835000</v>
       </c>
       <c r="K94" s="3">
         <v>-10410700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2064400</v>
+        <v>-2063400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1851900</v>
+        <v>-1850900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1733300</v>
+        <v>-1732400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1035600</v>
+        <v>-1035000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1324400</v>
+        <v>-1323800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1318500</v>
+        <v>-1317800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1180000</v>
+        <v>-1179400</v>
       </c>
       <c r="K96" s="3">
         <v>-1071500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2225900</v>
+        <v>-2224800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1516300</v>
+        <v>-1515500</v>
       </c>
       <c r="F100" s="3">
-        <v>491100</v>
+        <v>490900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1540700</v>
+        <v>-1539900</v>
       </c>
       <c r="H100" s="3">
-        <v>-536300</v>
+        <v>-536000</v>
       </c>
       <c r="I100" s="3">
         <v>10400</v>
       </c>
       <c r="J100" s="3">
-        <v>2434100</v>
+        <v>2432800</v>
       </c>
       <c r="K100" s="3">
         <v>-1506200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>433300</v>
+        <v>433100</v>
       </c>
       <c r="E101" s="3">
-        <v>-236300</v>
+        <v>-236200</v>
       </c>
       <c r="F101" s="3">
-        <v>-391100</v>
+        <v>-390900</v>
       </c>
       <c r="G101" s="3">
-        <v>-345200</v>
+        <v>-345000</v>
       </c>
       <c r="H101" s="3">
-        <v>608900</v>
+        <v>608600</v>
       </c>
       <c r="I101" s="3">
-        <v>-487400</v>
+        <v>-487200</v>
       </c>
       <c r="J101" s="3">
-        <v>-257000</v>
+        <v>-256900</v>
       </c>
       <c r="K101" s="3">
         <v>1578300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2440700</v>
+        <v>-2439500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2705900</v>
+        <v>-2704500</v>
       </c>
       <c r="F102" s="3">
-        <v>4470400</v>
+        <v>4468100</v>
       </c>
       <c r="G102" s="3">
-        <v>3085900</v>
+        <v>3084300</v>
       </c>
       <c r="H102" s="3">
-        <v>210400</v>
+        <v>210300</v>
       </c>
       <c r="I102" s="3">
-        <v>637000</v>
+        <v>636700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2047400</v>
+        <v>-2046400</v>
       </c>
       <c r="K102" s="3">
         <v>-2579200</v>

--- a/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8651100</v>
+        <v>8495100</v>
       </c>
       <c r="E8" s="3">
-        <v>41407600</v>
+        <v>40660900</v>
       </c>
       <c r="F8" s="3">
-        <v>55059100</v>
+        <v>54066300</v>
       </c>
       <c r="G8" s="3">
-        <v>57616300</v>
+        <v>56577400</v>
       </c>
       <c r="H8" s="3">
-        <v>27588800</v>
+        <v>27091300</v>
       </c>
       <c r="I8" s="3">
-        <v>43180000</v>
+        <v>42401400</v>
       </c>
       <c r="J8" s="3">
-        <v>39488600</v>
+        <v>38776500</v>
       </c>
       <c r="K8" s="3">
         <v>24639500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-3196900</v>
+        <v>-3139200</v>
       </c>
       <c r="E9" s="3">
-        <v>30506500</v>
+        <v>29956400</v>
       </c>
       <c r="F9" s="3">
-        <v>44323100</v>
+        <v>43523900</v>
       </c>
       <c r="G9" s="3">
-        <v>44986500</v>
+        <v>44175300</v>
       </c>
       <c r="H9" s="3">
-        <v>15027800</v>
+        <v>14756800</v>
       </c>
       <c r="I9" s="3">
-        <v>32821600</v>
+        <v>32229800</v>
       </c>
       <c r="J9" s="3">
-        <v>28756300</v>
+        <v>28237800</v>
       </c>
       <c r="K9" s="3">
         <v>16076700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11848000</v>
+        <v>11634300</v>
       </c>
       <c r="E10" s="3">
-        <v>10901100</v>
+        <v>10704500</v>
       </c>
       <c r="F10" s="3">
-        <v>10736000</v>
+        <v>10542400</v>
       </c>
       <c r="G10" s="3">
-        <v>12629800</v>
+        <v>12402100</v>
       </c>
       <c r="H10" s="3">
-        <v>12560900</v>
+        <v>12334500</v>
       </c>
       <c r="I10" s="3">
-        <v>10358400</v>
+        <v>10171600</v>
       </c>
       <c r="J10" s="3">
-        <v>10732300</v>
+        <v>10538700</v>
       </c>
       <c r="K10" s="3">
         <v>8562800</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>111800</v>
+        <v>109800</v>
       </c>
       <c r="E14" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F14" s="3">
-        <v>520500</v>
+        <v>511100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1175700</v>
+        <v>1154500</v>
       </c>
       <c r="E17" s="3">
-        <v>34643700</v>
+        <v>34019000</v>
       </c>
       <c r="F17" s="3">
-        <v>49171700</v>
+        <v>48285100</v>
       </c>
       <c r="G17" s="3">
-        <v>52034700</v>
+        <v>51096400</v>
       </c>
       <c r="H17" s="3">
-        <v>22558800</v>
+        <v>22152000</v>
       </c>
       <c r="I17" s="3">
-        <v>40485100</v>
+        <v>39755100</v>
       </c>
       <c r="J17" s="3">
-        <v>36273900</v>
+        <v>35619900</v>
       </c>
       <c r="K17" s="3">
         <v>21847000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7475400</v>
+        <v>7340600</v>
       </c>
       <c r="E18" s="3">
-        <v>6763900</v>
+        <v>6642000</v>
       </c>
       <c r="F18" s="3">
-        <v>5887300</v>
+        <v>5781200</v>
       </c>
       <c r="G18" s="3">
-        <v>5581600</v>
+        <v>5480900</v>
       </c>
       <c r="H18" s="3">
-        <v>5030000</v>
+        <v>4939300</v>
       </c>
       <c r="I18" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="J18" s="3">
-        <v>3214600</v>
+        <v>3156700</v>
       </c>
       <c r="K18" s="3">
         <v>2792400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7873700</v>
+        <v>7734000</v>
       </c>
       <c r="E21" s="3">
-        <v>7155600</v>
+        <v>7028700</v>
       </c>
       <c r="F21" s="3">
-        <v>6373000</v>
+        <v>6260800</v>
       </c>
       <c r="G21" s="3">
-        <v>6045000</v>
+        <v>5938600</v>
       </c>
       <c r="H21" s="3">
-        <v>5583100</v>
+        <v>5485400</v>
       </c>
       <c r="I21" s="3">
-        <v>3109500</v>
+        <v>3055700</v>
       </c>
       <c r="J21" s="3">
-        <v>3727700</v>
+        <v>3663300</v>
       </c>
       <c r="K21" s="3">
         <v>3221300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>999500</v>
+        <v>981500</v>
       </c>
       <c r="E22" s="3">
-        <v>748500</v>
+        <v>735000</v>
       </c>
       <c r="F22" s="3">
-        <v>874400</v>
+        <v>858600</v>
       </c>
       <c r="G22" s="3">
-        <v>976500</v>
+        <v>958900</v>
       </c>
       <c r="H22" s="3">
-        <v>944000</v>
+        <v>926900</v>
       </c>
       <c r="I22" s="3">
-        <v>843300</v>
+        <v>828100</v>
       </c>
       <c r="J22" s="3">
-        <v>750000</v>
+        <v>736500</v>
       </c>
       <c r="K22" s="3">
         <v>826700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6475900</v>
+        <v>6359200</v>
       </c>
       <c r="E23" s="3">
-        <v>6015400</v>
+        <v>5907000</v>
       </c>
       <c r="F23" s="3">
-        <v>5013000</v>
+        <v>4922600</v>
       </c>
       <c r="G23" s="3">
-        <v>4605000</v>
+        <v>4522000</v>
       </c>
       <c r="H23" s="3">
-        <v>4086000</v>
+        <v>4012400</v>
       </c>
       <c r="I23" s="3">
-        <v>1851600</v>
+        <v>1818300</v>
       </c>
       <c r="J23" s="3">
-        <v>2464700</v>
+        <v>2420200</v>
       </c>
       <c r="K23" s="3">
         <v>1965800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1158700</v>
+        <v>1137800</v>
       </c>
       <c r="E24" s="3">
-        <v>898100</v>
+        <v>881900</v>
       </c>
       <c r="F24" s="3">
-        <v>884700</v>
+        <v>868800</v>
       </c>
       <c r="G24" s="3">
-        <v>531600</v>
+        <v>522000</v>
       </c>
       <c r="H24" s="3">
-        <v>704800</v>
+        <v>692100</v>
       </c>
       <c r="I24" s="3">
-        <v>176900</v>
+        <v>173800</v>
       </c>
       <c r="J24" s="3">
-        <v>145100</v>
+        <v>142500</v>
       </c>
       <c r="K24" s="3">
         <v>246300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5317300</v>
+        <v>5221400</v>
       </c>
       <c r="E26" s="3">
-        <v>5117400</v>
+        <v>5025100</v>
       </c>
       <c r="F26" s="3">
-        <v>4128200</v>
+        <v>4053800</v>
       </c>
       <c r="G26" s="3">
-        <v>4073500</v>
+        <v>4000000</v>
       </c>
       <c r="H26" s="3">
-        <v>3381200</v>
+        <v>3320300</v>
       </c>
       <c r="I26" s="3">
-        <v>1674700</v>
+        <v>1644500</v>
       </c>
       <c r="J26" s="3">
-        <v>2319500</v>
+        <v>2277700</v>
       </c>
       <c r="K26" s="3">
         <v>1719500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5207700</v>
+        <v>5113800</v>
       </c>
       <c r="E27" s="3">
-        <v>5101100</v>
+        <v>5009100</v>
       </c>
       <c r="F27" s="3">
-        <v>4220100</v>
+        <v>4144000</v>
       </c>
       <c r="G27" s="3">
-        <v>4020200</v>
+        <v>3947700</v>
       </c>
       <c r="H27" s="3">
-        <v>3192400</v>
+        <v>3134900</v>
       </c>
       <c r="I27" s="3">
-        <v>1440000</v>
+        <v>1414000</v>
       </c>
       <c r="J27" s="3">
-        <v>2070000</v>
+        <v>2032700</v>
       </c>
       <c r="K27" s="3">
         <v>1558000</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>236900</v>
+        <v>232600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5207700</v>
+        <v>5113800</v>
       </c>
       <c r="E33" s="3">
-        <v>5101100</v>
+        <v>5009100</v>
       </c>
       <c r="F33" s="3">
-        <v>4220100</v>
+        <v>4144000</v>
       </c>
       <c r="G33" s="3">
-        <v>4020200</v>
+        <v>3947700</v>
       </c>
       <c r="H33" s="3">
-        <v>3429300</v>
+        <v>3367500</v>
       </c>
       <c r="I33" s="3">
-        <v>1440000</v>
+        <v>1414000</v>
       </c>
       <c r="J33" s="3">
-        <v>2070000</v>
+        <v>2032700</v>
       </c>
       <c r="K33" s="3">
         <v>1558000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5207700</v>
+        <v>5113800</v>
       </c>
       <c r="E35" s="3">
-        <v>5101100</v>
+        <v>5009100</v>
       </c>
       <c r="F35" s="3">
-        <v>4220100</v>
+        <v>4144000</v>
       </c>
       <c r="G35" s="3">
-        <v>4020200</v>
+        <v>3947700</v>
       </c>
       <c r="H35" s="3">
-        <v>3429300</v>
+        <v>3367500</v>
       </c>
       <c r="I35" s="3">
-        <v>1440000</v>
+        <v>1414000</v>
       </c>
       <c r="J35" s="3">
-        <v>2070000</v>
+        <v>2032700</v>
       </c>
       <c r="K35" s="3">
         <v>1558000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14180100</v>
+        <v>13924400</v>
       </c>
       <c r="E41" s="3">
-        <v>16727700</v>
+        <v>16426100</v>
       </c>
       <c r="F41" s="3">
-        <v>19373000</v>
+        <v>19023700</v>
       </c>
       <c r="G41" s="3">
-        <v>15029300</v>
+        <v>14758300</v>
       </c>
       <c r="H41" s="3">
-        <v>12004900</v>
+        <v>11788500</v>
       </c>
       <c r="I41" s="3">
-        <v>11819800</v>
+        <v>11606700</v>
       </c>
       <c r="J41" s="3">
-        <v>11217200</v>
+        <v>11014900</v>
       </c>
       <c r="K41" s="3">
         <v>13429100</v>
@@ -1994,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1072000</v>
+        <v>1052700</v>
       </c>
       <c r="E43" s="3">
-        <v>958000</v>
+        <v>940800</v>
       </c>
       <c r="F43" s="3">
-        <v>1069100</v>
+        <v>1049800</v>
       </c>
       <c r="G43" s="3">
-        <v>1025400</v>
+        <v>1006900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>287671000</v>
+        <v>282484000</v>
       </c>
       <c r="E47" s="3">
-        <v>299479000</v>
+        <v>294079000</v>
       </c>
       <c r="F47" s="3">
-        <v>284898000</v>
+        <v>279761000</v>
       </c>
       <c r="G47" s="3">
-        <v>265217000</v>
+        <v>260435000</v>
       </c>
       <c r="H47" s="3">
-        <v>249834000</v>
+        <v>245329000</v>
       </c>
       <c r="I47" s="3">
-        <v>235625000</v>
+        <v>231376000</v>
       </c>
       <c r="J47" s="3">
-        <v>227082000</v>
+        <v>222987000</v>
       </c>
       <c r="K47" s="3">
         <v>218787000</v>
@@ -2213,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>282100</v>
+        <v>277000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15575700</v>
+        <v>15294800</v>
       </c>
       <c r="E49" s="3">
-        <v>7340700</v>
+        <v>7208300</v>
       </c>
       <c r="F49" s="3">
-        <v>7351000</v>
+        <v>7218500</v>
       </c>
       <c r="G49" s="3">
-        <v>7385100</v>
+        <v>7251900</v>
       </c>
       <c r="H49" s="3">
-        <v>7475400</v>
+        <v>7340600</v>
       </c>
       <c r="I49" s="3">
-        <v>7285100</v>
+        <v>7153800</v>
       </c>
       <c r="J49" s="3">
-        <v>7482800</v>
+        <v>7347900</v>
       </c>
       <c r="K49" s="3">
         <v>7046100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4966300</v>
+        <v>4876800</v>
       </c>
       <c r="E52" s="3">
-        <v>3889900</v>
+        <v>3819700</v>
       </c>
       <c r="F52" s="3">
-        <v>3584800</v>
+        <v>3520200</v>
       </c>
       <c r="G52" s="3">
-        <v>3386400</v>
+        <v>3325300</v>
       </c>
       <c r="H52" s="3">
-        <v>3196900</v>
+        <v>3139200</v>
       </c>
       <c r="I52" s="3">
-        <v>3382700</v>
+        <v>3321700</v>
       </c>
       <c r="J52" s="3">
-        <v>3286500</v>
+        <v>3227200</v>
       </c>
       <c r="K52" s="3">
         <v>3053700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>617230000</v>
+        <v>606100000</v>
       </c>
       <c r="E54" s="3">
-        <v>679386000</v>
+        <v>667136000</v>
       </c>
       <c r="F54" s="3">
-        <v>651775000</v>
+        <v>640023000</v>
       </c>
       <c r="G54" s="3">
-        <v>599048000</v>
+        <v>588246000</v>
       </c>
       <c r="H54" s="3">
-        <v>555471000</v>
+        <v>545455000</v>
       </c>
       <c r="I54" s="3">
-        <v>540117000</v>
+        <v>530378000</v>
       </c>
       <c r="J54" s="3">
-        <v>533563000</v>
+        <v>523942000</v>
       </c>
       <c r="K54" s="3">
         <v>529088000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>814840000</v>
+        <v>800147000</v>
       </c>
       <c r="E59" s="3">
-        <v>322619000</v>
+        <v>316801000</v>
       </c>
       <c r="F59" s="3">
-        <v>298439000</v>
+        <v>293058000</v>
       </c>
       <c r="G59" s="3">
-        <v>280209000</v>
+        <v>275156000</v>
       </c>
       <c r="H59" s="3">
-        <v>256666000</v>
+        <v>252038000</v>
       </c>
       <c r="I59" s="3">
-        <v>262847000</v>
+        <v>258108000</v>
       </c>
       <c r="J59" s="3">
-        <v>256008000</v>
+        <v>251392000</v>
       </c>
       <c r="K59" s="3">
         <v>258201000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9147900</v>
+        <v>8982900</v>
       </c>
       <c r="E61" s="3">
-        <v>8782200</v>
+        <v>8623800</v>
       </c>
       <c r="F61" s="3">
-        <v>10359900</v>
+        <v>10173100</v>
       </c>
       <c r="G61" s="3">
-        <v>8938400</v>
+        <v>8777200</v>
       </c>
       <c r="H61" s="3">
-        <v>9995600</v>
+        <v>9815400</v>
       </c>
       <c r="I61" s="3">
-        <v>9752000</v>
+        <v>9576200</v>
       </c>
       <c r="J61" s="3">
-        <v>9532900</v>
+        <v>9361000</v>
       </c>
       <c r="K61" s="3">
         <v>7169200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1137200</v>
+        <v>1116700</v>
       </c>
       <c r="E62" s="3">
-        <v>2050100</v>
+        <v>2013100</v>
       </c>
       <c r="F62" s="3">
-        <v>1935300</v>
+        <v>1900400</v>
       </c>
       <c r="G62" s="3">
-        <v>1460000</v>
+        <v>1433700</v>
       </c>
       <c r="H62" s="3">
-        <v>1343000</v>
+        <v>1318800</v>
       </c>
       <c r="I62" s="3">
-        <v>948400</v>
+        <v>931300</v>
       </c>
       <c r="J62" s="3">
-        <v>1006100</v>
+        <v>988000</v>
       </c>
       <c r="K62" s="3">
         <v>927300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>582582000</v>
+        <v>572077000</v>
       </c>
       <c r="E66" s="3">
-        <v>637056000</v>
+        <v>625569000</v>
       </c>
       <c r="F66" s="3">
-        <v>613609000</v>
+        <v>602544000</v>
       </c>
       <c r="G66" s="3">
-        <v>562848000</v>
+        <v>552698000</v>
       </c>
       <c r="H66" s="3">
-        <v>521371000</v>
+        <v>511970000</v>
       </c>
       <c r="I66" s="3">
-        <v>509589000</v>
+        <v>500400000</v>
       </c>
       <c r="J66" s="3">
-        <v>502409000</v>
+        <v>493350000</v>
       </c>
       <c r="K66" s="3">
         <v>498043000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4930800</v>
+        <v>4841900</v>
       </c>
       <c r="E70" s="3">
-        <v>4724200</v>
+        <v>4639100</v>
       </c>
       <c r="F70" s="3">
-        <v>2829700</v>
+        <v>2778600</v>
       </c>
       <c r="G70" s="3">
-        <v>2829700</v>
+        <v>2778600</v>
       </c>
       <c r="H70" s="3">
-        <v>2829700</v>
+        <v>2778600</v>
       </c>
       <c r="I70" s="3">
-        <v>2648300</v>
+        <v>2600500</v>
       </c>
       <c r="J70" s="3">
-        <v>2648300</v>
+        <v>2600500</v>
       </c>
       <c r="K70" s="3">
         <v>2022100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2922200</v>
+        <v>2869500</v>
       </c>
       <c r="E72" s="3">
-        <v>17392500</v>
+        <v>17078900</v>
       </c>
       <c r="F72" s="3">
-        <v>13983200</v>
+        <v>13731000</v>
       </c>
       <c r="G72" s="3">
-        <v>11466700</v>
+        <v>11259900</v>
       </c>
       <c r="H72" s="3">
-        <v>9405500</v>
+        <v>9235900</v>
       </c>
       <c r="I72" s="3">
-        <v>7465000</v>
+        <v>7330400</v>
       </c>
       <c r="J72" s="3">
-        <v>7225200</v>
+        <v>7094900</v>
       </c>
       <c r="K72" s="3">
         <v>6305700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29717300</v>
+        <v>29181400</v>
       </c>
       <c r="E76" s="3">
-        <v>37605900</v>
+        <v>36927700</v>
       </c>
       <c r="F76" s="3">
-        <v>35336600</v>
+        <v>34699500</v>
       </c>
       <c r="G76" s="3">
-        <v>33370200</v>
+        <v>32768600</v>
       </c>
       <c r="H76" s="3">
-        <v>31269800</v>
+        <v>30706000</v>
       </c>
       <c r="I76" s="3">
-        <v>27879700</v>
+        <v>27377000</v>
       </c>
       <c r="J76" s="3">
-        <v>28506000</v>
+        <v>27992100</v>
       </c>
       <c r="K76" s="3">
         <v>29023000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5207700</v>
+        <v>5113800</v>
       </c>
       <c r="E81" s="3">
-        <v>5101100</v>
+        <v>5009100</v>
       </c>
       <c r="F81" s="3">
-        <v>4220100</v>
+        <v>4144000</v>
       </c>
       <c r="G81" s="3">
-        <v>4020200</v>
+        <v>3947700</v>
       </c>
       <c r="H81" s="3">
-        <v>3429300</v>
+        <v>3367500</v>
       </c>
       <c r="I81" s="3">
-        <v>1440000</v>
+        <v>1414000</v>
       </c>
       <c r="J81" s="3">
-        <v>2070000</v>
+        <v>2032700</v>
       </c>
       <c r="K81" s="3">
         <v>1558000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>398300</v>
+        <v>391100</v>
       </c>
       <c r="E83" s="3">
-        <v>391700</v>
+        <v>384600</v>
       </c>
       <c r="F83" s="3">
-        <v>485700</v>
+        <v>476900</v>
       </c>
       <c r="G83" s="3">
-        <v>463500</v>
+        <v>455100</v>
       </c>
       <c r="H83" s="3">
-        <v>553000</v>
+        <v>543100</v>
       </c>
       <c r="I83" s="3">
-        <v>414600</v>
+        <v>407100</v>
       </c>
       <c r="J83" s="3">
-        <v>513100</v>
+        <v>503800</v>
       </c>
       <c r="K83" s="3">
         <v>435500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13130300</v>
+        <v>12893500</v>
       </c>
       <c r="E89" s="3">
-        <v>17143000</v>
+        <v>16833900</v>
       </c>
       <c r="F89" s="3">
-        <v>14842700</v>
+        <v>14575100</v>
       </c>
       <c r="G89" s="3">
-        <v>15208500</v>
+        <v>14934200</v>
       </c>
       <c r="H89" s="3">
-        <v>14206000</v>
+        <v>13949900</v>
       </c>
       <c r="I89" s="3">
-        <v>13171700</v>
+        <v>12934200</v>
       </c>
       <c r="J89" s="3">
-        <v>12612800</v>
+        <v>12385300</v>
       </c>
       <c r="K89" s="3">
         <v>7759400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13778100</v>
+        <v>-13529700</v>
       </c>
       <c r="E94" s="3">
-        <v>-18095900</v>
+        <v>-17769600</v>
       </c>
       <c r="F94" s="3">
-        <v>-10474600</v>
+        <v>-10285700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10239200</v>
+        <v>-10054500</v>
       </c>
       <c r="H94" s="3">
-        <v>-14068300</v>
+        <v>-13814600</v>
       </c>
       <c r="I94" s="3">
-        <v>-12058200</v>
+        <v>-11840800</v>
       </c>
       <c r="J94" s="3">
-        <v>-16835000</v>
+        <v>-16531500</v>
       </c>
       <c r="K94" s="3">
         <v>-10410700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2063400</v>
+        <v>-2026200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1850900</v>
+        <v>-1817500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1732400</v>
+        <v>-1701200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1035000</v>
+        <v>-1016400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1323800</v>
+        <v>-1299900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1317800</v>
+        <v>-1294100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1179400</v>
+        <v>-1158100</v>
       </c>
       <c r="K96" s="3">
         <v>-1071500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2224800</v>
+        <v>-2184700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1515500</v>
+        <v>-1488200</v>
       </c>
       <c r="F100" s="3">
-        <v>490900</v>
+        <v>482000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1539900</v>
+        <v>-1512200</v>
       </c>
       <c r="H100" s="3">
-        <v>-536000</v>
+        <v>-526400</v>
       </c>
       <c r="I100" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="J100" s="3">
-        <v>2432800</v>
+        <v>2389000</v>
       </c>
       <c r="K100" s="3">
         <v>-1506200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>433100</v>
+        <v>425300</v>
       </c>
       <c r="E101" s="3">
-        <v>-236200</v>
+        <v>-231900</v>
       </c>
       <c r="F101" s="3">
-        <v>-390900</v>
+        <v>-383900</v>
       </c>
       <c r="G101" s="3">
-        <v>-345000</v>
+        <v>-338800</v>
       </c>
       <c r="H101" s="3">
-        <v>608600</v>
+        <v>597600</v>
       </c>
       <c r="I101" s="3">
-        <v>-487200</v>
+        <v>-478400</v>
       </c>
       <c r="J101" s="3">
-        <v>-256900</v>
+        <v>-252300</v>
       </c>
       <c r="K101" s="3">
         <v>1578300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2439500</v>
+        <v>-2395500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2704500</v>
+        <v>-2655800</v>
       </c>
       <c r="F102" s="3">
-        <v>4468100</v>
+        <v>4387500</v>
       </c>
       <c r="G102" s="3">
-        <v>3084300</v>
+        <v>3028700</v>
       </c>
       <c r="H102" s="3">
-        <v>210300</v>
+        <v>206500</v>
       </c>
       <c r="I102" s="3">
-        <v>636700</v>
+        <v>625200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2046400</v>
+        <v>-2009500</v>
       </c>
       <c r="K102" s="3">
         <v>-2579200</v>
